--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Post WP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>nomer</t>
   </si>
@@ -598,53 +593,56 @@
     <t>85646521153</t>
   </si>
   <si>
-    <t>Architect</t>
-  </si>
-  <si>
-    <t>Architectural</t>
-  </si>
-  <si>
-    <t>Architecture</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Creative</t>
-  </si>
-  <si>
-    <t>Decoration</t>
-  </si>
-  <si>
-    <t>Elegant</t>
-  </si>
-  <si>
-    <t>Exterior</t>
-  </si>
-  <si>
-    <t>House</t>
-  </si>
-  <si>
-    <t>Interior</t>
-  </si>
-  <si>
-    <t>Minimalist</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Elementor Pro</t>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>corporate agency</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>designer</t>
+  </si>
+  <si>
+    <t>elementor</t>
+  </si>
+  <si>
+    <t>freelancer</t>
+  </si>
+  <si>
+    <t>marketing agency</t>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>multipurpose agency</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>responsive</t>
+  </si>
+  <si>
+    <t>startup business</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,16 +650,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -669,9 +997,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -679,22 +1249,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -952,25 +1566,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:C191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8571428571429" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -978,7 +1592,7 @@
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -986,7 +1600,7 @@
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -994,7 +1608,7 @@
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1002,7 +1616,7 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1010,7 +1624,7 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1018,7 +1632,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1026,7 +1640,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1034,7 +1648,7 @@
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1042,7 +1656,7 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1050,7 +1664,7 @@
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1058,7 +1672,7 @@
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1066,7 +1680,7 @@
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1074,7 +1688,7 @@
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1082,7 +1696,7 @@
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1090,7 +1704,7 @@
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1098,7 +1712,7 @@
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1106,7 +1720,7 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1114,7 +1728,7 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1122,7 +1736,7 @@
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1130,7 +1744,7 @@
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1138,7 +1752,7 @@
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1146,7 +1760,7 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1154,7 +1768,7 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -1162,7 +1776,7 @@
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -1170,7 +1784,7 @@
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C26">
@@ -1178,7 +1792,7 @@
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C27">
@@ -1186,7 +1800,7 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C28">
@@ -1194,7 +1808,7 @@
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C29">
@@ -1202,7 +1816,7 @@
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C30">
@@ -1210,7 +1824,7 @@
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C31">
@@ -1218,7 +1832,7 @@
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C32">
@@ -1226,7 +1840,7 @@
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C33">
@@ -1234,7 +1848,7 @@
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C34">
@@ -1242,7 +1856,7 @@
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C35">
@@ -1250,7 +1864,7 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C36">
@@ -1258,7 +1872,7 @@
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C37">
@@ -1266,7 +1880,7 @@
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C38">
@@ -1274,7 +1888,7 @@
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C39">
@@ -1282,7 +1896,7 @@
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C40">
@@ -1290,7 +1904,7 @@
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C41">
@@ -1298,7 +1912,7 @@
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C42">
@@ -1306,7 +1920,7 @@
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C43">
@@ -1314,7 +1928,7 @@
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C44">
@@ -1322,7 +1936,7 @@
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C45">
@@ -1330,7 +1944,7 @@
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C46">
@@ -1338,7 +1952,7 @@
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C47">
@@ -1346,7 +1960,7 @@
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C48">
@@ -1354,7 +1968,7 @@
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C49">
@@ -1362,7 +1976,7 @@
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C50">
@@ -1370,7 +1984,7 @@
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C51">
@@ -1378,7 +1992,7 @@
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C52">
@@ -1386,7 +2000,7 @@
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C53">
@@ -1394,7 +2008,7 @@
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C54">
@@ -1402,7 +2016,7 @@
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C55">
@@ -1410,7 +2024,7 @@
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C56">
@@ -1418,7 +2032,7 @@
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C57">
@@ -1426,7 +2040,7 @@
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C58">
@@ -1434,7 +2048,7 @@
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C59">
@@ -1442,7 +2056,7 @@
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C60">
@@ -1450,7 +2064,7 @@
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C61">
@@ -1458,7 +2072,7 @@
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C62">
@@ -1466,7 +2080,7 @@
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C63">
@@ -1474,7 +2088,7 @@
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C64">
@@ -1482,7 +2096,7 @@
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C65">
@@ -1490,7 +2104,7 @@
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C66">
@@ -1498,7 +2112,7 @@
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C67">
@@ -1506,7 +2120,7 @@
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C68">
@@ -1514,7 +2128,7 @@
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C69">
@@ -1522,7 +2136,7 @@
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C70">
@@ -1530,7 +2144,7 @@
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C71">
@@ -1538,7 +2152,7 @@
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C72">
@@ -1546,7 +2160,7 @@
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C73">
@@ -1554,7 +2168,7 @@
       </c>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C74">
@@ -1562,7 +2176,7 @@
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C75">
@@ -1570,7 +2184,7 @@
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C76">
@@ -1578,7 +2192,7 @@
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C77">
@@ -1586,7 +2200,7 @@
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C78">
@@ -1594,7 +2208,7 @@
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C79">
@@ -1602,7 +2216,7 @@
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C80">
@@ -1610,7 +2224,7 @@
       </c>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C81">
@@ -1618,7 +2232,7 @@
       </c>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C82">
@@ -1626,7 +2240,7 @@
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C83">
@@ -1634,7 +2248,7 @@
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C84">
@@ -1642,7 +2256,7 @@
       </c>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C85">
@@ -1650,7 +2264,7 @@
       </c>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C86">
@@ -1658,7 +2272,7 @@
       </c>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C87">
@@ -1666,7 +2280,7 @@
       </c>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C88">
@@ -1674,7 +2288,7 @@
       </c>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C89">
@@ -1682,7 +2296,7 @@
       </c>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C90">
@@ -1690,7 +2304,7 @@
       </c>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C91">
@@ -1698,7 +2312,7 @@
       </c>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C92">
@@ -1706,7 +2320,7 @@
       </c>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C93">
@@ -1714,7 +2328,7 @@
       </c>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C94">
@@ -1722,7 +2336,7 @@
       </c>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C95">
@@ -1730,7 +2344,7 @@
       </c>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C96">
@@ -1738,7 +2352,7 @@
       </c>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C97">
@@ -1746,7 +2360,7 @@
       </c>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C98">
@@ -1754,7 +2368,7 @@
       </c>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C99">
@@ -1762,7 +2376,7 @@
       </c>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C100">
@@ -1770,7 +2384,7 @@
       </c>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C101">
@@ -1778,7 +2392,7 @@
       </c>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C102">
@@ -1786,7 +2400,7 @@
       </c>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C103">
@@ -1794,7 +2408,7 @@
       </c>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C104">
@@ -1802,7 +2416,7 @@
       </c>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C105">
@@ -1810,7 +2424,7 @@
       </c>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C106">
@@ -1818,7 +2432,7 @@
       </c>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C107">
@@ -1826,7 +2440,7 @@
       </c>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C108">
@@ -1834,7 +2448,7 @@
       </c>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C109">
@@ -1842,7 +2456,7 @@
       </c>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C110">
@@ -1850,7 +2464,7 @@
       </c>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C111">
@@ -1858,7 +2472,7 @@
       </c>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C112">
@@ -1866,7 +2480,7 @@
       </c>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C113">
@@ -1874,7 +2488,7 @@
       </c>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C114">
@@ -1882,7 +2496,7 @@
       </c>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C115">
@@ -1890,7 +2504,7 @@
       </c>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C116">
@@ -1898,7 +2512,7 @@
       </c>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C117">
@@ -1906,7 +2520,7 @@
       </c>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C118">
@@ -1914,7 +2528,7 @@
       </c>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C119">
@@ -1922,7 +2536,7 @@
       </c>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C120">
@@ -1930,7 +2544,7 @@
       </c>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C121">
@@ -1938,7 +2552,7 @@
       </c>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C122">
@@ -1946,7 +2560,7 @@
       </c>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C123">
@@ -1954,7 +2568,7 @@
       </c>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C124">
@@ -1962,7 +2576,7 @@
       </c>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C125">
@@ -1970,7 +2584,7 @@
       </c>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C126">
@@ -1978,7 +2592,7 @@
       </c>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C127">
@@ -1986,7 +2600,7 @@
       </c>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C128">
@@ -1994,7 +2608,7 @@
       </c>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C129">
@@ -2002,7 +2616,7 @@
       </c>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C130">
@@ -2010,7 +2624,7 @@
       </c>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C131">
@@ -2018,7 +2632,7 @@
       </c>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C132">
@@ -2026,7 +2640,7 @@
       </c>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C133">
@@ -2034,7 +2648,7 @@
       </c>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C134">
@@ -2042,7 +2656,7 @@
       </c>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C135">
@@ -2050,7 +2664,7 @@
       </c>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C136">
@@ -2058,7 +2672,7 @@
       </c>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C137">
@@ -2066,7 +2680,7 @@
       </c>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C138">
@@ -2074,7 +2688,7 @@
       </c>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C139">
@@ -2082,7 +2696,7 @@
       </c>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C140">
@@ -2090,7 +2704,7 @@
       </c>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C141">
@@ -2098,7 +2712,7 @@
       </c>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C142">
@@ -2106,7 +2720,7 @@
       </c>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C143">
@@ -2114,7 +2728,7 @@
       </c>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C144">
@@ -2122,7 +2736,7 @@
       </c>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C145">
@@ -2130,7 +2744,7 @@
       </c>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C146">
@@ -2138,7 +2752,7 @@
       </c>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C147">
@@ -2146,7 +2760,7 @@
       </c>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C148">
@@ -2154,7 +2768,7 @@
       </c>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C149">
@@ -2162,7 +2776,7 @@
       </c>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C150">
@@ -2170,7 +2784,7 @@
       </c>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C151">
@@ -2178,7 +2792,7 @@
       </c>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C152">
@@ -2186,7 +2800,7 @@
       </c>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C153">
@@ -2194,7 +2808,7 @@
       </c>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C154">
@@ -2202,7 +2816,7 @@
       </c>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C155">
@@ -2210,7 +2824,7 @@
       </c>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C156">
@@ -2218,7 +2832,7 @@
       </c>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C157">
@@ -2226,7 +2840,7 @@
       </c>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C158">
@@ -2234,7 +2848,7 @@
       </c>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C159">
@@ -2242,7 +2856,7 @@
       </c>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C160">
@@ -2250,7 +2864,7 @@
       </c>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C161">
@@ -2258,7 +2872,7 @@
       </c>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C162">
@@ -2266,7 +2880,7 @@
       </c>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C163">
@@ -2274,7 +2888,7 @@
       </c>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C164">
@@ -2282,7 +2896,7 @@
       </c>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C165">
@@ -2290,7 +2904,7 @@
       </c>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C166">
@@ -2298,7 +2912,7 @@
       </c>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C167">
@@ -2306,7 +2920,7 @@
       </c>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C168">
@@ -2314,7 +2928,7 @@
       </c>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C169">
@@ -2322,7 +2936,7 @@
       </c>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C170">
@@ -2330,7 +2944,7 @@
       </c>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C171">
@@ -2338,7 +2952,7 @@
       </c>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C172">
@@ -2346,7 +2960,7 @@
       </c>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C173">
@@ -2354,7 +2968,7 @@
       </c>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C174">
@@ -2362,7 +2976,7 @@
       </c>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C175">
@@ -2370,7 +2984,7 @@
       </c>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C176">
@@ -2378,7 +2992,7 @@
       </c>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C177">
@@ -2386,7 +3000,7 @@
       </c>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C178">
@@ -2394,7 +3008,7 @@
       </c>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C179">
@@ -2402,7 +3016,7 @@
       </c>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C180">
@@ -2410,7 +3024,7 @@
       </c>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C181">
@@ -2418,7 +3032,7 @@
       </c>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C182">
@@ -2426,7 +3040,7 @@
       </c>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C183">
@@ -2434,7 +3048,7 @@
       </c>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C184">
@@ -2442,7 +3056,7 @@
       </c>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C185">
@@ -2450,7 +3064,7 @@
       </c>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C186">
@@ -2458,7 +3072,7 @@
       </c>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C187">
@@ -2466,7 +3080,7 @@
       </c>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C188">
@@ -2474,7 +3088,7 @@
       </c>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C189">
@@ -2482,7 +3096,7 @@
       </c>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C190">
@@ -2490,7 +3104,7 @@
       </c>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C191">
@@ -2499,298 +3113,298 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>192</v>
       </c>
       <c r="B2" t="str">
         <f>PROPER(A2)</f>
-        <v>Architect</v>
+        <v>Agency</v>
       </c>
       <c r="C2" t="str">
         <f>B2&amp;","</f>
-        <v>Architect,</v>
+        <v>Agency,</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE(B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8,",",B9,",",B10,",",B11,",",B12,",",B13,",",B14,",",B15,",",B16,",",B17,",",B18,",",B19,",",B20)</f>
-        <v>Architect,Architectural,Architecture,Building,Company,Creative,Decoration,Elegant,Exterior,House,Interior,Minimalist,Service,Elementor Pro,,,,,</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+        <v>Agency,Clean,Corporate Agency,Creative,Designer,Elementor,Freelancer,Marketing Agency,Modern,Multipurpose Agency,Portfolio,Responsive,Startup Business,,,,,,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>193</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B20" si="0">PROPER(A3)</f>
-        <v>Architectural</v>
+        <v>Clean</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C20" si="1">B3&amp;","</f>
-        <v>Architectural,</v>
+        <v>Clean,</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>194</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>Architecture</v>
+        <v>Corporate Agency</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>Architecture,</v>
+        <v>Corporate Agency,</v>
       </c>
       <c r="E4">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F4" t="str">
         <f>E4&amp;","</f>
-        <v>51,</v>
+        <v>61,</v>
       </c>
       <c r="G4" t="str">
         <f>CONCATENATE(F4,F5,F6,F7,F8,F9,F10,F11,F12,F13)</f>
-        <v>51,52,53,54,55,56,57,58,59,60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+        <v>61,62,63,64,65,66,67,68,69,70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>195</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>Building</v>
+        <v>Creative</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>Building,</v>
+        <v>Creative,</v>
       </c>
       <c r="E5">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F12" si="2">E5&amp;","</f>
-        <v>52,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+        <v>62,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>196</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>Company</v>
+        <v>Designer</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>Company,</v>
+        <v>Designer,</v>
       </c>
       <c r="E6">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
-        <v>53,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+        <v>63,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>197</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>Creative</v>
+        <v>Elementor</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>Creative,</v>
+        <v>Elementor,</v>
       </c>
       <c r="E7">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
-        <v>54,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+        <v>64,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>198</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>Decoration</v>
+        <v>Freelancer</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>Decoration,</v>
+        <v>Freelancer,</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
-        <v>55,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+        <v>65,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>199</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>Elegant</v>
+        <v>Marketing Agency</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>Elegant,</v>
+        <v>Marketing Agency,</v>
       </c>
       <c r="E9">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
-        <v>56,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+        <v>66,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>200</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>Exterior</v>
+        <v>Modern</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>Exterior,</v>
+        <v>Modern,</v>
       </c>
       <c r="E10">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
-        <v>57,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+        <v>67,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>201</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>House</v>
+        <v>Multipurpose Agency</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>House,</v>
+        <v>Multipurpose Agency,</v>
       </c>
       <c r="E11">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
-        <v>58,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
+        <v>68,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>202</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>Interior</v>
+        <v>Portfolio</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>Interior,</v>
+        <v>Portfolio,</v>
       </c>
       <c r="E12">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
-        <v>59,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
+        <v>69,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>203</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>Minimalist</v>
+        <v>Responsive</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>Minimalist,</v>
+        <v>Responsive,</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F13" t="str">
         <f>E13&amp;""</f>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>204</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>Service</v>
+        <v>Startup Business</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>Service,</v>
+        <v>Startup Business,</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ref="F14:F22" si="3">E14&amp;","</f>
-        <v>61,</v>
+        <v>71,</v>
       </c>
       <c r="G14" t="str">
         <f>CONCATENATE(F14,F15,F16,F17,F18,F19,F20,F21,F22,F23)</f>
-        <v>61,62,63,64,65,66,67,68,69,70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>71,72,73,74,75,76,77,78,79,80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>Elementor Pro</v>
+        <v/>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>Elementor Pro,</v>
+        <v>,</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
-        <v>62,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>72,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2800,11 +3414,11 @@
         <v>,</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
-        <v>63,</v>
+        <v>73,</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -2817,11 +3431,11 @@
         <v>,</v>
       </c>
       <c r="E17">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
-        <v>64,</v>
+        <v>74,</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -2834,11 +3448,11 @@
         <v>,</v>
       </c>
       <c r="E18">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
-        <v>65,</v>
+        <v>75,</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -2851,11 +3465,11 @@
         <v>,</v>
       </c>
       <c r="E19">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
-        <v>66,</v>
+        <v>76,</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -2868,42 +3482,259 @@
         <v>,</v>
       </c>
       <c r="E20">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
-        <v>67,</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
+        <v>77,</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
       <c r="E21">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
-        <v>68,</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
+        <v>78,</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
       <c r="E22">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
-        <v>69,</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
+        <v>79,</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
       <c r="E23">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F23" t="str">
         <f>E23&amp;""</f>
-        <v>70</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24">
+        <v>81</v>
+      </c>
+      <c r="F24" t="str">
+        <f>E24&amp;","</f>
+        <v>81,</v>
+      </c>
+      <c r="G24" t="str">
+        <f>CONCATENATE(F24,F25,F26,F27,F28,F29,F30,F31,F32,F33)</f>
+        <v>81,82,83,84,85,86,87,88,89,90</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25">
+        <v>82</v>
+      </c>
+      <c r="F25" t="str">
+        <f>E25&amp;","</f>
+        <v>82,</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26">
+        <v>83</v>
+      </c>
+      <c r="F26" t="str">
+        <f>E26&amp;","</f>
+        <v>83,</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27">
+        <v>84</v>
+      </c>
+      <c r="F27" t="str">
+        <f>E27&amp;","</f>
+        <v>84,</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28">
+        <v>85</v>
+      </c>
+      <c r="F28" t="str">
+        <f>E28&amp;","</f>
+        <v>85,</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29">
+        <v>86</v>
+      </c>
+      <c r="F29" t="str">
+        <f>E29&amp;","</f>
+        <v>86,</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30">
+        <v>87</v>
+      </c>
+      <c r="F30" t="str">
+        <f>E30&amp;","</f>
+        <v>87,</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6">
+      <c r="E31">
+        <v>88</v>
+      </c>
+      <c r="F31" t="str">
+        <f>E31&amp;","</f>
+        <v>88,</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6">
+      <c r="E32">
+        <v>89</v>
+      </c>
+      <c r="F32" t="str">
+        <f>E32&amp;","</f>
+        <v>89,</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33">
+        <v>90</v>
+      </c>
+      <c r="F33" t="str">
+        <f>E33&amp;""</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34">
+        <v>91</v>
+      </c>
+      <c r="F34" t="str">
+        <f>E34&amp;","</f>
+        <v>91,</v>
+      </c>
+      <c r="G34" t="str">
+        <f>CONCATENATE(F34,F35,F36,F37,F38,F39,F40,F41,F42,F43)</f>
+        <v>91,92,93,94,95,96,97,98,99,100</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35">
+        <v>92</v>
+      </c>
+      <c r="F35" t="str">
+        <f>E35&amp;","</f>
+        <v>92,</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36">
+        <v>93</v>
+      </c>
+      <c r="F36" t="str">
+        <f>E36&amp;","</f>
+        <v>93,</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37">
+        <v>94</v>
+      </c>
+      <c r="F37" t="str">
+        <f>E37&amp;","</f>
+        <v>94,</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38">
+        <v>95</v>
+      </c>
+      <c r="F38" t="str">
+        <f>E38&amp;","</f>
+        <v>95,</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6">
+      <c r="E39">
+        <v>96</v>
+      </c>
+      <c r="F39" t="str">
+        <f>E39&amp;","</f>
+        <v>96,</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6">
+      <c r="E40">
+        <v>97</v>
+      </c>
+      <c r="F40" t="str">
+        <f>E40&amp;","</f>
+        <v>97,</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6">
+      <c r="E41">
+        <v>98</v>
+      </c>
+      <c r="F41" t="str">
+        <f>E41&amp;","</f>
+        <v>98,</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6">
+      <c r="E42">
+        <v>99</v>
+      </c>
+      <c r="F42" t="str">
+        <f>E42&amp;","</f>
+        <v>99,</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6">
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43" t="str">
+        <f>E43&amp;""</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="E44">
+        <v>101</v>
+      </c>
+      <c r="F44" t="str">
+        <f>E44&amp;","</f>
+        <v>101,</v>
+      </c>
+      <c r="G44" t="str">
+        <f>CONCATENATE(F44,F45,F46,F47,F48,F49,F50,F51,F52,F53)</f>
+        <v>101,</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="agency" tooltip="https://elements.envato.com/wordpress/agency"/>
+    <hyperlink ref="A3" r:id="rId2" display="clean" tooltip="https://elements.envato.com/wordpress/clean"/>
+    <hyperlink ref="A4" r:id="rId3" display="corporate agency" tooltip="https://elements.envato.com/wordpress/corporate+agency"/>
+    <hyperlink ref="A5" r:id="rId4" display="creative" tooltip="https://elements.envato.com/wordpress/creative"/>
+    <hyperlink ref="A6" r:id="rId5" display="designer" tooltip="https://elements.envato.com/wordpress/designer"/>
+    <hyperlink ref="A7" r:id="rId6" display="elementor" tooltip="https://elements.envato.com/wordpress/elementor"/>
+    <hyperlink ref="A8" r:id="rId7" display="freelancer" tooltip="https://elements.envato.com/wordpress/freelancer"/>
+    <hyperlink ref="A9" r:id="rId8" display="marketing agency" tooltip="https://elements.envato.com/wordpress/marketing+agency"/>
+    <hyperlink ref="A10" r:id="rId9" display="modern" tooltip="https://elements.envato.com/wordpress/modern"/>
+    <hyperlink ref="A11" r:id="rId10" display="multipurpose agency" tooltip="https://elements.envato.com/wordpress/multipurpose+agency"/>
+    <hyperlink ref="A12" r:id="rId11" display="portfolio" tooltip="https://elements.envato.com/wordpress/portfolio"/>
+    <hyperlink ref="A13" r:id="rId12" display="responsive" tooltip="https://elements.envato.com/wordpress/responsive"/>
+    <hyperlink ref="A14" r:id="rId13" display="startup business" tooltip="https://elements.envato.com/wordpress/startup+business"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="236">
   <si>
     <t>nomer</t>
   </si>
@@ -595,169 +595,91 @@
     <t>85646521153</t>
   </si>
   <si>
-    <t>agency</t>
-  </si>
-  <si>
-    <t>consultant</t>
+    <t>business</t>
+  </si>
+  <si>
+    <t>coworking</t>
   </si>
   <si>
     <t>creative agency</t>
   </si>
   <si>
-    <t>102,</t>
-  </si>
-  <si>
-    <t>103,</t>
-  </si>
-  <si>
-    <t>104,</t>
-  </si>
-  <si>
-    <t>105,</t>
-  </si>
-  <si>
-    <t>106,</t>
-  </si>
-  <si>
-    <t>107,</t>
-  </si>
-  <si>
-    <t>108,</t>
-  </si>
-  <si>
-    <t>109,</t>
-  </si>
-  <si>
-    <t>110,</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112,</t>
-  </si>
-  <si>
-    <t>113,</t>
-  </si>
-  <si>
-    <t>114,</t>
-  </si>
-  <si>
-    <t>115,</t>
-  </si>
-  <si>
-    <t>116,</t>
-  </si>
-  <si>
-    <t>117,</t>
-  </si>
-  <si>
-    <t>118,</t>
-  </si>
-  <si>
-    <t>119,</t>
-  </si>
-  <si>
-    <t>120,</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122,</t>
-  </si>
-  <si>
-    <t>123,</t>
-  </si>
-  <si>
-    <t>124,</t>
-  </si>
-  <si>
-    <t>125,</t>
-  </si>
-  <si>
-    <t>126,</t>
-  </si>
-  <si>
-    <t>127,</t>
-  </si>
-  <si>
-    <t>128,</t>
-  </si>
-  <si>
-    <t>129,</t>
-  </si>
-  <si>
-    <t>130,</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132,</t>
-  </si>
-  <si>
-    <t>133,</t>
-  </si>
-  <si>
-    <t>134,</t>
-  </si>
-  <si>
-    <t>135,</t>
-  </si>
-  <si>
-    <t>136,</t>
-  </si>
-  <si>
-    <t>137,</t>
-  </si>
-  <si>
-    <t>138,</t>
-  </si>
-  <si>
-    <t>139,</t>
-  </si>
-  <si>
-    <t>140,</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142,</t>
-  </si>
-  <si>
-    <t>143,</t>
-  </si>
-  <si>
-    <t>144,</t>
-  </si>
-  <si>
-    <t>145,</t>
-  </si>
-  <si>
-    <t>146,</t>
-  </si>
-  <si>
-    <t>147,</t>
-  </si>
-  <si>
-    <t>148,</t>
-  </si>
-  <si>
-    <t>149,</t>
-  </si>
-  <si>
-    <t>150,</t>
-  </si>
-  <si>
-    <t>151,</t>
-  </si>
-  <si>
-    <t>152,</t>
-  </si>
-  <si>
-    <t>creative company</t>
+    <t>153,</t>
+  </si>
+  <si>
+    <t>154,</t>
+  </si>
+  <si>
+    <t>155,</t>
+  </si>
+  <si>
+    <t>156,</t>
+  </si>
+  <si>
+    <t>157,</t>
+  </si>
+  <si>
+    <t>158,</t>
+  </si>
+  <si>
+    <t>159,</t>
+  </si>
+  <si>
+    <t>160,</t>
+  </si>
+  <si>
+    <t>161,</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163,</t>
+  </si>
+  <si>
+    <t>164,</t>
+  </si>
+  <si>
+    <t>165,</t>
+  </si>
+  <si>
+    <t>166,</t>
+  </si>
+  <si>
+    <t>167,</t>
+  </si>
+  <si>
+    <t>168,</t>
+  </si>
+  <si>
+    <t>169,</t>
+  </si>
+  <si>
+    <t>170,</t>
+  </si>
+  <si>
+    <t>171,</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173,</t>
+  </si>
+  <si>
+    <t>174,</t>
+  </si>
+  <si>
+    <t>175,</t>
+  </si>
+  <si>
+    <t>176,</t>
+  </si>
+  <si>
+    <t>177,</t>
+  </si>
+  <si>
+    <t>digital agency</t>
   </si>
   <si>
     <t>digital marketing</t>
@@ -766,28 +688,22 @@
     <t>marketing</t>
   </si>
   <si>
-    <t>pr</t>
-  </si>
-  <si>
-    <t>pr company</t>
-  </si>
-  <si>
-    <t>public relation</t>
-  </si>
-  <si>
-    <t>public relation company</t>
-  </si>
-  <si>
-    <t>seo</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>virtual assistant</t>
-  </si>
-  <si>
-    <t>wordpress template</t>
+    <t>one page</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>seo agency</t>
+  </si>
+  <si>
+    <t>startup</t>
+  </si>
+  <si>
+    <t>web development</t>
+  </si>
+  <si>
+    <t>Internet services</t>
   </si>
   <si>
     <t>Tanggal</t>
@@ -806,6 +722,9 @@
   </si>
   <si>
     <t>102,103,104,105,106,107,108,109,110,111112,113,114,115,116,117,118,119,120,121122,123,124,125,126,127,128,129,130,131132,133,134,135,136,137,138,139,140,141142,143,144,145,146,147,148,149,150,151,152</t>
+  </si>
+  <si>
+    <t>153,154,155,156,157,158,159,160,161,162163,164,165,166,167,168,169,170,171,172173,174,175,176,177</t>
   </si>
 </sst>
 </file>
@@ -814,8 +733,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -834,69 +753,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -909,30 +782,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,8 +831,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,14 +888,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,19 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,19 +928,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,85 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,13 +1012,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,25 +1084,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,30 +1101,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1228,7 +1123,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,16 +1154,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1277,6 +1187,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1287,143 +1206,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1756,11 +1678,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15238095238095" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="12.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8571428571429" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -1768,7 +1690,7 @@
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1776,7 +1698,7 @@
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1784,7 +1706,7 @@
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1792,7 +1714,7 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1800,7 +1722,7 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1808,7 +1730,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1816,7 +1738,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1824,7 +1746,7 @@
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1832,7 +1754,7 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1840,7 +1762,7 @@
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1848,7 +1770,7 @@
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1856,7 +1778,7 @@
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1864,7 +1786,7 @@
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1872,7 +1794,7 @@
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1880,7 +1802,7 @@
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1888,7 +1810,7 @@
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1896,7 +1818,7 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1904,7 +1826,7 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1912,7 +1834,7 @@
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1920,7 +1842,7 @@
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1928,7 +1850,7 @@
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1936,7 +1858,7 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1944,7 +1866,7 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -1952,7 +1874,7 @@
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -1960,7 +1882,7 @@
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C26">
@@ -1968,7 +1890,7 @@
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C27">
@@ -1976,7 +1898,7 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C28">
@@ -1984,7 +1906,7 @@
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C29">
@@ -1992,7 +1914,7 @@
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C30">
@@ -2000,7 +1922,7 @@
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C31">
@@ -2008,7 +1930,7 @@
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C32">
@@ -2016,7 +1938,7 @@
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C33">
@@ -2024,7 +1946,7 @@
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C34">
@@ -2032,7 +1954,7 @@
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C35">
@@ -2040,7 +1962,7 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C36">
@@ -2048,7 +1970,7 @@
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C37">
@@ -2056,7 +1978,7 @@
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C38">
@@ -2064,7 +1986,7 @@
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C39">
@@ -2072,7 +1994,7 @@
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C40">
@@ -2080,7 +2002,7 @@
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C41">
@@ -2088,7 +2010,7 @@
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C42">
@@ -2096,7 +2018,7 @@
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C43">
@@ -2104,7 +2026,7 @@
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C44">
@@ -2112,7 +2034,7 @@
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C45">
@@ -2120,7 +2042,7 @@
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C46">
@@ -2128,7 +2050,7 @@
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C47">
@@ -2136,7 +2058,7 @@
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C48">
@@ -2144,7 +2066,7 @@
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C49">
@@ -2152,7 +2074,7 @@
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C50">
@@ -2160,7 +2082,7 @@
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C51">
@@ -2168,7 +2090,7 @@
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C52">
@@ -2176,7 +2098,7 @@
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C53">
@@ -2184,7 +2106,7 @@
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C54">
@@ -2192,7 +2114,7 @@
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C55">
@@ -2200,7 +2122,7 @@
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C56">
@@ -2208,7 +2130,7 @@
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C57">
@@ -2216,7 +2138,7 @@
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C58">
@@ -2224,7 +2146,7 @@
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C59">
@@ -2232,7 +2154,7 @@
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C60">
@@ -2240,7 +2162,7 @@
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C61">
@@ -2248,7 +2170,7 @@
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C62">
@@ -2256,7 +2178,7 @@
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C63">
@@ -2264,7 +2186,7 @@
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C64">
@@ -2272,7 +2194,7 @@
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C65">
@@ -2280,7 +2202,7 @@
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C66">
@@ -2288,7 +2210,7 @@
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C67">
@@ -2296,7 +2218,7 @@
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C68">
@@ -2304,7 +2226,7 @@
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C69">
@@ -2312,7 +2234,7 @@
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C70">
@@ -2320,7 +2242,7 @@
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C71">
@@ -2328,7 +2250,7 @@
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C72">
@@ -2336,7 +2258,7 @@
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C73">
@@ -2344,7 +2266,7 @@
       </c>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C74">
@@ -2352,7 +2274,7 @@
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C75">
@@ -2360,7 +2282,7 @@
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C76">
@@ -2368,7 +2290,7 @@
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C77">
@@ -2376,7 +2298,7 @@
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C78">
@@ -2384,7 +2306,7 @@
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C79">
@@ -2392,7 +2314,7 @@
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C80">
@@ -2400,7 +2322,7 @@
       </c>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C81">
@@ -2408,7 +2330,7 @@
       </c>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C82">
@@ -2416,7 +2338,7 @@
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C83">
@@ -2424,7 +2346,7 @@
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C84">
@@ -2432,7 +2354,7 @@
       </c>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C85">
@@ -2440,7 +2362,7 @@
       </c>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C86">
@@ -2448,7 +2370,7 @@
       </c>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C87">
@@ -2456,7 +2378,7 @@
       </c>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C88">
@@ -2464,7 +2386,7 @@
       </c>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C89">
@@ -2472,7 +2394,7 @@
       </c>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C90">
@@ -2480,7 +2402,7 @@
       </c>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C91">
@@ -2488,7 +2410,7 @@
       </c>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C92">
@@ -2496,7 +2418,7 @@
       </c>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C93">
@@ -2504,7 +2426,7 @@
       </c>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C94">
@@ -2512,7 +2434,7 @@
       </c>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C95">
@@ -2520,7 +2442,7 @@
       </c>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C96">
@@ -2528,7 +2450,7 @@
       </c>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C97">
@@ -2536,7 +2458,7 @@
       </c>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C98">
@@ -2544,7 +2466,7 @@
       </c>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C99">
@@ -2552,7 +2474,7 @@
       </c>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C100">
@@ -2560,7 +2482,7 @@
       </c>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C101">
@@ -2568,7 +2490,7 @@
       </c>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C102">
@@ -2576,7 +2498,7 @@
       </c>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C103">
@@ -2584,7 +2506,7 @@
       </c>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C104">
@@ -2592,7 +2514,7 @@
       </c>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C105">
@@ -2600,7 +2522,7 @@
       </c>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C106">
@@ -2608,7 +2530,7 @@
       </c>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C107">
@@ -2616,7 +2538,7 @@
       </c>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C108">
@@ -2624,7 +2546,7 @@
       </c>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C109">
@@ -2632,7 +2554,7 @@
       </c>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C110">
@@ -2640,7 +2562,7 @@
       </c>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C111">
@@ -2648,7 +2570,7 @@
       </c>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C112">
@@ -2656,7 +2578,7 @@
       </c>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C113">
@@ -2664,7 +2586,7 @@
       </c>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C114">
@@ -2672,7 +2594,7 @@
       </c>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C115">
@@ -2680,7 +2602,7 @@
       </c>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C116">
@@ -2688,7 +2610,7 @@
       </c>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C117">
@@ -2696,7 +2618,7 @@
       </c>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C118">
@@ -2704,7 +2626,7 @@
       </c>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C119">
@@ -2712,7 +2634,7 @@
       </c>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C120">
@@ -2720,7 +2642,7 @@
       </c>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C121">
@@ -2728,7 +2650,7 @@
       </c>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C122">
@@ -2736,7 +2658,7 @@
       </c>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C123">
@@ -2744,7 +2666,7 @@
       </c>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C124">
@@ -2752,7 +2674,7 @@
       </c>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C125">
@@ -2760,7 +2682,7 @@
       </c>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C126">
@@ -2768,7 +2690,7 @@
       </c>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C127">
@@ -2776,7 +2698,7 @@
       </c>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C128">
@@ -2784,7 +2706,7 @@
       </c>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C129">
@@ -2792,7 +2714,7 @@
       </c>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C130">
@@ -2800,7 +2722,7 @@
       </c>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C131">
@@ -2808,7 +2730,7 @@
       </c>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C132">
@@ -2816,7 +2738,7 @@
       </c>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C133">
@@ -2824,7 +2746,7 @@
       </c>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C134">
@@ -2832,7 +2754,7 @@
       </c>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C135">
@@ -2840,7 +2762,7 @@
       </c>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C136">
@@ -2848,7 +2770,7 @@
       </c>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C137">
@@ -2856,7 +2778,7 @@
       </c>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C138">
@@ -2864,7 +2786,7 @@
       </c>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C139">
@@ -2872,7 +2794,7 @@
       </c>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C140">
@@ -2880,7 +2802,7 @@
       </c>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C141">
@@ -2888,7 +2810,7 @@
       </c>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C142">
@@ -2896,7 +2818,7 @@
       </c>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C143">
@@ -2904,7 +2826,7 @@
       </c>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C144">
@@ -2912,7 +2834,7 @@
       </c>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C145">
@@ -2920,7 +2842,7 @@
       </c>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C146">
@@ -2928,7 +2850,7 @@
       </c>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C147">
@@ -2936,7 +2858,7 @@
       </c>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C148">
@@ -2944,7 +2866,7 @@
       </c>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C149">
@@ -2952,7 +2874,7 @@
       </c>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C150">
@@ -2960,7 +2882,7 @@
       </c>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C151">
@@ -2968,7 +2890,7 @@
       </c>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C152">
@@ -2976,7 +2898,7 @@
       </c>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C153">
@@ -2984,7 +2906,7 @@
       </c>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C154">
@@ -2992,7 +2914,7 @@
       </c>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C155">
@@ -3000,7 +2922,7 @@
       </c>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C156">
@@ -3008,7 +2930,7 @@
       </c>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C157">
@@ -3016,7 +2938,7 @@
       </c>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C158">
@@ -3024,7 +2946,7 @@
       </c>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C159">
@@ -3032,7 +2954,7 @@
       </c>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C160">
@@ -3040,7 +2962,7 @@
       </c>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C161">
@@ -3048,7 +2970,7 @@
       </c>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C162">
@@ -3056,7 +2978,7 @@
       </c>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C163">
@@ -3064,7 +2986,7 @@
       </c>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C164">
@@ -3072,7 +2994,7 @@
       </c>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C165">
@@ -3080,7 +3002,7 @@
       </c>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C166">
@@ -3088,7 +3010,7 @@
       </c>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C167">
@@ -3096,7 +3018,7 @@
       </c>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C168">
@@ -3104,7 +3026,7 @@
       </c>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C169">
@@ -3112,7 +3034,7 @@
       </c>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C170">
@@ -3120,7 +3042,7 @@
       </c>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C171">
@@ -3128,7 +3050,7 @@
       </c>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C172">
@@ -3136,7 +3058,7 @@
       </c>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C173">
@@ -3144,7 +3066,7 @@
       </c>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C174">
@@ -3152,7 +3074,7 @@
       </c>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C175">
@@ -3160,7 +3082,7 @@
       </c>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C176">
@@ -3168,7 +3090,7 @@
       </c>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C177">
@@ -3176,7 +3098,7 @@
       </c>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C178">
@@ -3184,7 +3106,7 @@
       </c>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C179">
@@ -3192,7 +3114,7 @@
       </c>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C180">
@@ -3200,7 +3122,7 @@
       </c>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C181">
@@ -3208,7 +3130,7 @@
       </c>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C182">
@@ -3216,7 +3138,7 @@
       </c>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C183">
@@ -3224,7 +3146,7 @@
       </c>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C184">
@@ -3232,7 +3154,7 @@
       </c>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C185">
@@ -3240,7 +3162,7 @@
       </c>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C186">
@@ -3248,7 +3170,7 @@
       </c>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C187">
@@ -3256,7 +3178,7 @@
       </c>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C188">
@@ -3264,7 +3186,7 @@
       </c>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C189">
@@ -3272,7 +3194,7 @@
       </c>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C190">
@@ -3280,7 +3202,7 @@
       </c>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C191">
@@ -3297,10 +3219,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:BF54"/>
+  <dimension ref="A2:AF54"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:BF4"/>
+      <selection activeCell="H4" sqref="H4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15238095238095" defaultRowHeight="15"/>
@@ -3311,15 +3233,15 @@
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
-        <v>Agency</v>
+        <v>Business</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C20" si="1">B2&amp;","</f>
-        <v>Agency,</v>
+        <v>Business,</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE(B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8,",",B9,",",B10,",",B11,",",B12,",",B13,",",B14,",",B15,",",B16,",",B17,",",B18,",",B19,",",B20)</f>
-        <v>Agency,Consultant,Creative Agency,Creative Company,Digital Marketing,Marketing,Pr,Pr Company,Public Relation,Public Relation Company,Seo,Services,Virtual Assistant,Wordpress Template,,,,,</v>
+        <v>Business,Coworking,Creative Agency,Digital Agency,Digital Marketing,Marketing,One Page,Portfolio,Seo Agency,Startup,Web Development,Internet Services,,,,,,,</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3328,14 +3250,14 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>Consultant</v>
+        <v>Coworking</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="1"/>
-        <v>Consultant,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58">
+        <v>Coworking,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -3348,11 +3270,11 @@
         <v>Creative Agency,</v>
       </c>
       <c r="E4">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F12" si="2">E4&amp;","</f>
-        <v>102,</v>
+        <v>153,</v>
       </c>
       <c r="G4" t="s">
         <v>195</v>
@@ -3432,103 +3354,25 @@
       <c r="AF4" t="s">
         <v>219</v>
       </c>
-      <c r="AG4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>225</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>228</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>229</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>234</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>235</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>236</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>237</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>239</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>240</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>241</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>242</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>243</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>244</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>Creative Company</v>
+        <v>Digital Agency</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>Creative Company,</v>
+        <v>Digital Agency,</v>
       </c>
       <c r="E5">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
-        <v>103,</v>
+        <v>154,</v>
       </c>
       <c r="G5" t="s">
         <v>196</v>
@@ -3536,7 +3380,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -3547,11 +3391,11 @@
         <v>Digital Marketing,</v>
       </c>
       <c r="E6">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
-        <v>104,</v>
+        <v>155,</v>
       </c>
       <c r="G6" t="s">
         <v>197</v>
@@ -3559,7 +3403,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -3570,11 +3414,11 @@
         <v>Marketing,</v>
       </c>
       <c r="E7">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
-        <v>105,</v>
+        <v>156,</v>
       </c>
       <c r="G7" t="s">
         <v>198</v>
@@ -3582,22 +3426,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>Pr</v>
+        <v>One Page</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>Pr,</v>
+        <v>One Page,</v>
       </c>
       <c r="E8">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
-        <v>106,</v>
+        <v>157,</v>
       </c>
       <c r="G8" t="s">
         <v>199</v>
@@ -3605,22 +3449,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>Pr Company</v>
+        <v>Portfolio</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>Pr Company,</v>
+        <v>Portfolio,</v>
       </c>
       <c r="E9">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
-        <v>107,</v>
+        <v>158,</v>
       </c>
       <c r="G9" t="s">
         <v>200</v>
@@ -3628,22 +3472,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>Public Relation</v>
+        <v>Seo Agency</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>Public Relation,</v>
+        <v>Seo Agency,</v>
       </c>
       <c r="E10">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
-        <v>108,</v>
+        <v>159,</v>
       </c>
       <c r="G10" t="s">
         <v>201</v>
@@ -3651,22 +3495,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>Public Relation Company</v>
+        <v>Startup</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>Public Relation Company,</v>
+        <v>Startup,</v>
       </c>
       <c r="E11">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
-        <v>109,</v>
+        <v>160,</v>
       </c>
       <c r="G11" t="s">
         <v>202</v>
@@ -3674,22 +3518,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>Seo</v>
+        <v>Web Development</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>Seo,</v>
+        <v>Web Development,</v>
       </c>
       <c r="E12">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
-        <v>110,</v>
+        <v>161,</v>
       </c>
       <c r="G12" t="s">
         <v>203</v>
@@ -3697,68 +3541,62 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>Services</v>
+        <v>Internet Services</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>Services,</v>
+        <v>Internet Services,</v>
       </c>
       <c r="E13">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="F13" t="str">
         <f>E13&amp;""</f>
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>255</v>
-      </c>
+    <row r="14" spans="2:7">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>Virtual Assistant</v>
+        <v/>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>Virtual Assistant,</v>
+        <v>,</v>
       </c>
       <c r="E14">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ref="F14:F22" si="3">E14&amp;","</f>
-        <v>112,</v>
+        <v>163,</v>
       </c>
       <c r="G14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>256</v>
-      </c>
+    <row r="15" spans="2:7">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>Wordpress Template</v>
+        <v/>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>Wordpress Template,</v>
+        <v>,</v>
       </c>
       <c r="E15">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
-        <v>113,</v>
+        <v>164,</v>
       </c>
       <c r="G15" t="s">
         <v>206</v>
@@ -3774,11 +3612,11 @@
         <v>,</v>
       </c>
       <c r="E16">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
-        <v>114,</v>
+        <v>165,</v>
       </c>
       <c r="G16" t="s">
         <v>207</v>
@@ -3794,11 +3632,11 @@
         <v>,</v>
       </c>
       <c r="E17">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
-        <v>115,</v>
+        <v>166,</v>
       </c>
       <c r="G17" t="s">
         <v>208</v>
@@ -3814,11 +3652,11 @@
         <v>,</v>
       </c>
       <c r="E18">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
-        <v>116,</v>
+        <v>167,</v>
       </c>
       <c r="G18" t="s">
         <v>209</v>
@@ -3834,11 +3672,11 @@
         <v>,</v>
       </c>
       <c r="E19">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
-        <v>117,</v>
+        <v>168,</v>
       </c>
       <c r="G19" t="s">
         <v>210</v>
@@ -3854,11 +3692,11 @@
         <v>,</v>
       </c>
       <c r="E20">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
-        <v>118,</v>
+        <v>169,</v>
       </c>
       <c r="G20" t="s">
         <v>211</v>
@@ -3866,11 +3704,11 @@
     </row>
     <row r="21" spans="5:7">
       <c r="E21">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
-        <v>119,</v>
+        <v>170,</v>
       </c>
       <c r="G21" t="s">
         <v>212</v>
@@ -3878,11 +3716,11 @@
     </row>
     <row r="22" spans="5:7">
       <c r="E22">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
-        <v>120,</v>
+        <v>171,</v>
       </c>
       <c r="G22" t="s">
         <v>213</v>
@@ -3890,11 +3728,11 @@
     </row>
     <row r="23" spans="5:7">
       <c r="E23">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="F23" t="str">
         <f>E23&amp;""</f>
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
         <v>214</v>
@@ -3902,11 +3740,11 @@
     </row>
     <row r="24" spans="5:7">
       <c r="E24">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ref="F24:F32" si="4">E24&amp;","</f>
-        <v>122,</v>
+        <v>173,</v>
       </c>
       <c r="G24" t="s">
         <v>215</v>
@@ -3914,11 +3752,11 @@
     </row>
     <row r="25" spans="5:7">
       <c r="E25">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="4"/>
-        <v>123,</v>
+        <v>174,</v>
       </c>
       <c r="G25" t="s">
         <v>216</v>
@@ -3926,11 +3764,11 @@
     </row>
     <row r="26" spans="5:7">
       <c r="E26">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="4"/>
-        <v>124,</v>
+        <v>175,</v>
       </c>
       <c r="G26" t="s">
         <v>217</v>
@@ -3938,11 +3776,11 @@
     </row>
     <row r="27" spans="5:7">
       <c r="E27">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="4"/>
-        <v>125,</v>
+        <v>176,</v>
       </c>
       <c r="G27" t="s">
         <v>218</v>
@@ -3950,344 +3788,186 @@
     </row>
     <row r="28" spans="5:7">
       <c r="E28">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="4"/>
-        <v>126,</v>
+        <v>177,</v>
       </c>
       <c r="G28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="5:7">
-      <c r="E29">
-        <v>127</v>
-      </c>
+    <row r="29" spans="6:6">
       <c r="F29" t="str">
         <f t="shared" si="4"/>
-        <v>127,</v>
-      </c>
-      <c r="G29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7">
-      <c r="E30">
-        <v>128</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
       <c r="F30" t="str">
         <f t="shared" si="4"/>
-        <v>128,</v>
-      </c>
-      <c r="G30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7">
-      <c r="E31">
-        <v>129</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
       <c r="F31" t="str">
         <f t="shared" si="4"/>
-        <v>129,</v>
-      </c>
-      <c r="G31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7">
-      <c r="E32">
-        <v>130</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
       <c r="F32" t="str">
         <f t="shared" si="4"/>
-        <v>130,</v>
-      </c>
-      <c r="G32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7">
-      <c r="E33">
-        <v>131</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
       <c r="F33" t="str">
         <f>E33&amp;""</f>
-        <v>131</v>
-      </c>
-      <c r="G33" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7">
-      <c r="E34">
-        <v>132</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
       <c r="F34" t="str">
         <f t="shared" ref="F34:F42" si="5">E34&amp;","</f>
-        <v>132,</v>
-      </c>
-      <c r="G34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7">
-      <c r="E35">
-        <v>133</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
       <c r="F35" t="str">
         <f t="shared" si="5"/>
-        <v>133,</v>
-      </c>
-      <c r="G35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7">
-      <c r="E36">
-        <v>134</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
       <c r="F36" t="str">
         <f t="shared" si="5"/>
-        <v>134,</v>
-      </c>
-      <c r="G36" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7">
-      <c r="E37">
-        <v>135</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
       <c r="F37" t="str">
         <f t="shared" si="5"/>
-        <v>135,</v>
-      </c>
-      <c r="G37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7">
-      <c r="E38">
-        <v>136</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
       <c r="F38" t="str">
         <f t="shared" si="5"/>
-        <v>136,</v>
-      </c>
-      <c r="G38" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7">
-      <c r="E39">
-        <v>137</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
       <c r="F39" t="str">
         <f t="shared" si="5"/>
-        <v>137,</v>
-      </c>
-      <c r="G39" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7">
-      <c r="E40">
-        <v>138</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
       <c r="F40" t="str">
         <f t="shared" si="5"/>
-        <v>138,</v>
-      </c>
-      <c r="G40" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7">
-      <c r="E41">
-        <v>139</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
       <c r="F41" t="str">
         <f t="shared" si="5"/>
-        <v>139,</v>
-      </c>
-      <c r="G41" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7">
-      <c r="E42">
-        <v>140</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
       <c r="F42" t="str">
         <f t="shared" si="5"/>
-        <v>140,</v>
-      </c>
-      <c r="G42" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7">
-      <c r="E43">
-        <v>141</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6">
       <c r="F43" t="str">
         <f>E43&amp;""</f>
-        <v>141</v>
-      </c>
-      <c r="G43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7">
-      <c r="E44">
-        <v>142</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
       <c r="F44" t="str">
         <f>E44&amp;","</f>
-        <v>142,</v>
-      </c>
-      <c r="G44" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7">
-      <c r="E45">
-        <v>143</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
       <c r="F45" t="str">
         <f t="shared" ref="F45:F54" si="6">E45&amp;","</f>
-        <v>143,</v>
-      </c>
-      <c r="G45" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7">
-      <c r="E46">
-        <v>144</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
       <c r="F46" t="str">
         <f t="shared" si="6"/>
-        <v>144,</v>
-      </c>
-      <c r="G46" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7">
-      <c r="E47">
-        <v>145</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
       <c r="F47" t="str">
         <f t="shared" si="6"/>
-        <v>145,</v>
-      </c>
-      <c r="G47" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7">
-      <c r="E48">
-        <v>146</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6">
       <c r="F48" t="str">
         <f t="shared" si="6"/>
-        <v>146,</v>
-      </c>
-      <c r="G48" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7">
-      <c r="E49">
-        <v>147</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
       <c r="F49" t="str">
         <f t="shared" si="6"/>
-        <v>147,</v>
-      </c>
-      <c r="G49" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7">
-      <c r="E50">
-        <v>148</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
       <c r="F50" t="str">
         <f t="shared" si="6"/>
-        <v>148,</v>
-      </c>
-      <c r="G50" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7">
-      <c r="E51">
-        <v>149</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
       <c r="F51" t="str">
         <f t="shared" si="6"/>
-        <v>149,</v>
-      </c>
-      <c r="G51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7">
-      <c r="E52">
-        <v>150</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
       <c r="F52" t="str">
         <f t="shared" si="6"/>
-        <v>150,</v>
-      </c>
-      <c r="G52" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7">
-      <c r="E53">
-        <v>151</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6">
       <c r="F53" t="str">
         <f t="shared" si="6"/>
-        <v>151,</v>
-      </c>
-      <c r="G53" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7">
-      <c r="E54">
-        <v>152</v>
-      </c>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
       <c r="F54" t="str">
         <f t="shared" si="6"/>
-        <v>152,</v>
-      </c>
-      <c r="G54" t="s">
-        <v>245</v>
+        <v>,</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="agency" tooltip="https://elements.envato.com/wordpress/agency"/>
-    <hyperlink ref="A3" r:id="rId2" display="consultant" tooltip="https://elements.envato.com/wordpress/consultant"/>
+    <hyperlink ref="A2" r:id="rId1" display="business" tooltip="https://elements.envato.com/wordpress/business"/>
+    <hyperlink ref="A3" r:id="rId2" display="coworking" tooltip="https://elements.envato.com/wordpress/coworking"/>
     <hyperlink ref="A4" r:id="rId3" display="creative agency" tooltip="https://elements.envato.com/wordpress/creative+agency"/>
-    <hyperlink ref="A5" r:id="rId4" display="creative company" tooltip="https://elements.envato.com/wordpress/creative+company"/>
+    <hyperlink ref="A5" r:id="rId4" display="digital agency" tooltip="https://elements.envato.com/wordpress/digital+agency"/>
     <hyperlink ref="A6" r:id="rId5" display="digital marketing" tooltip="https://elements.envato.com/wordpress/digital+marketing"/>
     <hyperlink ref="A7" r:id="rId6" display="marketing" tooltip="https://elements.envato.com/wordpress/marketing"/>
-    <hyperlink ref="A8" r:id="rId7" display="pr" tooltip="https://elements.envato.com/wordpress/pr"/>
-    <hyperlink ref="A9" r:id="rId8" display="pr company" tooltip="https://elements.envato.com/wordpress/pr+company"/>
-    <hyperlink ref="A10" r:id="rId9" display="public relation" tooltip="https://elements.envato.com/wordpress/public+relation"/>
-    <hyperlink ref="A11" r:id="rId10" display="public relation company" tooltip="https://elements.envato.com/wordpress/public+relation+company"/>
-    <hyperlink ref="A12" r:id="rId11" display="seo" tooltip="https://elements.envato.com/wordpress/seo"/>
-    <hyperlink ref="A13" r:id="rId12" display="services" tooltip="https://elements.envato.com/wordpress/services"/>
-    <hyperlink ref="A14" r:id="rId13" display="virtual assistant" tooltip="https://elements.envato.com/wordpress/virtual+assistant"/>
-    <hyperlink ref="A15" r:id="rId14" display="wordpress template" tooltip="https://elements.envato.com/wordpress/wordpress+template"/>
+    <hyperlink ref="A8" r:id="rId7" display="one page" tooltip="https://elements.envato.com/wordpress/one+page"/>
+    <hyperlink ref="A9" r:id="rId8" display="portfolio" tooltip="https://elements.envato.com/wordpress/portfolio"/>
+    <hyperlink ref="A10" r:id="rId9" display="seo agency" tooltip="https://elements.envato.com/wordpress/seo+agency"/>
+    <hyperlink ref="A11" r:id="rId10" display="startup" tooltip="https://elements.envato.com/wordpress/startup"/>
+    <hyperlink ref="A12" r:id="rId11" display="web development" tooltip="https://elements.envato.com/wordpress/web+development"/>
+    <hyperlink ref="A13" r:id="rId12" display="Internet services" tooltip="https://elements.envato.com/wordpress/Internet+services"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4298,39 +3978,48 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
+    <col min="1" max="1" width="11.4285714285714"/>
     <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tags" sheetId="1" r:id="rId1"/>
@@ -21,51 +21,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
-  <si>
-    <t>accountant</t>
-  </si>
-  <si>
-    <t>accounting</t>
-  </si>
-  <si>
-    <t>advisor</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
   </si>
   <si>
     <t>business</t>
   </si>
   <si>
-    <t>consulting</t>
-  </si>
-  <si>
-    <t>corporate</t>
-  </si>
-  <si>
-    <t>finance</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>financial planner</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>money consulting</t>
-  </si>
-  <si>
-    <t>professional</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>template kit</t>
+    <t>cryptocurrency</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>trader</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>Elementor Pro</t>
+  </si>
+  <si>
+    <t>wordpress template</t>
+  </si>
+  <si>
+    <t>blockchain</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>modern</t>
   </si>
   <si>
     <t>status</t>
@@ -203,8 +197,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -229,26 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -257,16 +231,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,7 +253,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,7 +269,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,7 +283,39 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -326,17 +330,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,22 +345,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,187 +374,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +565,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,30 +602,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -630,24 +624,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,154 +665,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1142,7 @@
   <sheetPr/>
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1160,11 +1154,11 @@
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
-        <v>Accountant</v>
+        <v>Agency</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),B2:B20)</f>
-        <v>Accountant,Accounting,Advisor,Business,Consulting,Corporate,Finance,Financial,Financial Planner,Insurance,Money,Money Consulting,Professional,Service,Template Kit</v>
+        <v>Agency,Bitcoin,Business,Cryptocurrency,Design,Trader,Trading,Elementor Pro,Wordpress Template,Blockchain,Dark,Gradient,Modern</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1173,7 +1167,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>Accounting</v>
+        <v>Bitcoin</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1182,7 +1176,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>Advisor</v>
+        <v>Business</v>
       </c>
       <c r="F4" t="str">
         <f>E4&amp;","</f>
@@ -1195,7 +1189,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>Business</v>
+        <v>Cryptocurrency</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1204,7 +1198,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>Consulting</v>
+        <v>Design</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1213,7 +1207,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>Corporate</v>
+        <v>Trader</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1222,7 +1216,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>Finance</v>
+        <v>Trading</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1231,7 +1225,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>Financial</v>
+        <v>Elementor Pro</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1240,7 +1234,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>Financial Planner</v>
+        <v>Wordpress Template</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1249,7 +1243,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>Insurance</v>
+        <v>Blockchain</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1258,7 +1252,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>Money</v>
+        <v>Dark</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1267,7 +1261,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>Money Consulting</v>
+        <v>Gradient</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1276,25 +1270,19 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>Professional</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
+        <v>Modern</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>Service</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>Template Kit</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1515,21 +1503,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="accountant" tooltip="https://elements.envato.com/wordpress/accountant"/>
-    <hyperlink ref="A3" r:id="rId2" display="accounting" tooltip="https://elements.envato.com/wordpress/accounting"/>
-    <hyperlink ref="A4" r:id="rId3" display="advisor" tooltip="https://elements.envato.com/wordpress/advisor"/>
-    <hyperlink ref="A5" r:id="rId4" display="business" tooltip="https://elements.envato.com/wordpress/business"/>
-    <hyperlink ref="A6" r:id="rId5" display="consulting" tooltip="https://elements.envato.com/wordpress/consulting"/>
-    <hyperlink ref="A7" r:id="rId6" display="corporate" tooltip="https://elements.envato.com/wordpress/corporate"/>
-    <hyperlink ref="A8" r:id="rId7" display="finance" tooltip="https://elements.envato.com/wordpress/finance"/>
-    <hyperlink ref="A9" r:id="rId8" display="financial" tooltip="https://elements.envato.com/wordpress/financial"/>
-    <hyperlink ref="A10" r:id="rId9" display="financial planner" tooltip="https://elements.envato.com/wordpress/financial+planner"/>
-    <hyperlink ref="A11" r:id="rId10" display="insurance" tooltip="https://elements.envato.com/wordpress/insurance"/>
-    <hyperlink ref="A12" r:id="rId11" display="money" tooltip="https://elements.envato.com/wordpress/money"/>
-    <hyperlink ref="A13" r:id="rId12" display="money consulting" tooltip="https://elements.envato.com/wordpress/money+consulting"/>
-    <hyperlink ref="A14" r:id="rId13" display="professional" tooltip="https://elements.envato.com/wordpress/professional"/>
-    <hyperlink ref="A15" r:id="rId14" display="service" tooltip="https://elements.envato.com/wordpress/service"/>
-    <hyperlink ref="A16" r:id="rId15" display="template kit" tooltip="https://elements.envato.com/wordpress/template+kit"/>
+    <hyperlink ref="A2" r:id="rId1" display="agency" tooltip="https://elements.envato.com/wordpress/agency"/>
+    <hyperlink ref="A3" r:id="rId2" display="bitcoin" tooltip="https://elements.envato.com/wordpress/bitcoin"/>
+    <hyperlink ref="A4" r:id="rId3" display="business" tooltip="https://elements.envato.com/wordpress/business"/>
+    <hyperlink ref="A5" r:id="rId4" display="cryptocurrency" tooltip="https://elements.envato.com/wordpress/cryptocurrency"/>
+    <hyperlink ref="A6" r:id="rId5" display="design" tooltip="https://elements.envato.com/wordpress/design"/>
+    <hyperlink ref="A7" r:id="rId6" display="trader" tooltip="https://elements.envato.com/wordpress/trader"/>
+    <hyperlink ref="A8" r:id="rId7" display="trading" tooltip="https://elements.envato.com/wordpress/trading"/>
+    <hyperlink ref="A9" r:id="rId8" display="Elementor Pro" tooltip="https://elements.envato.com/wordpress/Elementor+Pro"/>
+    <hyperlink ref="A10" r:id="rId9" display="wordpress template" tooltip="https://elements.envato.com/wordpress/wordpress+template"/>
+    <hyperlink ref="A11" r:id="rId10" display="blockchain" tooltip="https://elements.envato.com/wordpress/blockchain"/>
+    <hyperlink ref="A12" r:id="rId11" display="dark" tooltip="https://elements.envato.com/wordpress/dark"/>
+    <hyperlink ref="A13" r:id="rId12" display="gradient" tooltip="https://elements.envato.com/wordpress/gradient"/>
+    <hyperlink ref="A14" r:id="rId13" display="modern" tooltip="https://elements.envato.com/wordpress/modern"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1542,7 +1528,7 @@
   <sheetPr/>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1553,21 +1539,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C24" si="0">IF(ISBLANK(A2),B2,"")</f>
@@ -1578,7 +1564,7 @@
         <v/>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C39)</f>
@@ -1587,7 +1573,7 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -1598,7 +1584,7 @@
         <v/>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D39)</f>
@@ -1607,7 +1593,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1623,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1636,7 +1622,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1652,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1665,7 +1651,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1678,7 +1664,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -1691,7 +1677,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1707,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1720,7 +1706,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -1736,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1749,7 +1735,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1762,7 +1748,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1775,7 +1761,7 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -1788,7 +1774,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1801,7 +1787,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1817,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -1833,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -1846,7 +1832,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -1975,46 +1961,46 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2022,7 +2008,7 @@
         <v>44628</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>44628</v>
@@ -2033,7 +2019,7 @@
         <v>44659</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1">
         <v>44659</v>
@@ -2044,13 +2030,13 @@
         <v>44720</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>44720</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2058,13 +2044,13 @@
         <v>44750</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1">
         <v>44750</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2090,15 +2076,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>46</v>
@@ -2106,7 +2092,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -2114,7 +2100,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>120</v>
@@ -2122,7 +2108,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>15</v>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -14,52 +14,46 @@
     <sheet name="Rekap" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Urutan!$A$1:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Urutan!$A$1:$D$43</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
-  <si>
-    <t>agency</t>
-  </si>
-  <si>
-    <t>bitcoin</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>cryptocurrency</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>trader</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>Elementor Pro</t>
-  </si>
-  <si>
-    <t>wordpress template</t>
-  </si>
-  <si>
-    <t>blockchain</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>gradient</t>
-  </si>
-  <si>
-    <t>modern</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+  <si>
+    <t>airsoft</t>
+  </si>
+  <si>
+    <t>gun classes</t>
+  </si>
+  <si>
+    <t>gun club</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>hunting</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>police academy</t>
+  </si>
+  <si>
+    <t>self defense</t>
+  </si>
+  <si>
+    <t>Shooting Range</t>
   </si>
   <si>
     <t>status</t>
@@ -74,64 +68,64 @@
     <t>XAktif</t>
   </si>
   <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>276</t>
+    <t>319</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
   </si>
   <si>
     <t>XAkti</t>
@@ -196,16 +190,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -216,8 +215,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,11 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -244,16 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,23 +293,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,52 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -351,8 +344,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,19 +368,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,163 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,17 +562,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,6 +576,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,27 +611,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,17 +643,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,138 +664,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,11 +1148,11 @@
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
-        <v>Agency</v>
+        <v>Airsoft</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),B2:B20)</f>
-        <v>Agency,Bitcoin,Business,Cryptocurrency,Design,Trader,Trading,Elementor Pro,Wordpress Template,Blockchain,Dark,Gradient,Modern</v>
+        <v>Airsoft,Gun Classes,Gun Club,Hobby,Hunting,Military,Sport,Training,Police Academy,Self Defense,Shooting Range</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1167,7 +1161,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>Bitcoin</v>
+        <v>Gun Classes</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1176,7 +1170,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>Business</v>
+        <v>Gun Club</v>
       </c>
       <c r="F4" t="str">
         <f>E4&amp;","</f>
@@ -1189,7 +1183,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>Cryptocurrency</v>
+        <v>Hobby</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1198,7 +1192,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>Design</v>
+        <v>Hunting</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1207,7 +1201,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>Trader</v>
+        <v>Military</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1216,7 +1210,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>Trading</v>
+        <v>Sport</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1225,7 +1219,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>Elementor Pro</v>
+        <v>Training</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1234,7 +1228,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>Wordpress Template</v>
+        <v>Police Academy</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1243,7 +1237,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>Blockchain</v>
+        <v>Self Defense</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1252,25 +1246,19 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>Dark</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
+        <v>Shooting Range</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>Gradient</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>Modern</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -1503,19 +1491,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="agency" tooltip="https://elements.envato.com/wordpress/agency"/>
-    <hyperlink ref="A3" r:id="rId2" display="bitcoin" tooltip="https://elements.envato.com/wordpress/bitcoin"/>
-    <hyperlink ref="A4" r:id="rId3" display="business" tooltip="https://elements.envato.com/wordpress/business"/>
-    <hyperlink ref="A5" r:id="rId4" display="cryptocurrency" tooltip="https://elements.envato.com/wordpress/cryptocurrency"/>
-    <hyperlink ref="A6" r:id="rId5" display="design" tooltip="https://elements.envato.com/wordpress/design"/>
-    <hyperlink ref="A7" r:id="rId6" display="trader" tooltip="https://elements.envato.com/wordpress/trader"/>
-    <hyperlink ref="A8" r:id="rId7" display="trading" tooltip="https://elements.envato.com/wordpress/trading"/>
-    <hyperlink ref="A9" r:id="rId8" display="Elementor Pro" tooltip="https://elements.envato.com/wordpress/Elementor+Pro"/>
-    <hyperlink ref="A10" r:id="rId9" display="wordpress template" tooltip="https://elements.envato.com/wordpress/wordpress+template"/>
-    <hyperlink ref="A11" r:id="rId10" display="blockchain" tooltip="https://elements.envato.com/wordpress/blockchain"/>
-    <hyperlink ref="A12" r:id="rId11" display="dark" tooltip="https://elements.envato.com/wordpress/dark"/>
-    <hyperlink ref="A13" r:id="rId12" display="gradient" tooltip="https://elements.envato.com/wordpress/gradient"/>
-    <hyperlink ref="A14" r:id="rId13" display="modern" tooltip="https://elements.envato.com/wordpress/modern"/>
+    <hyperlink ref="A2" r:id="rId1" display="airsoft" tooltip="https://elements.envato.com/wordpress/airsoft"/>
+    <hyperlink ref="A3" r:id="rId2" display="gun classes" tooltip="https://elements.envato.com/wordpress/gun+classes"/>
+    <hyperlink ref="A4" r:id="rId3" display="gun club" tooltip="https://elements.envato.com/wordpress/gun+club"/>
+    <hyperlink ref="A5" r:id="rId4" display="hobby" tooltip="https://elements.envato.com/wordpress/hobby"/>
+    <hyperlink ref="A6" r:id="rId5" display="hunting" tooltip="https://elements.envato.com/wordpress/hunting"/>
+    <hyperlink ref="A7" r:id="rId6" display="military" tooltip="https://elements.envato.com/wordpress/military"/>
+    <hyperlink ref="A8" r:id="rId7" display="sport" tooltip="https://elements.envato.com/wordpress/sport"/>
+    <hyperlink ref="A9" r:id="rId8" display="training" tooltip="https://elements.envato.com/wordpress/training"/>
+    <hyperlink ref="A10" r:id="rId9" display="police academy" tooltip="https://elements.envato.com/wordpress/police+academy"/>
+    <hyperlink ref="A11" r:id="rId10" display="self defense" tooltip="https://elements.envato.com/wordpress/self+defense"/>
+    <hyperlink ref="A12" r:id="rId11" display="Shooting Range" tooltip="https://elements.envato.com/wordpress/Shooting+Range"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1526,10 +1512,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1539,123 +1525,120 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C24" si="0">IF(ISBLANK(A2),B2,"")</f>
-        <v>257</v>
+        <f t="shared" ref="C2:C21" si="0">IF(ISBLANK(A2),B2,"")</f>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D39" si="1">IF(A2=1,B2,"")</f>
-        <v/>
+        <f>IF(A2=1,B2,"")</f>
+        <v>319</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C39)</f>
-        <v>257,258,259,261,263,264,265,267,269,270,271,272,273,276</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C43)</f>
+        <v>320,321,322,323,324,325,326,328,330,331,332,333,334,335,336,337,338</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D3:D43" si="1">IF(A3=1,B3,"")</f>
         <v/>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D39)</f>
-        <v>260,262,266,268,274,275</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D43)</f>
+        <v>319,327,329</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1</v>
-      </c>
+    <row r="5" spans="2:4">
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>322</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1</v>
-      </c>
+    <row r="7" spans="2:4">
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>324</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
-        <v>262</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
@@ -1664,82 +1647,82 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>264</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="2" t="s">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>265</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>267</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>330</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
-        <v>268</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
@@ -1748,11 +1731,11 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
@@ -1761,11 +1744,11 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
@@ -1774,11 +1757,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
@@ -1787,58 +1770,70 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>273</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>337</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1933,8 +1928,32 @@
         <v/>
       </c>
     </row>
+    <row r="40" spans="4:4">
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D39">
+  <autoFilter ref="A1:D43">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1961,46 +1980,46 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2008,7 +2027,7 @@
         <v>44628</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1">
         <v>44628</v>
@@ -2019,7 +2038,7 @@
         <v>44659</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>44659</v>
@@ -2030,13 +2049,13 @@
         <v>44720</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
         <v>44720</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2044,13 +2063,13 @@
         <v>44750</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1">
         <v>44750</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2076,15 +2095,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>46</v>
@@ -2092,7 +2111,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -2100,7 +2119,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>120</v>
@@ -2108,7 +2127,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>15</v>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tags" sheetId="1" r:id="rId1"/>
@@ -203,9 +203,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -215,11 +215,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,33 +258,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,8 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -300,6 +306,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,23 +348,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,13 +370,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -380,19 +380,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,157 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,24 +571,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,6 +585,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,17 +628,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,138 +676,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1148,7 @@
   <sheetPr/>
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1542,7 +1542,7 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500"/>
+    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tags" sheetId="1" r:id="rId1"/>
@@ -21,29 +21,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>crm</t>
-  </si>
-  <si>
-    <t>project management</t>
-  </si>
-  <si>
-    <t>purple</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>app landing</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>elementor</t>
+  </si>
+  <si>
+    <t>information technology</t>
+  </si>
+  <si>
+    <t>mobile app</t>
+  </si>
+  <si>
+    <t>product landing</t>
   </si>
   <si>
     <t>saas</t>
   </si>
   <si>
+    <t>saas template</t>
+  </si>
+  <si>
     <t>service</t>
   </si>
   <si>
     <t>software</t>
   </si>
   <si>
+    <t>software as a service</t>
+  </si>
+  <si>
     <t>startup</t>
   </si>
   <si>
@@ -53,12 +68,6 @@
     <t>template kit</t>
   </si>
   <si>
-    <t>illustrations</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -71,94 +80,94 @@
     <t>XAktif</t>
   </si>
   <si>
-    <t>419</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>421</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>436</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>438</t>
-  </si>
-  <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>448</t>
+    <t>449</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>478</t>
   </si>
   <si>
     <t>XAkti</t>
@@ -223,10 +232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -236,6 +245,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -243,9 +264,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -256,24 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,22 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -317,8 +318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,15 +335,45 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,22 +388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,14 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -401,187 +410,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,6 +643,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -645,35 +663,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,143 +681,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,7 +1178,7 @@
   <sheetPr/>
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1181,11 +1190,11 @@
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
-        <v>App</v>
+        <v>Agency</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),B2:B20)</f>
-        <v>App,Crm,Project Management,Purple,Saas,Service,Software,Startup,Technology,Template Kit,Illustrations,Dark</v>
+        <v>Agency,App Landing,Developer,Elementor,Information Technology,Mobile App,Product Landing,Saas,Saas Template,Service,Software,Software As A Service,Startup,Technology,Template Kit</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1194,7 +1203,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Crm</v>
+        <v>App Landing</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1203,7 +1212,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Project Management</v>
+        <v>Developer</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>E4&amp;","</f>
@@ -1216,7 +1225,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Purple</v>
+        <v>Elementor</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1225,7 +1234,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Saas</v>
+        <v>Information Technology</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1234,7 +1243,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Service</v>
+        <v>Mobile App</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1243,7 +1252,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Software</v>
+        <v>Product Landing</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1252,7 +1261,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Startup</v>
+        <v>Saas</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1261,7 +1270,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Technology</v>
+        <v>Saas Template</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1270,7 +1279,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Template Kit</v>
+        <v>Service</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1279,7 +1288,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Illustrations</v>
+        <v>Software</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1288,25 +1297,34 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Dark</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
+        <v>Software As A Service</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
+        <v>Startup</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+        <v>Technology</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Template Kit</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1527,18 +1545,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="app" tooltip="https://elements.envato.com/wordpress/app"/>
-    <hyperlink ref="A3" r:id="rId2" display="crm" tooltip="https://elements.envato.com/wordpress/crm"/>
-    <hyperlink ref="A4" r:id="rId3" display="project management" tooltip="https://elements.envato.com/wordpress/project+management"/>
-    <hyperlink ref="A5" r:id="rId4" display="purple" tooltip="https://elements.envato.com/wordpress/purple"/>
-    <hyperlink ref="A6" r:id="rId5" display="saas" tooltip="https://elements.envato.com/wordpress/saas"/>
-    <hyperlink ref="A7" r:id="rId6" display="service" tooltip="https://elements.envato.com/wordpress/service"/>
-    <hyperlink ref="A8" r:id="rId7" display="software" tooltip="https://elements.envato.com/wordpress/software"/>
-    <hyperlink ref="A9" r:id="rId8" display="startup" tooltip="https://elements.envato.com/wordpress/startup"/>
-    <hyperlink ref="A10" r:id="rId9" display="technology" tooltip="https://elements.envato.com/wordpress/technology"/>
-    <hyperlink ref="A11" r:id="rId10" display="template kit" tooltip="https://elements.envato.com/wordpress/template+kit"/>
-    <hyperlink ref="A12" r:id="rId11" display="illustrations" tooltip="https://elements.envato.com/wordpress/illustrations"/>
-    <hyperlink ref="A13" r:id="rId12" display="dark" tooltip="https://elements.envato.com/wordpress/dark"/>
+    <hyperlink ref="A2" r:id="rId1" display="agency" tooltip="https://elements.envato.com/wordpress/agency"/>
+    <hyperlink ref="A3" r:id="rId2" display="app landing" tooltip="https://elements.envato.com/wordpress/app+landing"/>
+    <hyperlink ref="A4" r:id="rId3" display="developer" tooltip="https://elements.envato.com/wordpress/developer"/>
+    <hyperlink ref="A5" r:id="rId4" display="elementor" tooltip="https://elements.envato.com/wordpress/elementor"/>
+    <hyperlink ref="A6" r:id="rId5" display="information technology" tooltip="https://elements.envato.com/wordpress/information+technology"/>
+    <hyperlink ref="A7" r:id="rId6" display="mobile app" tooltip="https://elements.envato.com/wordpress/mobile+app"/>
+    <hyperlink ref="A8" r:id="rId7" display="product landing" tooltip="https://elements.envato.com/wordpress/product+landing"/>
+    <hyperlink ref="A9" r:id="rId8" display="saas" tooltip="https://elements.envato.com/wordpress/saas"/>
+    <hyperlink ref="A10" r:id="rId9" display="saas template" tooltip="https://elements.envato.com/wordpress/saas+template"/>
+    <hyperlink ref="A11" r:id="rId10" display="service" tooltip="https://elements.envato.com/wordpress/service"/>
+    <hyperlink ref="A12" r:id="rId11" display="software" tooltip="https://elements.envato.com/wordpress/software"/>
+    <hyperlink ref="A13" r:id="rId12" display="software as a service" tooltip="https://elements.envato.com/wordpress/software+as+a+service"/>
+    <hyperlink ref="A14" r:id="rId13" display="startup" tooltip="https://elements.envato.com/wordpress/startup"/>
+    <hyperlink ref="A15" r:id="rId14" display="technology" tooltip="https://elements.envato.com/wordpress/technology"/>
+    <hyperlink ref="A16" r:id="rId15" display="template kit" tooltip="https://elements.envato.com/wordpress/template+kit"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1551,7 +1572,7 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1562,111 +1583,105 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:C31" si="0">IF(ISBLANK(A2),B2,"")</f>
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="D2" s="1" t="str">
         <f t="shared" ref="D2:D43" si="1">IF(A2=1,B2,"")</f>
         <v/>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C43)</f>
-        <v>419,420,421,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,443,444,445,448</v>
+        <v>449,450,451,452,453,454,455,456,457,458,459,460,461,462,463,464,465,466,468,469,470,471,472,474,475,476,478</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D43)</f>
-        <v>422,423,426,442,446,447</v>
+        <v>467,473,477</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1</v>
-      </c>
+    <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>452</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>453</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>423</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1675,40 +1690,37 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>1</v>
-      </c>
+    <row r="9" spans="2:4">
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>456</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>426</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1718,11 +1730,11 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1731,11 +1743,11 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1744,11 +1756,11 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1758,11 +1770,11 @@
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1771,11 +1783,11 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1785,11 +1797,11 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1799,11 +1811,11 @@
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1813,11 +1825,11 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1826,37 +1838,40 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1</v>
+      </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>437</v>
+        <v/>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1865,11 +1880,11 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1878,11 +1893,11 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1891,53 +1906,53 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+    <row r="25" spans="2:4">
+      <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>472</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
         <v>1</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>442</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>443</v>
+        <v/>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1946,31 +1961,28 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>1</v>
-      </c>
+    <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>476</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>446</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1978,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1986,16 +1998,16 @@
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>447</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2102,46 +2114,46 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2149,7 +2161,7 @@
         <v>44628</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2">
         <v>44628</v>
@@ -2160,7 +2172,7 @@
         <v>44659</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2">
         <v>44659</v>
@@ -2171,13 +2183,13 @@
         <v>44720</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2">
         <v>44720</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2185,13 +2197,13 @@
         <v>44750</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2">
         <v>44750</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2217,15 +2229,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1">
         <v>46</v>
@@ -2233,7 +2245,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1">
         <v>26</v>
@@ -2241,7 +2253,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1">
         <v>120</v>
@@ -2249,7 +2261,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tags" sheetId="1" r:id="rId1"/>
@@ -21,51 +21,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
-  <si>
-    <t>agency</t>
-  </si>
-  <si>
-    <t>app landing</t>
-  </si>
-  <si>
-    <t>developer</t>
-  </si>
-  <si>
-    <t>elementor</t>
-  </si>
-  <si>
-    <t>information technology</t>
-  </si>
-  <si>
-    <t>mobile app</t>
-  </si>
-  <si>
-    <t>product landing</t>
-  </si>
-  <si>
-    <t>saas</t>
-  </si>
-  <si>
-    <t>saas template</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>software as a service</t>
-  </si>
-  <si>
-    <t>startup</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>template kit</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+  <si>
+    <t>blockchain</t>
+  </si>
+  <si>
+    <t>collectibles</t>
+  </si>
+  <si>
+    <t>crypto</t>
+  </si>
+  <si>
+    <t>crypto art</t>
+  </si>
+  <si>
+    <t>crypto asset</t>
+  </si>
+  <si>
+    <t>cryptocurrency</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>fintech</t>
+  </si>
+  <si>
+    <t>NFT</t>
+  </si>
+  <si>
+    <t>nft artist</t>
+  </si>
+  <si>
+    <t>NFT assets</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>woocommerce</t>
+  </si>
+  <si>
+    <t>digital content agency</t>
   </si>
   <si>
     <t>status</t>
@@ -80,94 +77,34 @@
     <t>XAktif</t>
   </si>
   <si>
-    <t>449</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>462</t>
-  </si>
-  <si>
-    <t>463</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>475</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>477</t>
-  </si>
-  <si>
-    <t>478</t>
+    <t>479</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>488</t>
   </si>
   <si>
     <t>XAkti</t>
@@ -233,9 +170,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -245,9 +182,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -257,8 +196,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,52 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -344,14 +295,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,14 +317,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,13 +332,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -410,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +538,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -653,6 +599,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -667,21 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -692,152 +638,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,7 +1115,7 @@
   <sheetPr/>
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1190,11 +1127,11 @@
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
-        <v>Agency</v>
+        <v>Blockchain</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),B2:B20)</f>
-        <v>Agency,App Landing,Developer,Elementor,Information Technology,Mobile App,Product Landing,Saas,Saas Template,Service,Software,Software As A Service,Startup,Technology,Template Kit</v>
+        <v>Blockchain,Collectibles,Crypto,Crypto Art,Crypto Asset,Cryptocurrency,Digital,Fintech,Nft,Nft Artist,Nft Assets,Portfolio,Woocommerce,Digital Content Agency</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1203,7 +1140,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>App Landing</v>
+        <v>Collectibles</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1212,7 +1149,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Developer</v>
+        <v>Crypto</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>E4&amp;","</f>
@@ -1225,7 +1162,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Elementor</v>
+        <v>Crypto Art</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1234,7 +1171,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Information Technology</v>
+        <v>Crypto Asset</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1243,7 +1180,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Mobile App</v>
+        <v>Cryptocurrency</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1252,7 +1189,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Product Landing</v>
+        <v>Digital</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1261,7 +1198,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Saas</v>
+        <v>Fintech</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1270,7 +1207,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Saas Template</v>
+        <v>Nft</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1279,7 +1216,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Service</v>
+        <v>Nft Artist</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1288,7 +1225,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Software</v>
+        <v>Nft Assets</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1297,7 +1234,7 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Software As A Service</v>
+        <v>Portfolio</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1306,7 +1243,7 @@
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Startup</v>
+        <v>Woocommerce</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1315,16 +1252,13 @@
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Technology</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
+        <v>Digital Content Agency</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Template Kit</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1545,21 +1479,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="agency" tooltip="https://elements.envato.com/wordpress/agency"/>
-    <hyperlink ref="A3" r:id="rId2" display="app landing" tooltip="https://elements.envato.com/wordpress/app+landing"/>
-    <hyperlink ref="A4" r:id="rId3" display="developer" tooltip="https://elements.envato.com/wordpress/developer"/>
-    <hyperlink ref="A5" r:id="rId4" display="elementor" tooltip="https://elements.envato.com/wordpress/elementor"/>
-    <hyperlink ref="A6" r:id="rId5" display="information technology" tooltip="https://elements.envato.com/wordpress/information+technology"/>
-    <hyperlink ref="A7" r:id="rId6" display="mobile app" tooltip="https://elements.envato.com/wordpress/mobile+app"/>
-    <hyperlink ref="A8" r:id="rId7" display="product landing" tooltip="https://elements.envato.com/wordpress/product+landing"/>
-    <hyperlink ref="A9" r:id="rId8" display="saas" tooltip="https://elements.envato.com/wordpress/saas"/>
-    <hyperlink ref="A10" r:id="rId9" display="saas template" tooltip="https://elements.envato.com/wordpress/saas+template"/>
-    <hyperlink ref="A11" r:id="rId10" display="service" tooltip="https://elements.envato.com/wordpress/service"/>
-    <hyperlink ref="A12" r:id="rId11" display="software" tooltip="https://elements.envato.com/wordpress/software"/>
-    <hyperlink ref="A13" r:id="rId12" display="software as a service" tooltip="https://elements.envato.com/wordpress/software+as+a+service"/>
-    <hyperlink ref="A14" r:id="rId13" display="startup" tooltip="https://elements.envato.com/wordpress/startup"/>
-    <hyperlink ref="A15" r:id="rId14" display="technology" tooltip="https://elements.envato.com/wordpress/technology"/>
-    <hyperlink ref="A16" r:id="rId15" display="template kit" tooltip="https://elements.envato.com/wordpress/template+kit"/>
+    <hyperlink ref="A2" r:id="rId1" display="blockchain" tooltip="https://elements.envato.com/wordpress/blockchain"/>
+    <hyperlink ref="A3" r:id="rId2" display="collectibles" tooltip="https://elements.envato.com/wordpress/collectibles"/>
+    <hyperlink ref="A4" r:id="rId3" display="crypto" tooltip="https://elements.envato.com/wordpress/crypto"/>
+    <hyperlink ref="A5" r:id="rId4" display="crypto art" tooltip="https://elements.envato.com/wordpress/crypto+art"/>
+    <hyperlink ref="A6" r:id="rId5" display="crypto asset" tooltip="https://elements.envato.com/wordpress/crypto+asset"/>
+    <hyperlink ref="A7" r:id="rId6" display="cryptocurrency" tooltip="https://elements.envato.com/wordpress/cryptocurrency"/>
+    <hyperlink ref="A8" r:id="rId7" display="digital" tooltip="https://elements.envato.com/wordpress/digital"/>
+    <hyperlink ref="A9" r:id="rId8" display="fintech" tooltip="https://elements.envato.com/wordpress/fintech"/>
+    <hyperlink ref="A10" r:id="rId9" display="NFT" tooltip="https://elements.envato.com/wordpress/NFT"/>
+    <hyperlink ref="A11" r:id="rId10" display="nft artist" tooltip="https://elements.envato.com/wordpress/nft+artist"/>
+    <hyperlink ref="A12" r:id="rId11" display="NFT assets" tooltip="https://elements.envato.com/wordpress/NFT+assets"/>
+    <hyperlink ref="A13" r:id="rId12" display="portfolio" tooltip="https://elements.envato.com/wordpress/portfolio"/>
+    <hyperlink ref="A14" r:id="rId13" display="woocommerce" tooltip="https://elements.envato.com/wordpress/woocommerce"/>
+    <hyperlink ref="A15" r:id="rId14" display="digital content agency" tooltip="https://elements.envato.com/wordpress/digital+content+agency"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1572,7 +1505,7 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1583,79 +1516,84 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C31" si="0">IF(ISBLANK(A2),B2,"")</f>
-        <v>449</v>
+        <f t="shared" ref="C2:C11" si="0">IF(ISBLANK(A2),B2,"")</f>
+        <v>479</v>
       </c>
       <c r="D2" s="1" t="str">
         <f t="shared" ref="D2:D43" si="1">IF(A2=1,B2,"")</f>
         <v/>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C43)</f>
-        <v>449,450,451,452,453,454,455,456,457,458,459,460,461,462,463,464,465,466,468,469,470,471,472,474,475,476,478</v>
+        <v>479,482,483,484,485,486,488</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v/>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>480</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D43)</f>
-        <v>467,473,477</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>480,481,487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>451</v>
+        <v/>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1664,11 +1602,11 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1677,11 +1615,11 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1690,11 +1628,11 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1703,65 +1641,56 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>486</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>456</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v/>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>459</v>
-      </c>
+    <row r="12" spans="3:4">
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>460</v>
-      </c>
+    <row r="13" spans="3:4">
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1769,26 +1698,14 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>461</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>462</v>
-      </c>
+    <row r="15" spans="3:4">
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1796,13 +1713,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>463</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1810,13 +1721,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>464</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1824,191 +1729,98 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>466</v>
-      </c>
+    <row r="19" spans="3:4">
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="20" spans="3:4">
+      <c r="C20" s="1"/>
       <c r="D20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>467</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>468</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="1"/>
       <c r="D21" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>469</v>
-      </c>
+    <row r="22" spans="3:4">
+      <c r="C22" s="1"/>
       <c r="D22" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>470</v>
-      </c>
+    <row r="23" spans="3:4">
+      <c r="C23" s="1"/>
       <c r="D23" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>471</v>
-      </c>
+    <row r="24" spans="3:4">
+      <c r="C24" s="1"/>
       <c r="D24" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>472</v>
-      </c>
+    <row r="25" spans="3:4">
+      <c r="C25" s="1"/>
       <c r="D25" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="26" spans="3:4">
+      <c r="C26" s="1"/>
       <c r="D26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>473</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>474</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="1"/>
       <c r="D27" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>475</v>
-      </c>
+    <row r="28" spans="3:4">
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>476</v>
-      </c>
+    <row r="29" spans="3:4">
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="30" spans="3:4">
+      <c r="C30" s="1"/>
       <c r="D30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>477</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>478</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="1"/>
       <c r="D31" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2114,46 +1926,46 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2161,7 +1973,7 @@
         <v>44628</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>44628</v>
@@ -2172,7 +1984,7 @@
         <v>44659</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2">
         <v>44659</v>
@@ -2183,13 +1995,13 @@
         <v>44720</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2">
         <v>44720</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2197,13 +2009,13 @@
         <v>44750</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>44750</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2229,15 +2041,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
         <v>46</v>
@@ -2245,7 +2057,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
         <v>26</v>
@@ -2253,7 +2065,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>120</v>
@@ -2261,7 +2073,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -21,48 +21,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
-  <si>
-    <t>blockchain</t>
-  </si>
-  <si>
-    <t>collectibles</t>
-  </si>
-  <si>
-    <t>crypto</t>
-  </si>
-  <si>
-    <t>crypto art</t>
-  </si>
-  <si>
-    <t>crypto asset</t>
-  </si>
-  <si>
-    <t>cryptocurrency</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>fintech</t>
-  </si>
-  <si>
-    <t>NFT</t>
-  </si>
-  <si>
-    <t>nft artist</t>
-  </si>
-  <si>
-    <t>NFT assets</t>
-  </si>
-  <si>
-    <t>portfolio</t>
-  </si>
-  <si>
-    <t>woocommerce</t>
-  </si>
-  <si>
-    <t>digital content agency</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>corporate</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>designer</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>status</t>
@@ -171,8 +174,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -182,15 +185,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,20 +212,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,14 +231,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,6 +248,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,6 +281,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -293,9 +304,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,8 +318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,16 +334,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,6 +350,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,7 +482,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,163 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,9 +546,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +597,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -627,55 +641,44 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,97 +687,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,11 +1130,11 @@
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
-        <v>Blockchain</v>
+        <v>Business</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),B2:B20)</f>
-        <v>Blockchain,Collectibles,Crypto,Crypto Art,Crypto Asset,Cryptocurrency,Digital,Fintech,Nft,Nft Artist,Nft Assets,Portfolio,Woocommerce,Digital Content Agency</v>
+        <v>Business,Computer,Corporate,Creative,Design,Designer,Development,Internet,Office,People,Team,Tech,Technology,Web,Work</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1140,7 +1143,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Collectibles</v>
+        <v>Computer</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1149,7 +1152,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Crypto</v>
+        <v>Corporate</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>E4&amp;","</f>
@@ -1162,7 +1165,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Crypto Art</v>
+        <v>Creative</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1171,7 +1174,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Crypto Asset</v>
+        <v>Design</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1180,7 +1183,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Cryptocurrency</v>
+        <v>Designer</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1189,7 +1192,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Digital</v>
+        <v>Development</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1198,7 +1201,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Fintech</v>
+        <v>Internet</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1207,7 +1210,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Nft</v>
+        <v>Office</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1216,7 +1219,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Nft Artist</v>
+        <v>People</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1225,7 +1228,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Nft Assets</v>
+        <v>Team</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1234,7 +1237,7 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Portfolio</v>
+        <v>Tech</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1243,7 +1246,7 @@
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Woocommerce</v>
+        <v>Technology</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1252,13 +1255,16 @@
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Digital Content Agency</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+        <v>Web</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Work</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1479,20 +1485,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="blockchain" tooltip="https://elements.envato.com/wordpress/blockchain"/>
-    <hyperlink ref="A3" r:id="rId2" display="collectibles" tooltip="https://elements.envato.com/wordpress/collectibles"/>
-    <hyperlink ref="A4" r:id="rId3" display="crypto" tooltip="https://elements.envato.com/wordpress/crypto"/>
-    <hyperlink ref="A5" r:id="rId4" display="crypto art" tooltip="https://elements.envato.com/wordpress/crypto+art"/>
-    <hyperlink ref="A6" r:id="rId5" display="crypto asset" tooltip="https://elements.envato.com/wordpress/crypto+asset"/>
-    <hyperlink ref="A7" r:id="rId6" display="cryptocurrency" tooltip="https://elements.envato.com/wordpress/cryptocurrency"/>
-    <hyperlink ref="A8" r:id="rId7" display="digital" tooltip="https://elements.envato.com/wordpress/digital"/>
-    <hyperlink ref="A9" r:id="rId8" display="fintech" tooltip="https://elements.envato.com/wordpress/fintech"/>
-    <hyperlink ref="A10" r:id="rId9" display="NFT" tooltip="https://elements.envato.com/wordpress/NFT"/>
-    <hyperlink ref="A11" r:id="rId10" display="nft artist" tooltip="https://elements.envato.com/wordpress/nft+artist"/>
-    <hyperlink ref="A12" r:id="rId11" display="NFT assets" tooltip="https://elements.envato.com/wordpress/NFT+assets"/>
-    <hyperlink ref="A13" r:id="rId12" display="portfolio" tooltip="https://elements.envato.com/wordpress/portfolio"/>
-    <hyperlink ref="A14" r:id="rId13" display="woocommerce" tooltip="https://elements.envato.com/wordpress/woocommerce"/>
-    <hyperlink ref="A15" r:id="rId14" display="digital content agency" tooltip="https://elements.envato.com/wordpress/digital+content+agency"/>
+    <hyperlink ref="A2" r:id="rId1" display="business" tooltip="https://elements.envato.com/wordpress/business"/>
+    <hyperlink ref="A3" r:id="rId2" display="computer" tooltip="https://elements.envato.com/wordpress/computer"/>
+    <hyperlink ref="A4" r:id="rId3" display="corporate" tooltip="https://elements.envato.com/wordpress/corporate"/>
+    <hyperlink ref="A5" r:id="rId4" display="creative" tooltip="https://elements.envato.com/wordpress/creative"/>
+    <hyperlink ref="A6" r:id="rId5" display="design" tooltip="https://elements.envato.com/wordpress/design"/>
+    <hyperlink ref="A7" r:id="rId6" display="designer" tooltip="https://elements.envato.com/wordpress/designer"/>
+    <hyperlink ref="A8" r:id="rId7" display="development" tooltip="https://elements.envato.com/wordpress/development"/>
+    <hyperlink ref="A9" r:id="rId8" display="internet" tooltip="https://elements.envato.com/wordpress/internet"/>
+    <hyperlink ref="A10" r:id="rId9" display="office" tooltip="https://elements.envato.com/wordpress/office"/>
+    <hyperlink ref="A11" r:id="rId10" display="people" tooltip="https://elements.envato.com/wordpress/people"/>
+    <hyperlink ref="A12" r:id="rId11" display="team" tooltip="https://elements.envato.com/wordpress/team"/>
+    <hyperlink ref="A13" r:id="rId12" display="tech" tooltip="https://elements.envato.com/wordpress/tech"/>
+    <hyperlink ref="A14" r:id="rId13" display="technology" tooltip="https://elements.envato.com/wordpress/technology"/>
+    <hyperlink ref="A15" r:id="rId14" display="web" tooltip="https://elements.envato.com/wordpress/web"/>
+    <hyperlink ref="A16" r:id="rId15" display="work" tooltip="https://elements.envato.com/wordpress/work"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1516,21 +1523,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:C11" si="0">IF(ISBLANK(A2),B2,"")</f>
@@ -1541,7 +1548,7 @@
         <v/>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C43)</f>
@@ -1553,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1564,7 +1571,7 @@
         <v>480</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D43)</f>
@@ -1576,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1589,7 +1596,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1602,7 +1609,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1615,7 +1622,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1628,7 +1635,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1641,7 +1648,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1657,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1671,7 +1678,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1926,46 +1933,46 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1973,7 +1980,7 @@
         <v>44628</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
         <v>44628</v>
@@ -1984,7 +1991,7 @@
         <v>44659</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2">
         <v>44659</v>
@@ -1995,13 +2002,13 @@
         <v>44720</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2">
         <v>44720</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2009,13 +2016,13 @@
         <v>44750</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
         <v>44750</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2041,15 +2048,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
         <v>46</v>
@@ -2057,7 +2064,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
         <v>26</v>
@@ -2065,7 +2072,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>120</v>
@@ -2073,7 +2080,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -23,49 +23,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
+    <t>agency</t>
+  </si>
+  <si>
     <t>business</t>
   </si>
   <si>
-    <t>computer</t>
-  </si>
-  <si>
-    <t>corporate</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>designer</t>
-  </si>
-  <si>
-    <t>development</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>tech</t>
+    <t>creative agency</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>digital agency</t>
+  </si>
+  <si>
+    <t>information technology</t>
+  </si>
+  <si>
+    <t>it solutions</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>saas</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>startup</t>
+  </si>
+  <si>
+    <t>tech services</t>
   </si>
   <si>
     <t>technology</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>work</t>
   </si>
   <si>
     <t>status</t>
@@ -172,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -185,16 +185,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -212,6 +213,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -222,7 +230,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,17 +252,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,26 +298,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,13 +321,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -326,16 +334,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,11 +546,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,9 +585,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,8 +627,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,38 +636,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,138 +646,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,11 +1130,11 @@
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
-        <v>Business</v>
+        <v>Agency</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),B2:B20)</f>
-        <v>Business,Computer,Corporate,Creative,Design,Designer,Development,Internet,Office,People,Team,Tech,Technology,Web,Work</v>
+        <v>Agency,Business,Creative Agency,Digital,Digital Agency,Information Technology,It Solutions,Marketing,Saas,Service,Software,Solution,Startup,Tech Services,Technology</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Computer</v>
+        <v>Business</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Corporate</v>
+        <v>Creative Agency</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>E4&amp;","</f>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Creative</v>
+        <v>Digital</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Design</v>
+        <v>Digital Agency</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Designer</v>
+        <v>Information Technology</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Development</v>
+        <v>It Solutions</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Internet</v>
+        <v>Marketing</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Office</v>
+        <v>Saas</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>People</v>
+        <v>Service</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Team</v>
+        <v>Software</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Tech</v>
+        <v>Solution</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Technology</v>
+        <v>Startup</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Web</v>
+        <v>Tech Services</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Work</v>
+        <v>Technology</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1485,21 +1485,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="business" tooltip="https://elements.envato.com/wordpress/business"/>
-    <hyperlink ref="A3" r:id="rId2" display="computer" tooltip="https://elements.envato.com/wordpress/computer"/>
-    <hyperlink ref="A4" r:id="rId3" display="corporate" tooltip="https://elements.envato.com/wordpress/corporate"/>
-    <hyperlink ref="A5" r:id="rId4" display="creative" tooltip="https://elements.envato.com/wordpress/creative"/>
-    <hyperlink ref="A6" r:id="rId5" display="design" tooltip="https://elements.envato.com/wordpress/design"/>
-    <hyperlink ref="A7" r:id="rId6" display="designer" tooltip="https://elements.envato.com/wordpress/designer"/>
-    <hyperlink ref="A8" r:id="rId7" display="development" tooltip="https://elements.envato.com/wordpress/development"/>
-    <hyperlink ref="A9" r:id="rId8" display="internet" tooltip="https://elements.envato.com/wordpress/internet"/>
-    <hyperlink ref="A10" r:id="rId9" display="office" tooltip="https://elements.envato.com/wordpress/office"/>
-    <hyperlink ref="A11" r:id="rId10" display="people" tooltip="https://elements.envato.com/wordpress/people"/>
-    <hyperlink ref="A12" r:id="rId11" display="team" tooltip="https://elements.envato.com/wordpress/team"/>
-    <hyperlink ref="A13" r:id="rId12" display="tech" tooltip="https://elements.envato.com/wordpress/tech"/>
-    <hyperlink ref="A14" r:id="rId13" display="technology" tooltip="https://elements.envato.com/wordpress/technology"/>
-    <hyperlink ref="A15" r:id="rId14" display="web" tooltip="https://elements.envato.com/wordpress/web"/>
-    <hyperlink ref="A16" r:id="rId15" display="work" tooltip="https://elements.envato.com/wordpress/work"/>
+    <hyperlink ref="A2" r:id="rId1" display="agency" tooltip="https://elements.envato.com/wordpress/agency"/>
+    <hyperlink ref="A3" r:id="rId2" display="business" tooltip="https://elements.envato.com/wordpress/business"/>
+    <hyperlink ref="A4" r:id="rId3" display="creative agency" tooltip="https://elements.envato.com/wordpress/creative+agency"/>
+    <hyperlink ref="A5" r:id="rId4" display="digital" tooltip="https://elements.envato.com/wordpress/digital"/>
+    <hyperlink ref="A6" r:id="rId5" display="digital agency" tooltip="https://elements.envato.com/wordpress/digital+agency"/>
+    <hyperlink ref="A7" r:id="rId6" display="information technology" tooltip="https://elements.envato.com/wordpress/information+technology"/>
+    <hyperlink ref="A8" r:id="rId7" display="it solutions" tooltip="https://elements.envato.com/wordpress/it+solutions"/>
+    <hyperlink ref="A9" r:id="rId8" display="marketing" tooltip="https://elements.envato.com/wordpress/marketing"/>
+    <hyperlink ref="A10" r:id="rId9" display="saas" tooltip="https://elements.envato.com/wordpress/saas"/>
+    <hyperlink ref="A11" r:id="rId10" display="service" tooltip="https://elements.envato.com/wordpress/service"/>
+    <hyperlink ref="A12" r:id="rId11" display="software" tooltip="https://elements.envato.com/wordpress/software"/>
+    <hyperlink ref="A13" r:id="rId12" display="solution" tooltip="https://elements.envato.com/wordpress/solution"/>
+    <hyperlink ref="A14" r:id="rId13" display="startup" tooltip="https://elements.envato.com/wordpress/startup"/>
+    <hyperlink ref="A15" r:id="rId14" display="tech services" tooltip="https://elements.envato.com/wordpress/tech+services"/>
+    <hyperlink ref="A16" r:id="rId15" display="technology" tooltip="https://elements.envato.com/wordpress/technology"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -21,51 +21,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
-  <si>
-    <t>agency</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>creative agency</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>digital agency</t>
-  </si>
-  <si>
-    <t>information technology</t>
-  </si>
-  <si>
-    <t>it solutions</t>
-  </si>
-  <si>
-    <t>marketing</t>
-  </si>
-  <si>
-    <t>saas</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>startup</t>
-  </si>
-  <si>
-    <t>tech services</t>
-  </si>
-  <si>
-    <t>technology</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+  <si>
+    <t>alternative energy</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>ecology</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>energy company</t>
+  </si>
+  <si>
+    <t>green energy</t>
+  </si>
+  <si>
+    <t>hybrid energy</t>
+  </si>
+  <si>
+    <t>power company</t>
+  </si>
+  <si>
+    <t>recycling</t>
+  </si>
+  <si>
+    <t>renewable</t>
+  </si>
+  <si>
+    <t>renewable energy</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>solar energy</t>
+  </si>
+  <si>
+    <t>wind energy</t>
   </si>
   <si>
     <t>status</t>
@@ -173,9 +170,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -183,6 +180,36 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -193,28 +220,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,56 +258,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,6 +273,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -298,11 +295,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,7 +317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,19 +330,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -350,19 +347,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,157 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,21 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -583,17 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -605,6 +576,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,143 +623,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,11 +1127,11 @@
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
-        <v>Agency</v>
+        <v>Alternative Energy</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),B2:B20)</f>
-        <v>Agency,Business,Creative Agency,Digital,Digital Agency,Information Technology,It Solutions,Marketing,Saas,Service,Software,Solution,Startup,Tech Services,Technology</v>
+        <v>Alternative Energy,Eco,Ecology,Energy,Energy Company,Green Energy,Hybrid Energy,Power Company,Recycling,Renewable,Renewable Energy,Solar,Solar Energy,Wind Energy</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1143,7 +1140,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Business</v>
+        <v>Eco</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1152,7 +1149,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Creative Agency</v>
+        <v>Ecology</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>E4&amp;","</f>
@@ -1165,7 +1162,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Digital</v>
+        <v>Energy</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1174,7 +1171,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Digital Agency</v>
+        <v>Energy Company</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1183,7 +1180,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Information Technology</v>
+        <v>Green Energy</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1192,7 +1189,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>It Solutions</v>
+        <v>Hybrid Energy</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1201,7 +1198,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Marketing</v>
+        <v>Power Company</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1210,7 +1207,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Saas</v>
+        <v>Recycling</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1219,7 +1216,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Service</v>
+        <v>Renewable</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1228,7 +1225,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Software</v>
+        <v>Renewable Energy</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1237,7 +1234,7 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Solution</v>
+        <v>Solar</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1246,7 +1243,7 @@
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Startup</v>
+        <v>Solar Energy</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1255,16 +1252,13 @@
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Tech Services</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
+        <v>Wind Energy</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Technology</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1485,21 +1479,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="agency" tooltip="https://elements.envato.com/wordpress/agency"/>
-    <hyperlink ref="A3" r:id="rId2" display="business" tooltip="https://elements.envato.com/wordpress/business"/>
-    <hyperlink ref="A4" r:id="rId3" display="creative agency" tooltip="https://elements.envato.com/wordpress/creative+agency"/>
-    <hyperlink ref="A5" r:id="rId4" display="digital" tooltip="https://elements.envato.com/wordpress/digital"/>
-    <hyperlink ref="A6" r:id="rId5" display="digital agency" tooltip="https://elements.envato.com/wordpress/digital+agency"/>
-    <hyperlink ref="A7" r:id="rId6" display="information technology" tooltip="https://elements.envato.com/wordpress/information+technology"/>
-    <hyperlink ref="A8" r:id="rId7" display="it solutions" tooltip="https://elements.envato.com/wordpress/it+solutions"/>
-    <hyperlink ref="A9" r:id="rId8" display="marketing" tooltip="https://elements.envato.com/wordpress/marketing"/>
-    <hyperlink ref="A10" r:id="rId9" display="saas" tooltip="https://elements.envato.com/wordpress/saas"/>
-    <hyperlink ref="A11" r:id="rId10" display="service" tooltip="https://elements.envato.com/wordpress/service"/>
-    <hyperlink ref="A12" r:id="rId11" display="software" tooltip="https://elements.envato.com/wordpress/software"/>
-    <hyperlink ref="A13" r:id="rId12" display="solution" tooltip="https://elements.envato.com/wordpress/solution"/>
-    <hyperlink ref="A14" r:id="rId13" display="startup" tooltip="https://elements.envato.com/wordpress/startup"/>
-    <hyperlink ref="A15" r:id="rId14" display="tech services" tooltip="https://elements.envato.com/wordpress/tech+services"/>
-    <hyperlink ref="A16" r:id="rId15" display="technology" tooltip="https://elements.envato.com/wordpress/technology"/>
+    <hyperlink ref="A2" r:id="rId1" display="alternative energy" tooltip="https://elements.envato.com/wordpress/alternative+energy"/>
+    <hyperlink ref="A3" r:id="rId2" display="eco" tooltip="https://elements.envato.com/wordpress/eco"/>
+    <hyperlink ref="A4" r:id="rId3" display="ecology" tooltip="https://elements.envato.com/wordpress/ecology"/>
+    <hyperlink ref="A5" r:id="rId4" display="energy" tooltip="https://elements.envato.com/wordpress/energy"/>
+    <hyperlink ref="A6" r:id="rId5" display="energy company" tooltip="https://elements.envato.com/wordpress/energy+company"/>
+    <hyperlink ref="A7" r:id="rId6" display="green energy" tooltip="https://elements.envato.com/wordpress/green+energy"/>
+    <hyperlink ref="A8" r:id="rId7" display="hybrid energy" tooltip="https://elements.envato.com/wordpress/hybrid+energy"/>
+    <hyperlink ref="A9" r:id="rId8" display="power company" tooltip="https://elements.envato.com/wordpress/power+company"/>
+    <hyperlink ref="A10" r:id="rId9" display="recycling" tooltip="https://elements.envato.com/wordpress/recycling"/>
+    <hyperlink ref="A11" r:id="rId10" display="renewable" tooltip="https://elements.envato.com/wordpress/renewable"/>
+    <hyperlink ref="A12" r:id="rId11" display="renewable energy" tooltip="https://elements.envato.com/wordpress/renewable+energy"/>
+    <hyperlink ref="A13" r:id="rId12" display="solar" tooltip="https://elements.envato.com/wordpress/solar"/>
+    <hyperlink ref="A14" r:id="rId13" display="solar energy" tooltip="https://elements.envato.com/wordpress/solar+energy"/>
+    <hyperlink ref="A15" r:id="rId14" display="wind energy" tooltip="https://elements.envato.com/wordpress/wind+energy"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1523,21 +1516,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:C11" si="0">IF(ISBLANK(A2),B2,"")</f>
@@ -1548,7 +1541,7 @@
         <v/>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C43)</f>
@@ -1560,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1571,7 +1564,7 @@
         <v>480</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D43)</f>
@@ -1583,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1596,7 +1589,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1609,7 +1602,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1622,7 +1615,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1635,7 +1628,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1648,7 +1641,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1664,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1678,7 +1671,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1933,46 +1926,46 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1980,7 +1973,7 @@
         <v>44628</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>44628</v>
@@ -1991,7 +1984,7 @@
         <v>44659</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2">
         <v>44659</v>
@@ -2002,13 +1995,13 @@
         <v>44720</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2">
         <v>44720</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2016,13 +2009,13 @@
         <v>44750</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>44750</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2048,15 +2041,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
         <v>46</v>
@@ -2064,7 +2057,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
         <v>26</v>
@@ -2072,7 +2065,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>120</v>
@@ -2080,7 +2073,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -21,48 +21,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
-  <si>
-    <t>alternative energy</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>ecology</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>energy company</t>
-  </si>
-  <si>
-    <t>green energy</t>
-  </si>
-  <si>
-    <t>hybrid energy</t>
-  </si>
-  <si>
-    <t>power company</t>
-  </si>
-  <si>
-    <t>recycling</t>
-  </si>
-  <si>
-    <t>renewable</t>
-  </si>
-  <si>
-    <t>renewable energy</t>
-  </si>
-  <si>
-    <t>solar</t>
-  </si>
-  <si>
-    <t>solar energy</t>
-  </si>
-  <si>
-    <t>wind energy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>Elementor Pro</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>multipurpose</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>responsive</t>
+  </si>
+  <si>
+    <t>saas</t>
+  </si>
+  <si>
+    <t>seo</t>
+  </si>
+  <si>
+    <t>startup</t>
   </si>
   <si>
     <t>status</t>
@@ -169,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -189,10 +192,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,46 +221,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,16 +236,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -295,8 +281,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,15 +310,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +332,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,25 +350,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,157 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +548,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +564,45 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,6 +624,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -590,191 +641,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,11 +1130,11 @@
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
-        <v>Alternative Energy</v>
+        <v>Agency</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),B2:B20)</f>
-        <v>Alternative Energy,Eco,Ecology,Energy,Energy Company,Green Energy,Hybrid Energy,Power Company,Recycling,Renewable,Renewable Energy,Solar,Solar Energy,Wind Energy</v>
+        <v>Agency,App,Business,Clean,Creative,Design,Elementor Pro,Marketing,Modern,Multipurpose,Portfolio,Responsive,Saas,Seo,Startup</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1140,7 +1143,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Eco</v>
+        <v>App</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1149,7 +1152,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Ecology</v>
+        <v>Business</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>E4&amp;","</f>
@@ -1162,7 +1165,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Energy</v>
+        <v>Clean</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1171,7 +1174,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Energy Company</v>
+        <v>Creative</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1180,7 +1183,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Green Energy</v>
+        <v>Design</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1189,7 +1192,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid Energy</v>
+        <v>Elementor Pro</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1198,7 +1201,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Power Company</v>
+        <v>Marketing</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1207,7 +1210,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Recycling</v>
+        <v>Modern</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1216,7 +1219,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Renewable</v>
+        <v>Multipurpose</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1225,7 +1228,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Renewable Energy</v>
+        <v>Portfolio</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1234,7 +1237,7 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Solar</v>
+        <v>Responsive</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1243,7 +1246,7 @@
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Solar Energy</v>
+        <v>Saas</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1252,13 +1255,16 @@
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Wind Energy</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+        <v>Seo</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Startup</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1479,20 +1485,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="alternative energy" tooltip="https://elements.envato.com/wordpress/alternative+energy"/>
-    <hyperlink ref="A3" r:id="rId2" display="eco" tooltip="https://elements.envato.com/wordpress/eco"/>
-    <hyperlink ref="A4" r:id="rId3" display="ecology" tooltip="https://elements.envato.com/wordpress/ecology"/>
-    <hyperlink ref="A5" r:id="rId4" display="energy" tooltip="https://elements.envato.com/wordpress/energy"/>
-    <hyperlink ref="A6" r:id="rId5" display="energy company" tooltip="https://elements.envato.com/wordpress/energy+company"/>
-    <hyperlink ref="A7" r:id="rId6" display="green energy" tooltip="https://elements.envato.com/wordpress/green+energy"/>
-    <hyperlink ref="A8" r:id="rId7" display="hybrid energy" tooltip="https://elements.envato.com/wordpress/hybrid+energy"/>
-    <hyperlink ref="A9" r:id="rId8" display="power company" tooltip="https://elements.envato.com/wordpress/power+company"/>
-    <hyperlink ref="A10" r:id="rId9" display="recycling" tooltip="https://elements.envato.com/wordpress/recycling"/>
-    <hyperlink ref="A11" r:id="rId10" display="renewable" tooltip="https://elements.envato.com/wordpress/renewable"/>
-    <hyperlink ref="A12" r:id="rId11" display="renewable energy" tooltip="https://elements.envato.com/wordpress/renewable+energy"/>
-    <hyperlink ref="A13" r:id="rId12" display="solar" tooltip="https://elements.envato.com/wordpress/solar"/>
-    <hyperlink ref="A14" r:id="rId13" display="solar energy" tooltip="https://elements.envato.com/wordpress/solar+energy"/>
-    <hyperlink ref="A15" r:id="rId14" display="wind energy" tooltip="https://elements.envato.com/wordpress/wind+energy"/>
+    <hyperlink ref="A2" r:id="rId1" display="agency" tooltip="https://elements.envato.com/wordpress/agency"/>
+    <hyperlink ref="A3" r:id="rId2" display="app" tooltip="https://elements.envato.com/wordpress/app"/>
+    <hyperlink ref="A4" r:id="rId3" display="business" tooltip="https://elements.envato.com/wordpress/business"/>
+    <hyperlink ref="A5" r:id="rId4" display="clean" tooltip="https://elements.envato.com/wordpress/clean"/>
+    <hyperlink ref="A6" r:id="rId5" display="creative" tooltip="https://elements.envato.com/wordpress/creative"/>
+    <hyperlink ref="A7" r:id="rId6" display="design" tooltip="https://elements.envato.com/wordpress/design"/>
+    <hyperlink ref="A8" r:id="rId7" display="Elementor Pro" tooltip="https://elements.envato.com/wordpress/Elementor+Pro"/>
+    <hyperlink ref="A9" r:id="rId8" display="marketing" tooltip="https://elements.envato.com/wordpress/marketing"/>
+    <hyperlink ref="A10" r:id="rId9" display="modern" tooltip="https://elements.envato.com/wordpress/modern"/>
+    <hyperlink ref="A11" r:id="rId10" display="multipurpose" tooltip="https://elements.envato.com/wordpress/multipurpose"/>
+    <hyperlink ref="A12" r:id="rId11" display="portfolio" tooltip="https://elements.envato.com/wordpress/portfolio"/>
+    <hyperlink ref="A13" r:id="rId12" display="responsive" tooltip="https://elements.envato.com/wordpress/responsive"/>
+    <hyperlink ref="A14" r:id="rId13" display="saas" tooltip="https://elements.envato.com/wordpress/saas"/>
+    <hyperlink ref="A15" r:id="rId14" display="seo" tooltip="https://elements.envato.com/wordpress/seo"/>
+    <hyperlink ref="A16" r:id="rId15" display="startup" tooltip="https://elements.envato.com/wordpress/startup"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1516,21 +1523,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:C11" si="0">IF(ISBLANK(A2),B2,"")</f>
@@ -1541,7 +1548,7 @@
         <v/>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C43)</f>
@@ -1553,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1564,7 +1571,7 @@
         <v>480</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D43)</f>
@@ -1576,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1589,7 +1596,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1602,7 +1609,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1615,7 +1622,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1628,7 +1635,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1641,7 +1648,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1657,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1671,7 +1678,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1926,46 +1933,46 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1973,7 +1980,7 @@
         <v>44628</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
         <v>44628</v>
@@ -1984,7 +1991,7 @@
         <v>44659</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2">
         <v>44659</v>
@@ -1995,13 +2002,13 @@
         <v>44720</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2">
         <v>44720</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2009,13 +2016,13 @@
         <v>44750</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
         <v>44750</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2041,15 +2048,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
         <v>46</v>
@@ -2057,7 +2064,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
         <v>26</v>
@@ -2065,7 +2072,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>120</v>
@@ -2073,7 +2080,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -14,58 +14,58 @@
     <sheet name="Rekap" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Urutan!$A$1:$D$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Urutan!$A$1:$D$79</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
-  <si>
-    <t>agency</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>Elementor Pro</t>
-  </si>
-  <si>
-    <t>marketing</t>
-  </si>
-  <si>
-    <t>modern</t>
-  </si>
-  <si>
-    <t>multipurpose</t>
-  </si>
-  <si>
-    <t>portfolio</t>
-  </si>
-  <si>
-    <t>responsive</t>
-  </si>
-  <si>
-    <t>saas</t>
-  </si>
-  <si>
-    <t>seo</t>
-  </si>
-  <si>
-    <t>startup</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>band</t>
+  </si>
+  <si>
+    <t>elementor</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>music producer</t>
+  </si>
+  <si>
+    <t>music records</t>
+  </si>
+  <si>
+    <t>music studio</t>
+  </si>
+  <si>
+    <t>producer</t>
+  </si>
+  <si>
+    <t>record label</t>
+  </si>
+  <si>
+    <t>recording</t>
+  </si>
+  <si>
+    <t>recording studio</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>sound producer</t>
+  </si>
+  <si>
+    <t>sound studio</t>
+  </si>
+  <si>
+    <t>template kit</t>
   </si>
   <si>
     <t>status</t>
@@ -78,36 +78,6 @@
   </si>
   <si>
     <t>XAktif</t>
-  </si>
-  <si>
-    <t>479</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>481</t>
-  </si>
-  <si>
-    <t>482</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>484</t>
-  </si>
-  <si>
-    <t>485</t>
-  </si>
-  <si>
-    <t>486</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>488</t>
   </si>
   <si>
     <t>XAkti</t>
@@ -172,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -192,30 +162,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +176,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +234,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -289,10 +258,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,13 +282,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -327,7 +290,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +303,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -350,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,8 +517,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +562,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -624,15 +603,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -646,138 +616,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -791,7 +761,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1130,11 +1100,11 @@
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
-        <v>Agency</v>
+        <v>Audio</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),B2:B20)</f>
-        <v>Agency,App,Business,Clean,Creative,Design,Elementor Pro,Marketing,Modern,Multipurpose,Portfolio,Responsive,Saas,Seo,Startup</v>
+        <v>Audio,Band,Elementor,Music,Music Producer,Music Records,Music Studio,Producer,Record Label,Recording,Recording Studio,Sound,Sound Producer,Sound Studio,Template Kit</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1143,7 +1113,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>App</v>
+        <v>Band</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1152,7 +1122,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Business</v>
+        <v>Elementor</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>E4&amp;","</f>
@@ -1165,7 +1135,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Clean</v>
+        <v>Music</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1174,7 +1144,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Creative</v>
+        <v>Music Producer</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1183,7 +1153,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Design</v>
+        <v>Music Records</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1192,7 +1162,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Elementor Pro</v>
+        <v>Music Studio</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1201,7 +1171,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Marketing</v>
+        <v>Producer</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1210,7 +1180,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Modern</v>
+        <v>Record Label</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1219,7 +1189,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Multipurpose</v>
+        <v>Recording</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1228,7 +1198,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Portfolio</v>
+        <v>Recording Studio</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1237,7 +1207,7 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Responsive</v>
+        <v>Sound</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1246,7 +1216,7 @@
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Saas</v>
+        <v>Sound Producer</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1255,7 +1225,7 @@
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Seo</v>
+        <v>Sound Studio</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1264,7 +1234,7 @@
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Startup</v>
+        <v>Template Kit</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1485,21 +1455,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="agency" tooltip="https://elements.envato.com/wordpress/agency"/>
-    <hyperlink ref="A3" r:id="rId2" display="app" tooltip="https://elements.envato.com/wordpress/app"/>
-    <hyperlink ref="A4" r:id="rId3" display="business" tooltip="https://elements.envato.com/wordpress/business"/>
-    <hyperlink ref="A5" r:id="rId4" display="clean" tooltip="https://elements.envato.com/wordpress/clean"/>
-    <hyperlink ref="A6" r:id="rId5" display="creative" tooltip="https://elements.envato.com/wordpress/creative"/>
-    <hyperlink ref="A7" r:id="rId6" display="design" tooltip="https://elements.envato.com/wordpress/design"/>
-    <hyperlink ref="A8" r:id="rId7" display="Elementor Pro" tooltip="https://elements.envato.com/wordpress/Elementor+Pro"/>
-    <hyperlink ref="A9" r:id="rId8" display="marketing" tooltip="https://elements.envato.com/wordpress/marketing"/>
-    <hyperlink ref="A10" r:id="rId9" display="modern" tooltip="https://elements.envato.com/wordpress/modern"/>
-    <hyperlink ref="A11" r:id="rId10" display="multipurpose" tooltip="https://elements.envato.com/wordpress/multipurpose"/>
-    <hyperlink ref="A12" r:id="rId11" display="portfolio" tooltip="https://elements.envato.com/wordpress/portfolio"/>
-    <hyperlink ref="A13" r:id="rId12" display="responsive" tooltip="https://elements.envato.com/wordpress/responsive"/>
-    <hyperlink ref="A14" r:id="rId13" display="saas" tooltip="https://elements.envato.com/wordpress/saas"/>
-    <hyperlink ref="A15" r:id="rId14" display="seo" tooltip="https://elements.envato.com/wordpress/seo"/>
-    <hyperlink ref="A16" r:id="rId15" display="startup" tooltip="https://elements.envato.com/wordpress/startup"/>
+    <hyperlink ref="A2" r:id="rId1" display="audio" tooltip="https://elements.envato.com/wordpress/audio"/>
+    <hyperlink ref="A3" r:id="rId2" display="band" tooltip="https://elements.envato.com/wordpress/band"/>
+    <hyperlink ref="A4" r:id="rId3" display="elementor" tooltip="https://elements.envato.com/wordpress/elementor"/>
+    <hyperlink ref="A5" r:id="rId4" display="music" tooltip="https://elements.envato.com/wordpress/music"/>
+    <hyperlink ref="A6" r:id="rId5" display="music producer" tooltip="https://elements.envato.com/wordpress/music+producer"/>
+    <hyperlink ref="A7" r:id="rId6" display="music records" tooltip="https://elements.envato.com/wordpress/music+records"/>
+    <hyperlink ref="A8" r:id="rId7" display="music studio" tooltip="https://elements.envato.com/wordpress/music+studio"/>
+    <hyperlink ref="A9" r:id="rId8" display="producer" tooltip="https://elements.envato.com/wordpress/producer"/>
+    <hyperlink ref="A10" r:id="rId9" display="record label" tooltip="https://elements.envato.com/wordpress/record+label"/>
+    <hyperlink ref="A11" r:id="rId10" display="recording" tooltip="https://elements.envato.com/wordpress/recording"/>
+    <hyperlink ref="A12" r:id="rId11" display="recording studio" tooltip="https://elements.envato.com/wordpress/recording+studio"/>
+    <hyperlink ref="A13" r:id="rId12" display="sound" tooltip="https://elements.envato.com/wordpress/sound"/>
+    <hyperlink ref="A14" r:id="rId13" display="sound producer" tooltip="https://elements.envato.com/wordpress/sound+producer"/>
+    <hyperlink ref="A15" r:id="rId14" display="sound studio" tooltip="https://elements.envato.com/wordpress/sound+studio"/>
+    <hyperlink ref="A16" r:id="rId15" display="template kit" tooltip="https://elements.envato.com/wordpress/template+kit"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1510,10 +1480,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21904761904762" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1536,110 +1506,108 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C11" si="0">IF(ISBLANK(A2),B2,"")</f>
-        <v>479</v>
+      <c r="B2" s="3">
+        <v>489</v>
+      </c>
+      <c r="C2" s="1">
+        <f>IF(ISBLANK(A2),B2,"")</f>
+        <v>489</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D43" si="1">IF(A2=1,B2,"")</f>
+        <f>IF(A2=1,B2,"")</f>
         <v/>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C43)</f>
-        <v>479,482,483,484,485,486,488</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C79)</f>
+        <v>489,490,491,492,493,495,496,497,498,500,501,502,503,505,506,508,509,510,511,512,513,514,515,517,518,520,523,524,525,526,527,528,529,531,532,533,536,537,538,539,540,541,543,546,547,548,549,550,551,552,553,554,555,557,558,559,560,561,562,563,564,565,566</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="3">
+        <v>490</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C34" si="0">IF(ISBLANK(A3),B3,"")</f>
+        <v>490</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>480</v>
+        <f t="shared" ref="D3:D43" si="1">IF(A3=1,B3,"")</f>
+        <v/>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D43)</f>
-        <v>480,481,487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+        <v>494,499,504,507,516,519,521,522,530</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="3">
+        <v>491</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>491</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="3">
+        <v>492</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>492</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="3">
+        <v>493</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>493</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>481</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>482</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>483</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+      <c r="B7" s="3">
+        <v>494</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>484</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v/>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>485</v>
+      <c r="B8" s="3">
+        <v>495</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>495</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1647,57 +1615,69 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>486</v>
+      <c r="B9" s="3">
+        <v>496</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>496</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="10" spans="2:4">
+      <c r="B10" s="3">
+        <v>497</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>497</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>487</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>488</v>
+      <c r="B11" s="3">
+        <v>498</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>498</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="1"/>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>499</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="3">
+        <v>500</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1705,14 +1685,26 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="3">
+        <v>501</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>501</v>
+      </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="1"/>
+    <row r="15" spans="2:4">
+      <c r="B15" s="3">
+        <v>502</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1720,193 +1712,879 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="3">
+        <v>503</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>504</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="3">
+        <v>505</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="1"/>
+    <row r="19" spans="2:4">
+      <c r="B19" s="3">
+        <v>506</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="1"/>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>507</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="3">
+        <v>508</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="1"/>
+    <row r="22" spans="2:4">
+      <c r="B22" s="3">
+        <v>509</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>509</v>
+      </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="1"/>
+    <row r="23" spans="2:4">
+      <c r="B23" s="3">
+        <v>510</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="1"/>
+    <row r="24" spans="2:4">
+      <c r="B24" s="3">
+        <v>511</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>511</v>
+      </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="1"/>
+    <row r="25" spans="2:4">
+      <c r="B25" s="3">
+        <v>512</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="3:4">
-      <c r="C26" s="1"/>
+    <row r="26" spans="2:4">
+      <c r="B26" s="3">
+        <v>513</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="1"/>
+    <row r="27" spans="2:4">
+      <c r="B27" s="3">
+        <v>514</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>514</v>
+      </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="1"/>
+    <row r="28" spans="2:4">
+      <c r="B28" s="3">
+        <v>515</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>515</v>
+      </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="1"/>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3">
+        <v>516</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="3">
+        <v>517</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>517</v>
+      </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="3:4">
-      <c r="C31" s="1"/>
+    <row r="31" spans="2:4">
+      <c r="B31" s="3">
+        <v>518</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>518</v>
+      </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3">
+        <v>519</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="3">
+        <v>520</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="4:4">
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3">
+        <v>521</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3">
+        <v>522</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" ref="C35:C79" si="2">IF(ISBLANK(A35),B35,"")</f>
+        <v/>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="3">
+        <v>523</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="2"/>
+        <v>523</v>
+      </c>
       <c r="D36" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="2:4">
+      <c r="B37" s="3">
+        <v>524</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="2"/>
+        <v>524</v>
+      </c>
       <c r="D37" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="2:4">
+      <c r="B38" s="3">
+        <v>525</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="2"/>
+        <v>525</v>
+      </c>
       <c r="D38" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="2:4">
+      <c r="B39" s="3">
+        <v>526</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="2"/>
+        <v>526</v>
+      </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="2:4">
+      <c r="B40" s="3">
+        <v>527</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="2"/>
+        <v>527</v>
+      </c>
       <c r="D40" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="2:4">
+      <c r="B41" s="3">
+        <v>528</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="2"/>
+        <v>528</v>
+      </c>
       <c r="D41" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="2:4">
+      <c r="B42" s="3">
+        <v>529</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="2"/>
+        <v>529</v>
+      </c>
       <c r="D42" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="1" t="str">
-        <f t="shared" si="1"/>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
+        <v>530</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="1"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="3">
+        <v>531</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="2"/>
+        <v>531</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" ref="D44:D79" si="3">IF(A44=1,B44,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="3">
+        <v>532</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="2"/>
+        <v>532</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="3">
+        <v>533</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="2"/>
+        <v>533</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3">
+        <v>534</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="3"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3">
+        <v>535</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="3"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="3">
+        <v>536</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="2"/>
+        <v>536</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="3">
+        <v>537</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="2"/>
+        <v>537</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="3">
+        <v>538</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="2"/>
+        <v>538</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="3">
+        <v>539</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="2"/>
+        <v>539</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="3">
+        <v>540</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="3">
+        <v>541</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="2"/>
+        <v>541</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3">
+        <v>542</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="3"/>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="3">
+        <v>543</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="2"/>
+        <v>543</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3">
+        <v>544</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="3"/>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3">
+        <v>545</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="3"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="3">
+        <v>546</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="2"/>
+        <v>546</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="3">
+        <v>547</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="2"/>
+        <v>547</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="3">
+        <v>548</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="2"/>
+        <v>548</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="3">
+        <v>549</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="2"/>
+        <v>549</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="3">
+        <v>550</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="3">
+        <v>551</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="2"/>
+        <v>551</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="3">
+        <v>552</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="2"/>
+        <v>552</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="3">
+        <v>553</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="2"/>
+        <v>553</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="3">
+        <v>554</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="2"/>
+        <v>554</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="3">
+        <v>555</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="2"/>
+        <v>555</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3">
+        <v>556</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="3"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="3">
+        <v>557</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="2"/>
+        <v>557</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="3">
+        <v>558</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="2"/>
+        <v>558</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="3">
+        <v>559</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="2"/>
+        <v>559</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="3">
+        <v>560</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="3">
+        <v>561</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="2"/>
+        <v>561</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="3">
+        <v>562</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="2"/>
+        <v>562</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="3">
+        <v>563</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="2"/>
+        <v>563</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="3">
+        <v>564</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="2"/>
+        <v>564</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="3">
+        <v>565</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="2"/>
+        <v>565</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="3">
+        <v>566</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="2"/>
+        <v>566</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D43">
+  <autoFilter ref="A1:D79">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1936,43 +2614,43 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1980,7 +2658,7 @@
         <v>44628</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2">
         <v>44628</v>
@@ -1991,7 +2669,7 @@
         <v>44659</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>44659</v>
@@ -2002,13 +2680,13 @@
         <v>44720</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>44720</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2016,13 +2694,13 @@
         <v>44750</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>44750</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2048,15 +2726,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>46</v>
@@ -2064,7 +2742,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>26</v>
@@ -2072,7 +2750,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
         <v>120</v>
@@ -2080,7 +2758,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -21,51 +21,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
-  <si>
-    <t>audio</t>
-  </si>
-  <si>
-    <t>band</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>business coach</t>
+  </si>
+  <si>
+    <t>coach</t>
+  </si>
+  <si>
+    <t>coaching online</t>
+  </si>
+  <si>
+    <t>consulting</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>education</t>
   </si>
   <si>
     <t>elementor</t>
   </si>
   <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>music producer</t>
-  </si>
-  <si>
-    <t>music records</t>
-  </si>
-  <si>
-    <t>music studio</t>
-  </si>
-  <si>
-    <t>producer</t>
-  </si>
-  <si>
-    <t>record label</t>
-  </si>
-  <si>
-    <t>recording</t>
-  </si>
-  <si>
-    <t>recording studio</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>sound producer</t>
-  </si>
-  <si>
-    <t>sound studio</t>
-  </si>
-  <si>
-    <t>template kit</t>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>life coach</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>mentorship</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>trainer</t>
   </si>
   <si>
     <t>status</t>
@@ -142,9 +139,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -156,7 +153,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,15 +187,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,16 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +234,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -239,6 +252,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,29 +280,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,16 +294,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,19 +317,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +395,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,43 +455,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,103 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,11 +511,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,17 +574,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,11 +602,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,138 +613,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,11 +1097,11 @@
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
-        <v>Audio</v>
+        <v>Business</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),B2:B20)</f>
-        <v>Audio,Band,Elementor,Music,Music Producer,Music Records,Music Studio,Producer,Record Label,Recording,Recording Studio,Sound,Sound Producer,Sound Studio,Template Kit</v>
+        <v>Business,Business Coach,Coach,Coaching Online,Consulting,Course,Education,Elementor,Learning,Life Coach,Marketing,Mentorship,Teacher,Trainer</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1113,7 +1110,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Band</v>
+        <v>Business Coach</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1122,7 +1119,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Elementor</v>
+        <v>Coach</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>E4&amp;","</f>
@@ -1135,7 +1132,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Music</v>
+        <v>Coaching Online</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1144,7 +1141,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Music Producer</v>
+        <v>Consulting</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1153,7 +1150,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Music Records</v>
+        <v>Course</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1162,7 +1159,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Music Studio</v>
+        <v>Education</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1171,7 +1168,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Producer</v>
+        <v>Elementor</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1180,7 +1177,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Record Label</v>
+        <v>Learning</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1189,7 +1186,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Recording</v>
+        <v>Life Coach</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1198,7 +1195,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Recording Studio</v>
+        <v>Marketing</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1207,7 +1204,7 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sound</v>
+        <v>Mentorship</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1216,7 +1213,7 @@
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sound Producer</v>
+        <v>Teacher</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1225,16 +1222,13 @@
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sound Studio</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
+        <v>Trainer</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Template Kit</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1455,21 +1449,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="audio" tooltip="https://elements.envato.com/wordpress/audio"/>
-    <hyperlink ref="A3" r:id="rId2" display="band" tooltip="https://elements.envato.com/wordpress/band"/>
-    <hyperlink ref="A4" r:id="rId3" display="elementor" tooltip="https://elements.envato.com/wordpress/elementor"/>
-    <hyperlink ref="A5" r:id="rId4" display="music" tooltip="https://elements.envato.com/wordpress/music"/>
-    <hyperlink ref="A6" r:id="rId5" display="music producer" tooltip="https://elements.envato.com/wordpress/music+producer"/>
-    <hyperlink ref="A7" r:id="rId6" display="music records" tooltip="https://elements.envato.com/wordpress/music+records"/>
-    <hyperlink ref="A8" r:id="rId7" display="music studio" tooltip="https://elements.envato.com/wordpress/music+studio"/>
-    <hyperlink ref="A9" r:id="rId8" display="producer" tooltip="https://elements.envato.com/wordpress/producer"/>
-    <hyperlink ref="A10" r:id="rId9" display="record label" tooltip="https://elements.envato.com/wordpress/record+label"/>
-    <hyperlink ref="A11" r:id="rId10" display="recording" tooltip="https://elements.envato.com/wordpress/recording"/>
-    <hyperlink ref="A12" r:id="rId11" display="recording studio" tooltip="https://elements.envato.com/wordpress/recording+studio"/>
-    <hyperlink ref="A13" r:id="rId12" display="sound" tooltip="https://elements.envato.com/wordpress/sound"/>
-    <hyperlink ref="A14" r:id="rId13" display="sound producer" tooltip="https://elements.envato.com/wordpress/sound+producer"/>
-    <hyperlink ref="A15" r:id="rId14" display="sound studio" tooltip="https://elements.envato.com/wordpress/sound+studio"/>
-    <hyperlink ref="A16" r:id="rId15" display="template kit" tooltip="https://elements.envato.com/wordpress/template+kit"/>
+    <hyperlink ref="A2" r:id="rId1" display="business" tooltip="https://elements.envato.com/wordpress/business"/>
+    <hyperlink ref="A3" r:id="rId2" display="business coach" tooltip="https://elements.envato.com/wordpress/business+coach"/>
+    <hyperlink ref="A4" r:id="rId3" display="coach" tooltip="https://elements.envato.com/wordpress/coach"/>
+    <hyperlink ref="A5" r:id="rId4" display="coaching online" tooltip="https://elements.envato.com/wordpress/coaching+online"/>
+    <hyperlink ref="A6" r:id="rId5" display="consulting" tooltip="https://elements.envato.com/wordpress/consulting"/>
+    <hyperlink ref="A7" r:id="rId6" display="course" tooltip="https://elements.envato.com/wordpress/course"/>
+    <hyperlink ref="A8" r:id="rId7" display="education" tooltip="https://elements.envato.com/wordpress/education"/>
+    <hyperlink ref="A9" r:id="rId8" display="elementor" tooltip="https://elements.envato.com/wordpress/elementor"/>
+    <hyperlink ref="A10" r:id="rId9" display="learning" tooltip="https://elements.envato.com/wordpress/learning"/>
+    <hyperlink ref="A11" r:id="rId10" display="life coach" tooltip="https://elements.envato.com/wordpress/life+coach"/>
+    <hyperlink ref="A12" r:id="rId11" display="marketing" tooltip="https://elements.envato.com/wordpress/marketing"/>
+    <hyperlink ref="A13" r:id="rId12" display="mentorship" tooltip="https://elements.envato.com/wordpress/mentorship"/>
+    <hyperlink ref="A14" r:id="rId13" display="teacher" tooltip="https://elements.envato.com/wordpress/teacher"/>
+    <hyperlink ref="A15" r:id="rId14" display="trainer" tooltip="https://elements.envato.com/wordpress/trainer"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1493,16 +1486,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -1518,7 +1511,7 @@
         <v/>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C79)</f>
@@ -1539,7 +1532,7 @@
         <v/>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D43)</f>
@@ -2611,46 +2604,46 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2658,7 +2651,7 @@
         <v>44628</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>44628</v>
@@ -2669,7 +2662,7 @@
         <v>44659</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>44659</v>
@@ -2680,13 +2673,13 @@
         <v>44720</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>44720</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2694,13 +2687,13 @@
         <v>44750</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>44750</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2726,15 +2719,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>46</v>
@@ -2742,7 +2735,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
         <v>26</v>
@@ -2750,7 +2743,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>120</v>
@@ -2758,7 +2751,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -21,48 +21,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>business coach</t>
-  </si>
-  <si>
-    <t>coach</t>
-  </si>
-  <si>
-    <t>coaching online</t>
-  </si>
-  <si>
-    <t>consulting</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>elementor</t>
-  </si>
-  <si>
-    <t>learning</t>
-  </si>
-  <si>
-    <t>life coach</t>
-  </si>
-  <si>
-    <t>marketing</t>
-  </si>
-  <si>
-    <t>mentorship</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
-    <t>trainer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>interior design</t>
+  </si>
+  <si>
+    <t>wallpaper</t>
+  </si>
+  <si>
+    <t>painting</t>
+  </si>
+  <si>
+    <t>home decor</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>decorating</t>
   </si>
   <si>
     <t>status</t>
@@ -141,8 +135,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -150,6 +144,34 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -162,15 +184,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,29 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,20 +235,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -252,13 +246,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,9 +265,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,7 +281,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,13 +301,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,187 +311,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +502,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,30 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -581,21 +590,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,138 +607,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,11 +1091,11 @@
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
-        <v>Business</v>
+        <v>Company</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),B2:B20)</f>
-        <v>Business,Business Coach,Coach,Coaching Online,Consulting,Course,Education,Elementor,Learning,Life Coach,Marketing,Mentorship,Teacher,Trainer</v>
+        <v>Company,Design,Modern,Paint,Service,Website,Interior Design,Wallpaper,Painting,Home Decor,Pricing,Decorating</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1110,7 +1104,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Business Coach</v>
+        <v>Design</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1119,7 +1113,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coach</v>
+        <v>Modern</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>E4&amp;","</f>
@@ -1132,7 +1126,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Coaching Online</v>
+        <v>Paint</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1141,7 +1135,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Consulting</v>
+        <v>Service</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1150,7 +1144,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Course</v>
+        <v>Website</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1159,7 +1153,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Education</v>
+        <v>Interior Design</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1168,7 +1162,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Elementor</v>
+        <v>Wallpaper</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1177,7 +1171,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Learning</v>
+        <v>Painting</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1186,7 +1180,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Life Coach</v>
+        <v>Home Decor</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1195,7 +1189,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Marketing</v>
+        <v>Pricing</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1204,25 +1198,19 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Mentorship</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
+        <v>Decorating</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Teacher</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Trainer</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -1449,20 +1437,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="business" tooltip="https://elements.envato.com/wordpress/business"/>
-    <hyperlink ref="A3" r:id="rId2" display="business coach" tooltip="https://elements.envato.com/wordpress/business+coach"/>
-    <hyperlink ref="A4" r:id="rId3" display="coach" tooltip="https://elements.envato.com/wordpress/coach"/>
-    <hyperlink ref="A5" r:id="rId4" display="coaching online" tooltip="https://elements.envato.com/wordpress/coaching+online"/>
-    <hyperlink ref="A6" r:id="rId5" display="consulting" tooltip="https://elements.envato.com/wordpress/consulting"/>
-    <hyperlink ref="A7" r:id="rId6" display="course" tooltip="https://elements.envato.com/wordpress/course"/>
-    <hyperlink ref="A8" r:id="rId7" display="education" tooltip="https://elements.envato.com/wordpress/education"/>
-    <hyperlink ref="A9" r:id="rId8" display="elementor" tooltip="https://elements.envato.com/wordpress/elementor"/>
-    <hyperlink ref="A10" r:id="rId9" display="learning" tooltip="https://elements.envato.com/wordpress/learning"/>
-    <hyperlink ref="A11" r:id="rId10" display="life coach" tooltip="https://elements.envato.com/wordpress/life+coach"/>
-    <hyperlink ref="A12" r:id="rId11" display="marketing" tooltip="https://elements.envato.com/wordpress/marketing"/>
-    <hyperlink ref="A13" r:id="rId12" display="mentorship" tooltip="https://elements.envato.com/wordpress/mentorship"/>
-    <hyperlink ref="A14" r:id="rId13" display="teacher" tooltip="https://elements.envato.com/wordpress/teacher"/>
-    <hyperlink ref="A15" r:id="rId14" display="trainer" tooltip="https://elements.envato.com/wordpress/trainer"/>
+    <hyperlink ref="A2" r:id="rId1" display="company" tooltip="https://elements.envato.com/wordpress/company"/>
+    <hyperlink ref="A3" r:id="rId2" display="design" tooltip="https://elements.envato.com/wordpress/design"/>
+    <hyperlink ref="A4" r:id="rId3" display="modern" tooltip="https://elements.envato.com/wordpress/modern"/>
+    <hyperlink ref="A5" r:id="rId4" display="paint" tooltip="https://elements.envato.com/wordpress/paint"/>
+    <hyperlink ref="A6" r:id="rId5" display="service" tooltip="https://elements.envato.com/wordpress/service"/>
+    <hyperlink ref="A7" r:id="rId6" display="website" tooltip="https://elements.envato.com/wordpress/website"/>
+    <hyperlink ref="A8" r:id="rId7" display="interior design" tooltip="https://elements.envato.com/wordpress/interior+design"/>
+    <hyperlink ref="A9" r:id="rId8" display="wallpaper" tooltip="https://elements.envato.com/wordpress/wallpaper"/>
+    <hyperlink ref="A10" r:id="rId9" display="painting" tooltip="https://elements.envato.com/wordpress/painting"/>
+    <hyperlink ref="A11" r:id="rId10" display="home decor" tooltip="https://elements.envato.com/wordpress/home+decor"/>
+    <hyperlink ref="A12" r:id="rId11" display="pricing" tooltip="https://elements.envato.com/wordpress/pricing"/>
+    <hyperlink ref="A13" r:id="rId12" display="decorating" tooltip="https://elements.envato.com/wordpress/decorating"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1475,7 +1461,7 @@
   <sheetPr/>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1486,16 +1472,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -1511,7 +1497,7 @@
         <v/>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C79)</f>
@@ -1532,7 +1518,7 @@
         <v/>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D43)</f>
@@ -2604,46 +2590,46 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2651,7 +2637,7 @@
         <v>44628</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>44628</v>
@@ -2662,7 +2648,7 @@
         <v>44659</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>44659</v>
@@ -2673,13 +2659,13 @@
         <v>44720</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>44720</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2687,13 +2673,13 @@
         <v>44750</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>44750</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2719,15 +2705,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1">
         <v>46</v>
@@ -2735,7 +2721,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>26</v>
@@ -2743,7 +2729,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>120</v>
@@ -2751,7 +2737,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -21,42 +21,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>modern</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>interior design</t>
-  </si>
-  <si>
-    <t>wallpaper</t>
-  </si>
-  <si>
-    <t>painting</t>
-  </si>
-  <si>
-    <t>home decor</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>decorating</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+  <si>
+    <t>aikido</t>
+  </si>
+  <si>
+    <t>boxing</t>
+  </si>
+  <si>
+    <t>dojo</t>
+  </si>
+  <si>
+    <t>fitness</t>
+  </si>
+  <si>
+    <t>judo</t>
+  </si>
+  <si>
+    <t>karate</t>
+  </si>
+  <si>
+    <t>karate school</t>
+  </si>
+  <si>
+    <t>martial arts</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>sport school</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>taekwondo</t>
+  </si>
+  <si>
+    <t>training</t>
   </si>
   <si>
     <t>status</t>
@@ -134,9 +137,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -146,32 +149,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -184,20 +164,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,9 +206,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,22 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +289,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -311,31 +314,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,91 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,55 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,60 +505,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,6 +534,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -594,11 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,138 +610,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,11 +1094,11 @@
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
-        <v>Company</v>
+        <v>Aikido</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),B2:B20)</f>
-        <v>Company,Design,Modern,Paint,Service,Website,Interior Design,Wallpaper,Painting,Home Decor,Pricing,Decorating</v>
+        <v>Aikido,Boxing,Dojo,Fitness,Judo,Karate,Karate School,Martial Arts,Sport,Sport School,Sports,Taekwondo,Training</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1104,7 +1107,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Design</v>
+        <v>Boxing</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1113,7 +1116,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Modern</v>
+        <v>Dojo</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>E4&amp;","</f>
@@ -1126,7 +1129,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Paint</v>
+        <v>Fitness</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1135,7 +1138,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Service</v>
+        <v>Judo</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1144,7 +1147,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Website</v>
+        <v>Karate</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1153,7 +1156,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Interior Design</v>
+        <v>Karate School</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1162,7 +1165,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Wallpaper</v>
+        <v>Martial Arts</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1171,7 +1174,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Painting</v>
+        <v>Sport</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1180,7 +1183,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Home Decor</v>
+        <v>Sport School</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1189,7 +1192,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Pricing</v>
+        <v>Sports</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1198,13 +1201,16 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Decorating</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
+        <v>Taekwondo</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Training</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -1437,18 +1443,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="company" tooltip="https://elements.envato.com/wordpress/company"/>
-    <hyperlink ref="A3" r:id="rId2" display="design" tooltip="https://elements.envato.com/wordpress/design"/>
-    <hyperlink ref="A4" r:id="rId3" display="modern" tooltip="https://elements.envato.com/wordpress/modern"/>
-    <hyperlink ref="A5" r:id="rId4" display="paint" tooltip="https://elements.envato.com/wordpress/paint"/>
-    <hyperlink ref="A6" r:id="rId5" display="service" tooltip="https://elements.envato.com/wordpress/service"/>
-    <hyperlink ref="A7" r:id="rId6" display="website" tooltip="https://elements.envato.com/wordpress/website"/>
-    <hyperlink ref="A8" r:id="rId7" display="interior design" tooltip="https://elements.envato.com/wordpress/interior+design"/>
-    <hyperlink ref="A9" r:id="rId8" display="wallpaper" tooltip="https://elements.envato.com/wordpress/wallpaper"/>
-    <hyperlink ref="A10" r:id="rId9" display="painting" tooltip="https://elements.envato.com/wordpress/painting"/>
-    <hyperlink ref="A11" r:id="rId10" display="home decor" tooltip="https://elements.envato.com/wordpress/home+decor"/>
-    <hyperlink ref="A12" r:id="rId11" display="pricing" tooltip="https://elements.envato.com/wordpress/pricing"/>
-    <hyperlink ref="A13" r:id="rId12" display="decorating" tooltip="https://elements.envato.com/wordpress/decorating"/>
+    <hyperlink ref="A2" r:id="rId1" display="aikido" tooltip="https://elements.envato.com/wordpress/aikido"/>
+    <hyperlink ref="A3" r:id="rId2" display="boxing" tooltip="https://elements.envato.com/wordpress/boxing"/>
+    <hyperlink ref="A4" r:id="rId3" display="dojo" tooltip="https://elements.envato.com/wordpress/dojo"/>
+    <hyperlink ref="A5" r:id="rId4" display="fitness" tooltip="https://elements.envato.com/wordpress/fitness"/>
+    <hyperlink ref="A6" r:id="rId5" display="judo" tooltip="https://elements.envato.com/wordpress/judo"/>
+    <hyperlink ref="A7" r:id="rId6" display="karate" tooltip="https://elements.envato.com/wordpress/karate"/>
+    <hyperlink ref="A8" r:id="rId7" display="karate school" tooltip="https://elements.envato.com/wordpress/karate+school"/>
+    <hyperlink ref="A9" r:id="rId8" display="martial arts" tooltip="https://elements.envato.com/wordpress/martial+arts"/>
+    <hyperlink ref="A10" r:id="rId9" display="sport" tooltip="https://elements.envato.com/wordpress/sport"/>
+    <hyperlink ref="A11" r:id="rId10" display="sport school" tooltip="https://elements.envato.com/wordpress/sport+school"/>
+    <hyperlink ref="A12" r:id="rId11" display="sports" tooltip="https://elements.envato.com/wordpress/sports"/>
+    <hyperlink ref="A13" r:id="rId12" display="taekwondo" tooltip="https://elements.envato.com/wordpress/taekwondo"/>
+    <hyperlink ref="A14" r:id="rId13" display="training" tooltip="https://elements.envato.com/wordpress/training"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1472,16 +1479,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -1497,7 +1504,7 @@
         <v/>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C79)</f>
@@ -1518,7 +1525,7 @@
         <v/>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D43)</f>
@@ -2590,46 +2597,46 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2637,7 +2644,7 @@
         <v>44628</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>44628</v>
@@ -2648,7 +2655,7 @@
         <v>44659</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>44659</v>
@@ -2659,13 +2666,13 @@
         <v>44720</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
         <v>44720</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2673,13 +2680,13 @@
         <v>44750</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>44750</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2705,15 +2712,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>46</v>
@@ -2721,7 +2728,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>26</v>
@@ -2729,7 +2736,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1">
         <v>120</v>
@@ -2737,7 +2744,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500"/>
+    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tags" sheetId="1" r:id="rId1"/>
@@ -136,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -147,6 +147,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -162,7 +169,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,43 +178,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +192,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -230,16 +216,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,14 +269,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -304,6 +282,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -311,18 +311,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -338,13 +326,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,19 +362,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,13 +398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,55 +428,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,19 +470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,19 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +505,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,15 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -552,15 +552,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,17 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -605,143 +585,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,7 +1082,7 @@
   <sheetPr/>
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1466,10 +1466,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21904761904762" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1493,11 +1493,11 @@
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="3">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="C2" s="1">
         <f>IF(ISBLANK(A2),B2,"")</f>
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IF(A2=1,B2,"")</f>
@@ -1508,50 +1508,55 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C79)</f>
-        <v>489,490,491,492,493,495,496,497,498,500,501,502,503,505,506,508,509,510,511,512,513,514,515,517,518,520,523,524,525,526,527,528,529,531,532,533,536,537,538,539,540,541,543,546,547,548,549,550,551,552,553,554,555,557,558,559,560,561,562,563,564,565,566</v>
+        <v>567,570,571,572,573,574,575,576,577,578,579,580,581,583,584,585,587,588,589,590,591,592,593,594,595,597,598,599,600,601,602,604,606,607,608,609,610,611,612,613,614,615,617,618,619,620,621,622,623,624,627,629,630,632,634,635,637,638,639,640,641,642,643,644</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
       <c r="B3" s="3">
-        <v>490</v>
-      </c>
-      <c r="C3" s="1">
+        <v>568</v>
+      </c>
+      <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C34" si="0">IF(ISBLANK(A3),B3,"")</f>
-        <v>490</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D43" si="1">IF(A3=1,B3,"")</f>
-        <v/>
+        <v/>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D13" si="1">IF(A3=1,B3,"")</f>
+        <v>568</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D43)</f>
-        <v>494,499,504,507,516,519,521,522,530</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>568,569,582,586,596,603,605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="3">
-        <v>491</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>491</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>569</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1560,40 +1565,37 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="3">
-        <v>493</v>
+        <v>571</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>571</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1</v>
-      </c>
+    <row r="7" spans="2:4">
       <c r="B7" s="3">
-        <v>494</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>494</v>
+        <v>572</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>572</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3">
-        <v>495</v>
+        <v>573</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>495</v>
+        <v>573</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1602,11 +1604,11 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="3">
-        <v>496</v>
+        <v>574</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>496</v>
+        <v>574</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1615,11 +1617,11 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="3">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1629,40 +1631,37 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="3">
-        <v>498</v>
+        <v>576</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>576</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>1</v>
-      </c>
+    <row r="12" spans="2:4">
       <c r="B12" s="3">
-        <v>499</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>499</v>
+        <v>577</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>577</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="3">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1672,41 +1671,41 @@
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="3">
-        <v>501</v>
+        <v>579</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>501</v>
+        <v>579</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D14:D45" si="2">IF(A14=1,B14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="3">
-        <v>502</v>
+        <v>580</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>502</v>
+        <v>580</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="3">
-        <v>503</v>
+        <v>581</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>581</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1715,857 +1714,1327 @@
         <v>1</v>
       </c>
       <c r="B17" s="3">
-        <v>504</v>
+        <v>582</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
-        <v>504</v>
+        <f t="shared" si="2"/>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="3">
-        <v>505</v>
+        <v>583</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>505</v>
+        <v>583</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="3">
-        <v>506</v>
+        <v>584</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>584</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="3">
+        <v>585</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B20" s="3">
-        <v>507</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="1"/>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
       <c r="B21" s="3">
-        <v>508</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>508</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>586</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3">
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3">
-        <v>510</v>
+        <v>588</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>588</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3">
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3">
-        <v>515</v>
+        <v>593</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>515</v>
+        <v>593</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>1</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" s="3">
-        <v>516</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="1"/>
-        <v>516</v>
+        <v>594</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>594</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3">
-        <v>517</v>
+        <v>595</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>517</v>
+        <v>595</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1</v>
+      </c>
       <c r="B31" s="3">
-        <v>518</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="0"/>
-        <v>518</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>1</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
       <c r="B32" s="3">
-        <v>519</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="1"/>
-        <v>519</v>
+        <v>597</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>597</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3">
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>1</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" s="3">
-        <v>521</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="1"/>
-        <v>521</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>1</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>599</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35" s="3">
-        <v>522</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" ref="C35:C79" si="2">IF(ISBLANK(A35),B35,"")</f>
-        <v/>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="1"/>
-        <v>522</v>
+        <v>600</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" ref="C35:C79" si="3">IF(ISBLANK(A35),B35,"")</f>
+        <v>600</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="3"/>
+        <v>601</v>
+      </c>
+      <c r="D36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>523</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="3"/>
+        <v>602</v>
+      </c>
+      <c r="D37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>524</v>
-      </c>
-      <c r="D37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1</v>
+      </c>
       <c r="B38" s="3">
-        <v>525</v>
-      </c>
-      <c r="C38" s="1">
+        <v>603</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D38" s="1">
         <f t="shared" si="2"/>
-        <v>525</v>
-      </c>
-      <c r="D38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3">
-        <v>526</v>
+        <v>604</v>
       </c>
       <c r="C39" s="1">
+        <f t="shared" si="3"/>
+        <v>604</v>
+      </c>
+      <c r="D39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>526</v>
-      </c>
-      <c r="D39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1</v>
+      </c>
       <c r="B40" s="3">
-        <v>527</v>
-      </c>
-      <c r="C40" s="1">
+        <v>605</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D40" s="1">
         <f t="shared" si="2"/>
-        <v>527</v>
-      </c>
-      <c r="D40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="3">
-        <v>528</v>
+        <v>606</v>
       </c>
       <c r="C41" s="1">
+        <f t="shared" si="3"/>
+        <v>606</v>
+      </c>
+      <c r="D41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>528</v>
-      </c>
-      <c r="D41" s="1" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="3">
-        <v>529</v>
+        <v>607</v>
       </c>
       <c r="C42" s="1">
+        <f t="shared" si="3"/>
+        <v>607</v>
+      </c>
+      <c r="D42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>529</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
       <c r="B43" s="3">
-        <v>530</v>
-      </c>
-      <c r="C43" s="1" t="str">
+        <v>608</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="3"/>
+        <v>608</v>
+      </c>
+      <c r="D43" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="1"/>
-        <v>530</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="3">
-        <v>531</v>
+        <v>609</v>
       </c>
       <c r="C44" s="1">
+        <f t="shared" si="3"/>
+        <v>609</v>
+      </c>
+      <c r="D44" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>531</v>
-      </c>
-      <c r="D44" s="1" t="str">
-        <f t="shared" ref="D44:D79" si="3">IF(A44=1,B44,"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3">
-        <v>532</v>
+        <v>610</v>
       </c>
       <c r="C45" s="1">
+        <f t="shared" si="3"/>
+        <v>610</v>
+      </c>
+      <c r="D45" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>532</v>
-      </c>
-      <c r="D45" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="3">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="2"/>
-        <v>533</v>
+        <f t="shared" si="3"/>
+        <v>611</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>1</v>
-      </c>
+        <f t="shared" ref="D46:D77" si="4">IF(A46=1,B46,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
       <c r="B47" s="3">
-        <v>534</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="3"/>
-        <v>534</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>1</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="3"/>
+        <v>612</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
       <c r="B48" s="3">
-        <v>535</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="3"/>
-        <v>535</v>
+        <v>613</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="3"/>
+        <v>613</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3">
-        <v>536</v>
+        <v>614</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="2"/>
-        <v>536</v>
+        <f t="shared" si="3"/>
+        <v>614</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3">
-        <v>537</v>
+        <v>615</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="2"/>
-        <v>537</v>
+        <f t="shared" si="3"/>
+        <v>615</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>1</v>
+      </c>
       <c r="B51" s="3">
-        <v>538</v>
-      </c>
-      <c r="C51" s="1">
-        <f t="shared" si="2"/>
-        <v>538</v>
-      </c>
-      <c r="D51" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>616</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="4"/>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="3">
-        <v>539</v>
+        <v>617</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="2"/>
-        <v>539</v>
+        <f t="shared" si="3"/>
+        <v>617</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="3">
-        <v>540</v>
+        <v>618</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="2"/>
-        <v>540</v>
+        <f t="shared" si="3"/>
+        <v>618</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="2"/>
-        <v>541</v>
+        <f t="shared" si="3"/>
+        <v>619</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>1</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
       <c r="B55" s="3">
-        <v>542</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="3"/>
-        <v>542</v>
+        <v>620</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="3"/>
+        <v>620</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="3">
-        <v>543</v>
+        <v>621</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="2"/>
-        <v>543</v>
+        <f t="shared" si="3"/>
+        <v>621</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>1</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
       <c r="B57" s="3">
-        <v>544</v>
-      </c>
-      <c r="C57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="3"/>
-        <v>544</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>1</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="3"/>
+        <v>622</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
       <c r="B58" s="3">
-        <v>545</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="3"/>
-        <v>545</v>
+        <v>623</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="3"/>
+        <v>623</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="3">
-        <v>546</v>
+        <v>624</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="2"/>
-        <v>546</v>
+        <f t="shared" si="3"/>
+        <v>624</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>1</v>
+      </c>
       <c r="B60" s="3">
-        <v>547</v>
-      </c>
-      <c r="C60" s="1">
-        <f t="shared" si="2"/>
-        <v>547</v>
-      </c>
-      <c r="D60" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
+        <v>625</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="4"/>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>1</v>
+      </c>
       <c r="B61" s="3">
-        <v>548</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" si="2"/>
-        <v>548</v>
-      </c>
-      <c r="D61" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>626</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="4"/>
+        <v>626</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="3">
-        <v>549</v>
+        <v>627</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="2"/>
-        <v>549</v>
+        <f t="shared" si="3"/>
+        <v>627</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>1</v>
+      </c>
       <c r="B63" s="3">
-        <v>550</v>
-      </c>
-      <c r="C63" s="1">
-        <f t="shared" si="2"/>
-        <v>550</v>
-      </c>
-      <c r="D63" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>628</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="4"/>
+        <v>628</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="3">
-        <v>551</v>
+        <v>629</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="2"/>
-        <v>551</v>
+        <f t="shared" si="3"/>
+        <v>629</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="3">
-        <v>552</v>
+        <v>630</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="2"/>
-        <v>552</v>
+        <f t="shared" si="3"/>
+        <v>630</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>1</v>
+      </c>
       <c r="B66" s="3">
-        <v>553</v>
-      </c>
-      <c r="C66" s="1">
-        <f t="shared" si="2"/>
-        <v>553</v>
-      </c>
-      <c r="D66" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>631</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="4"/>
+        <v>631</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="3">
-        <v>554</v>
+        <v>632</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="2"/>
-        <v>554</v>
+        <f t="shared" si="3"/>
+        <v>632</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>1</v>
+      </c>
       <c r="B68" s="3">
-        <v>555</v>
-      </c>
-      <c r="C68" s="1">
-        <f t="shared" si="2"/>
-        <v>555</v>
-      </c>
-      <c r="D68" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>1</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="4"/>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
       <c r="B69" s="3">
-        <v>556</v>
-      </c>
-      <c r="C69" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D69" s="1">
-        <f t="shared" si="3"/>
-        <v>556</v>
+        <v>634</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="3"/>
+        <v>634</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="3">
-        <v>557</v>
+        <v>635</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="2"/>
-        <v>557</v>
+        <f t="shared" si="3"/>
+        <v>635</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>1</v>
+      </c>
       <c r="B71" s="3">
-        <v>558</v>
-      </c>
-      <c r="C71" s="1">
-        <f t="shared" si="2"/>
-        <v>558</v>
-      </c>
-      <c r="D71" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>636</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="4"/>
+        <v>636</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="3">
-        <v>559</v>
+        <v>637</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="2"/>
-        <v>559</v>
+        <f t="shared" si="3"/>
+        <v>637</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="3">
-        <v>560</v>
+        <v>638</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="2"/>
-        <v>560</v>
+        <f t="shared" si="3"/>
+        <v>638</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="3">
-        <v>561</v>
+        <v>639</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="2"/>
-        <v>561</v>
+        <f t="shared" si="3"/>
+        <v>639</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="3">
-        <v>562</v>
+        <v>640</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="2"/>
-        <v>562</v>
+        <f t="shared" si="3"/>
+        <v>640</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="3">
-        <v>563</v>
+        <v>641</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="2"/>
-        <v>563</v>
+        <f t="shared" si="3"/>
+        <v>641</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="3">
-        <v>564</v>
+        <v>642</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="2"/>
-        <v>564</v>
+        <f t="shared" si="3"/>
+        <v>642</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="3">
-        <v>565</v>
+        <v>643</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="2"/>
-        <v>565</v>
+        <f t="shared" si="3"/>
+        <v>643</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D78:D109" si="5">IF(A78=1,B78,"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="3">
-        <v>566</v>
+        <v>644</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="2"/>
-        <v>566</v>
+        <f t="shared" si="3"/>
+        <v>644</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="3">
+        <v>645</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" ref="C80:C114" si="6">IF(ISBLANK(A80),B80,"")</f>
+        <v>645</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="3">
+        <v>646</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="6"/>
+        <v>646</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" s="3">
+        <v>647</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="5"/>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="3">
+        <v>648</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="6"/>
+        <v>648</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" s="3">
+        <v>649</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="5"/>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="3">
+        <v>650</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="6"/>
+        <v>650</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="3">
+        <v>651</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="6"/>
+        <v>651</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="3">
+        <v>652</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="6"/>
+        <v>652</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" s="3">
+        <v>653</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="5"/>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="3">
+        <v>654</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="6"/>
+        <v>654</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" s="3">
+        <v>655</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="5"/>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="3">
+        <v>656</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="6"/>
+        <v>656</v>
+      </c>
+      <c r="D91" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="3">
+        <v>657</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="6"/>
+        <v>657</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="3">
+        <v>658</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="6"/>
+        <v>658</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" s="3">
+        <v>659</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="5"/>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="3">
+        <v>660</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="6"/>
+        <v>660</v>
+      </c>
+      <c r="D95" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="3">
+        <v>661</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="6"/>
+        <v>661</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="3">
+        <v>662</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="6"/>
+        <v>662</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" s="3">
+        <v>663</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="5"/>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="3">
+        <v>664</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="6"/>
+        <v>664</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="3">
+        <v>665</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="6"/>
+        <v>665</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="3">
+        <v>666</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="6"/>
+        <v>666</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="3">
+        <v>667</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="6"/>
+        <v>667</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="3">
+        <v>668</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="6"/>
+        <v>668</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="3">
+        <v>669</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="6"/>
+        <v>669</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="3">
+        <v>670</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="6"/>
+        <v>670</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="3">
+        <v>671</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="6"/>
+        <v>671</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="3">
+        <v>672</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="6"/>
+        <v>672</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="3">
+        <v>673</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="6"/>
+        <v>673</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="3">
+        <v>674</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="6"/>
+        <v>674</v>
+      </c>
+      <c r="D109" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="3">
+        <v>675</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="6"/>
+        <v>675</v>
+      </c>
+      <c r="D110" s="1" t="str">
+        <f>IF(A110=1,B110,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="3">
+        <v>676</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="6"/>
+        <v>676</v>
+      </c>
+      <c r="D111" s="1" t="str">
+        <f>IF(A111=1,B111,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="3">
+        <v>677</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="6"/>
+        <v>677</v>
+      </c>
+      <c r="D112" s="1" t="str">
+        <f>IF(A112=1,B112,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="3">
+        <v>678</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="6"/>
+        <v>678</v>
+      </c>
+      <c r="D113" s="1" t="str">
+        <f>IF(A113=1,B113,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="3">
+        <v>679</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="6"/>
+        <v>679</v>
+      </c>
+      <c r="D114" s="1" t="str">
+        <f>IF(A114=1,B114,"")</f>
         <v/>
       </c>
     </row>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Rekap" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Urutan!$A$1:$D$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Urutan!$A$1:$D$114</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -136,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -150,9 +150,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,31 +177,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,24 +214,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,11 +244,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,15 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,28 +304,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -314,25 +314,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,151 +446,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,8 +511,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,52 +581,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,8 +589,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,138 +610,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1493,11 +1493,11 @@
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="3">
-        <v>567</v>
+        <v>680</v>
       </c>
       <c r="C2" s="1">
         <f>IF(ISBLANK(A2),B2,"")</f>
-        <v>567</v>
+        <v>680</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IF(A2=1,B2,"")</f>
@@ -1508,81 +1508,79 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C79)</f>
-        <v>567,570,571,572,573,574,575,576,577,578,579,580,581,583,584,585,587,588,589,590,591,592,593,594,595,597,598,599,600,601,602,604,606,607,608,609,610,611,612,613,614,615,617,618,619,620,621,622,623,624,627,629,630,632,634,635,637,638,639,640,641,642,643,644</v>
+        <v>680,681,682,683,685,686,688,689,691,693,695,696,697,698,699,700,701,702,703,704,705,706,707,708,709,710</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="3">
-        <v>568</v>
-      </c>
-      <c r="C3" s="1" t="str">
+        <v>681</v>
+      </c>
+      <c r="C3" s="1">
         <f t="shared" ref="C3:C34" si="0">IF(ISBLANK(A3),B3,"")</f>
-        <v/>
-      </c>
-      <c r="D3" s="1">
+        <v>681</v>
+      </c>
+      <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D13" si="1">IF(A3=1,B3,"")</f>
-        <v>568</v>
+        <v/>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D43)</f>
-        <v>568,569,582,586,596,603,605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
-      </c>
+        <v>684,687,690,692,694</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="3">
-        <v>569</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="1"/>
-        <v>569</v>
+        <v>682</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>682</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3">
-        <v>570</v>
+        <v>683</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>570</v>
+        <v>683</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" s="3">
-        <v>571</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>571</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>684</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="3">
-        <v>572</v>
+        <v>685</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>572</v>
+        <v>685</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1591,37 +1589,40 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3">
-        <v>573</v>
+        <v>686</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>573</v>
+        <v>686</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" s="3">
-        <v>574</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>574</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>687</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="3">
-        <v>575</v>
+        <v>688</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>688</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1631,37 +1632,40 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="3">
-        <v>576</v>
+        <v>689</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>689</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" s="3">
-        <v>577</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>577</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>690</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="3">
-        <v>578</v>
+        <v>691</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>578</v>
+        <v>691</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1669,26 +1673,28 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
       <c r="B14" s="3">
-        <v>579</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>579</v>
-      </c>
-      <c r="D14" s="1" t="str">
+        <v>692</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" ref="D14:D45" si="2">IF(A14=1,B14,"")</f>
-        <v/>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="3">
-        <v>580</v>
+        <v>693</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>580</v>
+        <v>693</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1696,43 +1702,43 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
       <c r="B16" s="3">
-        <v>581</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>581</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>694</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>694</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="3">
-        <v>582</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="2"/>
-        <v>582</v>
+        <v>695</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>695</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="3">
-        <v>583</v>
+        <v>696</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>583</v>
+        <v>696</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1741,11 +1747,11 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="3">
-        <v>584</v>
+        <v>697</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>584</v>
+        <v>697</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1754,40 +1760,37 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="3">
-        <v>585</v>
+        <v>698</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>585</v>
+        <v>698</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>1</v>
-      </c>
+    <row r="21" spans="2:4">
       <c r="B21" s="3">
-        <v>586</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="2"/>
-        <v>586</v>
+        <v>699</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>699</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3">
-        <v>587</v>
+        <v>700</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>587</v>
+        <v>700</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1796,11 +1799,11 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3">
-        <v>588</v>
+        <v>701</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>588</v>
+        <v>701</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1809,11 +1812,11 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3">
-        <v>589</v>
+        <v>702</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>589</v>
+        <v>702</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1822,11 +1825,11 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3">
-        <v>590</v>
+        <v>703</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>590</v>
+        <v>703</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1835,11 +1838,11 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3">
-        <v>591</v>
+        <v>704</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>591</v>
+        <v>704</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1848,11 +1851,11 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3">
-        <v>592</v>
+        <v>705</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>592</v>
+        <v>705</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1861,11 +1864,11 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3">
-        <v>593</v>
+        <v>706</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>593</v>
+        <v>706</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1874,11 +1877,11 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3">
-        <v>594</v>
+        <v>707</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>594</v>
+        <v>707</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1887,1159 +1890,619 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3">
-        <v>595</v>
+        <v>708</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>595</v>
+        <v>708</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>1</v>
-      </c>
+    <row r="31" spans="2:4">
       <c r="B31" s="3">
-        <v>596</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="2"/>
-        <v>596</v>
+        <v>709</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>709</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3">
-        <v>597</v>
+        <v>710</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="0"/>
-        <v>597</v>
+        <f>IF(ISBLANK(A32),B32,"")</f>
+        <v>710</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="3">
-        <v>598</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="0"/>
-        <v>598</v>
-      </c>
+    <row r="33" spans="3:4">
+      <c r="C33" s="1"/>
       <c r="D33" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="3">
-        <v>599</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="0"/>
-        <v>599</v>
-      </c>
+    <row r="34" spans="3:4">
+      <c r="C34" s="1"/>
       <c r="D34" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="3">
-        <v>600</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" ref="C35:C79" si="3">IF(ISBLANK(A35),B35,"")</f>
-        <v>600</v>
-      </c>
+    <row r="35" spans="3:4">
+      <c r="C35" s="1"/>
       <c r="D35" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="3">
-        <v>601</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="3"/>
-        <v>601</v>
-      </c>
+    <row r="36" spans="3:4">
+      <c r="C36" s="1"/>
       <c r="D36" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="3">
-        <v>602</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="3"/>
-        <v>602</v>
-      </c>
+    <row r="37" spans="3:4">
+      <c r="C37" s="1"/>
       <c r="D37" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3">
-        <v>603</v>
-      </c>
-      <c r="C38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="2"/>
-        <v>603</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="3">
-        <v>604</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" si="3"/>
-        <v>604</v>
-      </c>
+    <row r="38" spans="3:4">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="1"/>
       <c r="D39" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" s="3">
-        <v>605</v>
-      </c>
-      <c r="C40" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="2"/>
-        <v>605</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="3">
-        <v>606</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="3"/>
-        <v>606</v>
-      </c>
+    <row r="40" spans="3:4">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="1"/>
       <c r="D41" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="3">
-        <v>607</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="3"/>
-        <v>607</v>
-      </c>
+    <row r="42" spans="3:4">
+      <c r="C42" s="1"/>
       <c r="D42" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="3">
-        <v>608</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="3"/>
-        <v>608</v>
-      </c>
+    <row r="43" spans="3:4">
+      <c r="C43" s="1"/>
       <c r="D43" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="3">
-        <v>609</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="3"/>
-        <v>609</v>
-      </c>
+    <row r="44" spans="3:4">
+      <c r="C44" s="1"/>
       <c r="D44" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="3">
-        <v>610</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" si="3"/>
-        <v>610</v>
-      </c>
+    <row r="45" spans="3:4">
+      <c r="C45" s="1"/>
       <c r="D45" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="3">
-        <v>611</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" si="3"/>
-        <v>611</v>
-      </c>
+    <row r="46" spans="3:4">
+      <c r="C46" s="1"/>
       <c r="D46" s="1" t="str">
-        <f t="shared" ref="D46:D77" si="4">IF(A46=1,B46,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="3">
-        <v>612</v>
-      </c>
-      <c r="C47" s="1">
-        <f t="shared" si="3"/>
-        <v>612</v>
-      </c>
+        <f t="shared" ref="D46:D77" si="3">IF(A46=1,B46,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="1"/>
       <c r="D47" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="3">
-        <v>613</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="3"/>
-        <v>613</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="1"/>
       <c r="D48" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="3">
-        <v>614</v>
-      </c>
-      <c r="C49" s="1">
-        <f t="shared" si="3"/>
-        <v>614</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="1"/>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="3">
-        <v>615</v>
-      </c>
-      <c r="C50" s="1">
-        <f t="shared" si="3"/>
-        <v>615</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="1"/>
       <c r="D50" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" s="3">
-        <v>616</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="4"/>
-        <v>616</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="3">
-        <v>617</v>
-      </c>
-      <c r="C52" s="1">
-        <f t="shared" si="3"/>
-        <v>617</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="1"/>
       <c r="D52" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="3">
-        <v>618</v>
-      </c>
-      <c r="C53" s="1">
-        <f t="shared" si="3"/>
-        <v>618</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="1"/>
       <c r="D53" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="3">
-        <v>619</v>
-      </c>
-      <c r="C54" s="1">
-        <f t="shared" si="3"/>
-        <v>619</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" s="1"/>
       <c r="D54" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="3">
-        <v>620</v>
-      </c>
-      <c r="C55" s="1">
-        <f t="shared" si="3"/>
-        <v>620</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" s="1"/>
       <c r="D55" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="3">
-        <v>621</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" si="3"/>
-        <v>621</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" s="1"/>
       <c r="D56" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="3">
-        <v>622</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" si="3"/>
-        <v>622</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" s="1"/>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="3">
-        <v>623</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" si="3"/>
-        <v>623</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="1"/>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="3">
-        <v>624</v>
-      </c>
-      <c r="C59" s="1">
-        <f t="shared" si="3"/>
-        <v>624</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="1"/>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" s="3">
-        <v>625</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="4"/>
-        <v>625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" s="3">
-        <v>626</v>
-      </c>
-      <c r="C61" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="4"/>
-        <v>626</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="3">
-        <v>627</v>
-      </c>
-      <c r="C62" s="1">
-        <f t="shared" si="3"/>
-        <v>627</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="1"/>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" s="3">
-        <v>628</v>
-      </c>
-      <c r="C63" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" si="4"/>
-        <v>628</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="3">
-        <v>629</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" si="3"/>
-        <v>629</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64" s="1"/>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="3">
-        <v>630</v>
-      </c>
-      <c r="C65" s="1">
-        <f t="shared" si="3"/>
-        <v>630</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="1"/>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" s="3">
-        <v>631</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" si="4"/>
-        <v>631</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="3">
-        <v>632</v>
-      </c>
-      <c r="C67" s="1">
-        <f t="shared" si="3"/>
-        <v>632</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="1"/>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" s="3">
-        <v>633</v>
-      </c>
-      <c r="C68" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D68" s="1">
-        <f t="shared" si="4"/>
-        <v>633</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="3">
-        <v>634</v>
-      </c>
-      <c r="C69" s="1">
-        <f t="shared" si="3"/>
-        <v>634</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="1"/>
       <c r="D69" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="3">
-        <v>635</v>
-      </c>
-      <c r="C70" s="1">
-        <f t="shared" si="3"/>
-        <v>635</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" s="1"/>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" s="3">
-        <v>636</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D71" s="1">
-        <f t="shared" si="4"/>
-        <v>636</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="B72" s="3">
-        <v>637</v>
-      </c>
-      <c r="C72" s="1">
-        <f t="shared" si="3"/>
-        <v>637</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" s="1"/>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73" s="3">
-        <v>638</v>
-      </c>
-      <c r="C73" s="1">
-        <f t="shared" si="3"/>
-        <v>638</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73" s="1"/>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" s="3">
-        <v>639</v>
-      </c>
-      <c r="C74" s="1">
-        <f t="shared" si="3"/>
-        <v>639</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" s="1"/>
       <c r="D74" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75" s="3">
-        <v>640</v>
-      </c>
-      <c r="C75" s="1">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" s="1"/>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76" s="3">
-        <v>641</v>
-      </c>
-      <c r="C76" s="1">
-        <f t="shared" si="3"/>
-        <v>641</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="C76" s="1"/>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="B77" s="3">
-        <v>642</v>
-      </c>
-      <c r="C77" s="1">
-        <f t="shared" si="3"/>
-        <v>642</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" s="1"/>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="2:4">
-      <c r="B78" s="3">
-        <v>643</v>
-      </c>
-      <c r="C78" s="1">
-        <f t="shared" si="3"/>
-        <v>643</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78" s="1"/>
       <c r="D78" s="1" t="str">
-        <f t="shared" ref="D78:D109" si="5">IF(A78=1,B78,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="2:4">
-      <c r="B79" s="3">
-        <v>644</v>
-      </c>
-      <c r="C79" s="1">
-        <f t="shared" si="3"/>
-        <v>644</v>
-      </c>
+        <f t="shared" ref="D78:D114" si="4">IF(A78=1,B78,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79" s="1"/>
       <c r="D79" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" s="3">
-        <v>645</v>
-      </c>
-      <c r="C80" s="1">
-        <f t="shared" ref="C80:C114" si="6">IF(ISBLANK(A80),B80,"")</f>
-        <v>645</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" s="1"/>
       <c r="D80" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
-      <c r="B81" s="3">
-        <v>646</v>
-      </c>
-      <c r="C81" s="1">
-        <f t="shared" si="6"/>
-        <v>646</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" s="1"/>
       <c r="D81" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82" s="3">
-        <v>647</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D82" s="1">
-        <f t="shared" si="5"/>
-        <v>647</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="B83" s="3">
-        <v>648</v>
-      </c>
-      <c r="C83" s="1">
-        <f t="shared" si="6"/>
-        <v>648</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83" s="1"/>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84" s="3">
-        <v>649</v>
-      </c>
-      <c r="C84" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D84" s="1">
-        <f t="shared" si="5"/>
-        <v>649</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
-      <c r="B85" s="3">
-        <v>650</v>
-      </c>
-      <c r="C85" s="1">
-        <f t="shared" si="6"/>
-        <v>650</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85" s="1"/>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
-      <c r="B86" s="3">
-        <v>651</v>
-      </c>
-      <c r="C86" s="1">
-        <f t="shared" si="6"/>
-        <v>651</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="1"/>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" s="3">
-        <v>652</v>
-      </c>
-      <c r="C87" s="1">
-        <f t="shared" si="6"/>
-        <v>652</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" s="1"/>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88" s="3">
-        <v>653</v>
-      </c>
-      <c r="C88" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D88" s="1">
-        <f t="shared" si="5"/>
-        <v>653</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
-      <c r="B89" s="3">
-        <v>654</v>
-      </c>
-      <c r="C89" s="1">
-        <f t="shared" si="6"/>
-        <v>654</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="1"/>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" s="3">
-        <v>655</v>
-      </c>
-      <c r="C90" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D90" s="1">
-        <f t="shared" si="5"/>
-        <v>655</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4">
-      <c r="B91" s="3">
-        <v>656</v>
-      </c>
-      <c r="C91" s="1">
-        <f t="shared" si="6"/>
-        <v>656</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91" s="1"/>
       <c r="D91" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
-      <c r="B92" s="3">
-        <v>657</v>
-      </c>
-      <c r="C92" s="1">
-        <f t="shared" si="6"/>
-        <v>657</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92" s="1"/>
       <c r="D92" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="3">
-        <v>658</v>
-      </c>
-      <c r="C93" s="1">
-        <f t="shared" si="6"/>
-        <v>658</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93" s="1"/>
       <c r="D93" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94" s="3">
-        <v>659</v>
-      </c>
-      <c r="C94" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D94" s="1">
-        <f t="shared" si="5"/>
-        <v>659</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="3">
-        <v>660</v>
-      </c>
-      <c r="C95" s="1">
-        <f t="shared" si="6"/>
-        <v>660</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95" s="1"/>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="2:4">
-      <c r="B96" s="3">
-        <v>661</v>
-      </c>
-      <c r="C96" s="1">
-        <f t="shared" si="6"/>
-        <v>661</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" s="1"/>
       <c r="D96" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="3">
-        <v>662</v>
-      </c>
-      <c r="C97" s="1">
-        <f t="shared" si="6"/>
-        <v>662</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97" s="1"/>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98" s="3">
-        <v>663</v>
-      </c>
-      <c r="C98" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D98" s="1">
-        <f t="shared" si="5"/>
-        <v>663</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="3">
-        <v>664</v>
-      </c>
-      <c r="C99" s="1">
-        <f t="shared" si="6"/>
-        <v>664</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99" s="1"/>
       <c r="D99" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="3">
-        <v>665</v>
-      </c>
-      <c r="C100" s="1">
-        <f t="shared" si="6"/>
-        <v>665</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100" s="1"/>
       <c r="D100" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="3">
-        <v>666</v>
-      </c>
-      <c r="C101" s="1">
-        <f t="shared" si="6"/>
-        <v>666</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101" s="1"/>
       <c r="D101" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" s="3">
-        <v>667</v>
-      </c>
-      <c r="C102" s="1">
-        <f t="shared" si="6"/>
-        <v>667</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102" s="1"/>
       <c r="D102" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="3">
-        <v>668</v>
-      </c>
-      <c r="C103" s="1">
-        <f t="shared" si="6"/>
-        <v>668</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103" s="1"/>
       <c r="D103" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" s="3">
-        <v>669</v>
-      </c>
-      <c r="C104" s="1">
-        <f t="shared" si="6"/>
-        <v>669</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="C104" s="1"/>
       <c r="D104" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="B105" s="3">
-        <v>670</v>
-      </c>
-      <c r="C105" s="1">
-        <f t="shared" si="6"/>
-        <v>670</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="3:4">
+      <c r="C105" s="1"/>
       <c r="D105" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" s="3">
-        <v>671</v>
-      </c>
-      <c r="C106" s="1">
-        <f t="shared" si="6"/>
-        <v>671</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106" s="1"/>
       <c r="D106" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="3">
-        <v>672</v>
-      </c>
-      <c r="C107" s="1">
-        <f t="shared" si="6"/>
-        <v>672</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107" s="1"/>
       <c r="D107" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" s="3">
-        <v>673</v>
-      </c>
-      <c r="C108" s="1">
-        <f t="shared" si="6"/>
-        <v>673</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="C108" s="1"/>
       <c r="D108" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="2:4">
-      <c r="B109" s="3">
-        <v>674</v>
-      </c>
-      <c r="C109" s="1">
-        <f t="shared" si="6"/>
-        <v>674</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109" s="1"/>
       <c r="D109" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="B110" s="3">
-        <v>675</v>
-      </c>
-      <c r="C110" s="1">
-        <f t="shared" si="6"/>
-        <v>675</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110" s="1"/>
       <c r="D110" s="1" t="str">
-        <f>IF(A110=1,B110,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="2:4">
-      <c r="B111" s="3">
-        <v>676</v>
-      </c>
-      <c r="C111" s="1">
-        <f t="shared" si="6"/>
-        <v>676</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="3:4">
+      <c r="C111" s="1"/>
       <c r="D111" s="1" t="str">
-        <f>IF(A111=1,B111,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="2:4">
-      <c r="B112" s="3">
-        <v>677</v>
-      </c>
-      <c r="C112" s="1">
-        <f t="shared" si="6"/>
-        <v>677</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="C112" s="1"/>
       <c r="D112" s="1" t="str">
-        <f>IF(A112=1,B112,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="2:4">
-      <c r="B113" s="3">
-        <v>678</v>
-      </c>
-      <c r="C113" s="1">
-        <f t="shared" si="6"/>
-        <v>678</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" s="1"/>
       <c r="D113" s="1" t="str">
-        <f>IF(A113=1,B113,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="2:4">
-      <c r="B114" s="3">
-        <v>679</v>
-      </c>
-      <c r="C114" s="1">
-        <f t="shared" si="6"/>
-        <v>679</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114" s="1"/>
       <c r="D114" s="1" t="str">
-        <f>IF(A114=1,B114,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D79">
+  <autoFilter ref="A1:D114">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Post WP/onde-onde.xlsx
+++ b/Post WP/onde-onde.xlsx
@@ -136,8 +136,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -149,28 +149,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,23 +169,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,15 +202,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,21 +225,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,26 +247,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,7 +278,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,7 +314,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,13 +422,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,25 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,73 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,37 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,11 +508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,36 +534,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,7 +557,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,7 +581,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,143 +596,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1466,13 +1466,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21904761904762" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.21904761904762" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="12.8571428571429" style="3" customWidth="1"/>
   </cols>
@@ -1491,13 +1491,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="str">
+        <f>IFERROR(VLOOKUP(B2,$G$7:$H$21,2,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="B2" s="3">
-        <v>680</v>
+        <v>711</v>
       </c>
       <c r="C2" s="1">
-        <f>IF(ISBLANK(A2),B2,"")</f>
-        <v>680</v>
+        <f>IF(A2="",B2,"")</f>
+        <v>711</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IF(A2=1,B2,"")</f>
@@ -1508,20 +1512,23 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),C2:C79)</f>
-        <v>680,681,682,683,685,686,688,689,691,693,695,696,697,698,699,700,701,702,703,704,705,706,707,708,709,710</v>
+        <v>711,712,713,714,715,716,717,718,719,720,722,723,725,726,727,728,730,731,732,734,735,736,737,738,739,740,742,743,744,746,747,748,749,750,751,752,753,754,755,756,757,758,759,760,761,762,763,764,765,766,767,768,769,770,771,772,773,774,775,776,777,779,780,781,782,783,784,786,788</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A34" si="0">IFERROR(VLOOKUP(B3,$G$7:$H$21,2,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="B3" s="3">
-        <v>681</v>
+        <v>712</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C34" si="0">IF(ISBLANK(A3),B3,"")</f>
-        <v>681</v>
+        <f t="shared" ref="C3:C34" si="1">IF(A3="",B3,"")</f>
+        <v>712</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D13" si="1">IF(A3=1,B3,"")</f>
+        <f t="shared" ref="D3:D13" si="2">IF(A3=1,B3,"")</f>
         <v/>
       </c>
       <c r="E3" s="1" t="s">
@@ -1529,975 +1536,1983 @@
       </c>
       <c r="F3" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE(),D2:D43)</f>
-        <v>684,687,690,692,694</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>721,724,729,733,741,745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B4" s="3">
-        <v>682</v>
+        <v>713</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>682</v>
+        <f t="shared" si="1"/>
+        <v>713</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B5" s="3">
-        <v>683</v>
+        <v>714</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>683</v>
+        <f t="shared" si="1"/>
+        <v>714</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B6" s="3">
+        <v>715</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>715</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="3">
+        <v>716</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>716</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G7">
+        <v>721</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>684</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>684</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="3">
-        <v>685</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>685</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B8" s="3">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>686</v>
+        <f t="shared" si="1"/>
+        <v>717</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G8">
+        <v>724</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B9" s="3">
-        <v>687</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>687</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
+        <v>718</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>718</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G9">
+        <v>729</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B10" s="3">
-        <v>688</v>
+        <v>719</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>688</v>
+        <f t="shared" si="1"/>
+        <v>719</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G10">
+        <v>733</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B11" s="3">
-        <v>689</v>
+        <v>720</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>689</v>
+        <f t="shared" si="1"/>
+        <v>720</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G11">
+        <v>741</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>690</v>
+        <v>721</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <f t="shared" si="2"/>
+        <v>721</v>
+      </c>
+      <c r="G12">
+        <v>745</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B13" s="3">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>691</v>
+        <f t="shared" si="1"/>
+        <v>722</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G13">
+        <v>778</v>
+      </c>
+      <c r="H13">
         <v>1</v>
       </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B14" s="3">
-        <v>692</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:D45" si="2">IF(A14=1,B14,"")</f>
-        <v>692</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
+        <v>723</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>723</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" ref="D14:D45" si="3">IF(A14=1,B14,"")</f>
+        <v/>
+      </c>
+      <c r="G14">
+        <v>785</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B15" s="3">
-        <v>693</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>693</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
+        <v>724</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="3"/>
+        <v>724</v>
+      </c>
+      <c r="G15">
+        <v>787</v>
+      </c>
+      <c r="H15">
         <v>1</v>
       </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B16" s="3">
-        <v>694</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="2"/>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
+        <v>725</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>725</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G16">
+        <v>800</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B17" s="3">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>695</v>
+        <f t="shared" si="1"/>
+        <v>726</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G17">
+        <v>808</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B18" s="3">
-        <v>696</v>
+        <v>727</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>696</v>
+        <f t="shared" si="1"/>
+        <v>727</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G18">
+        <v>812</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B19" s="3">
-        <v>697</v>
+        <v>728</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>697</v>
+        <f t="shared" si="1"/>
+        <v>728</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G19">
+        <v>815</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B20" s="3">
-        <v>698</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>698</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
+        <v>729</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="3"/>
+        <v>729</v>
+      </c>
+      <c r="G20">
+        <v>817</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B21" s="3">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>699</v>
+        <f t="shared" si="1"/>
+        <v>730</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G21">
+        <v>819</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B22" s="3">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>700</v>
+        <f t="shared" si="1"/>
+        <v>731</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B23" s="3">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>701</v>
+        <f t="shared" si="1"/>
+        <v>732</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B24" s="3">
-        <v>702</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>702</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
+        <v>733</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="3"/>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B25" s="3">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>703</v>
+        <f t="shared" si="1"/>
+        <v>734</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B26" s="3">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>704</v>
+        <f t="shared" si="1"/>
+        <v>735</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B27" s="3">
-        <v>705</v>
+        <v>736</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>705</v>
+        <f t="shared" si="1"/>
+        <v>736</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B28" s="3">
-        <v>706</v>
+        <v>737</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>706</v>
+        <f t="shared" si="1"/>
+        <v>737</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B29" s="3">
-        <v>707</v>
+        <v>738</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
-        <v>707</v>
+        <f t="shared" si="1"/>
+        <v>738</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B30" s="3">
-        <v>708</v>
+        <v>739</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
-        <v>708</v>
+        <f t="shared" si="1"/>
+        <v>739</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="B31" s="3">
-        <v>709</v>
+        <v>740</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
-        <v>709</v>
+        <f t="shared" si="1"/>
+        <v>740</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B32" s="3">
-        <v>710</v>
-      </c>
-      <c r="C32" s="1">
-        <f>IF(ISBLANK(A32),B32,"")</f>
-        <v>710</v>
-      </c>
-      <c r="D32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="1"/>
+        <v>741</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="3"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B33" s="3">
+        <v>742</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="1"/>
+        <v>742</v>
+      </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B34" s="3">
+        <v>743</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="1"/>
+        <v>743</v>
+      </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="str">
+        <f t="shared" ref="A35:A66" si="4">IFERROR(VLOOKUP(B35,$G$7:$H$21,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B35" s="3">
+        <v>744</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" ref="C35:C66" si="5">IF(A35="",B35,"")</f>
+        <v>744</v>
+      </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B36" s="3">
+        <v>745</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="3"/>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B37" s="3">
+        <v>746</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="5"/>
+        <v>746</v>
+      </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B38" s="3">
+        <v>747</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="5"/>
+        <v>747</v>
+      </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" s="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B39" s="3">
+        <v>748</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="5"/>
+        <v>748</v>
+      </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B40" s="3">
+        <v>749</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="5"/>
+        <v>749</v>
+      </c>
       <c r="D40" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" s="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B41" s="3">
+        <v>750</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B42" s="3">
+        <v>751</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="5"/>
+        <v>751</v>
+      </c>
       <c r="D42" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" s="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B43" s="3">
+        <v>752</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="5"/>
+        <v>752</v>
+      </c>
       <c r="D43" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
-      <c r="C44" s="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B44" s="3">
+        <v>753</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="5"/>
+        <v>753</v>
+      </c>
       <c r="D44" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" s="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B45" s="3">
+        <v>754</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="5"/>
+        <v>754</v>
+      </c>
       <c r="D45" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="C46" s="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B46" s="3">
+        <v>755</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="5"/>
+        <v>755</v>
+      </c>
       <c r="D46" s="1" t="str">
-        <f t="shared" ref="D46:D77" si="3">IF(A46=1,B46,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" s="1"/>
+        <f t="shared" ref="D46:D77" si="6">IF(A46=1,B46,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B47" s="3">
+        <v>756</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="5"/>
+        <v>756</v>
+      </c>
       <c r="D47" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="3:4">
-      <c r="C48" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B48" s="3">
+        <v>757</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="5"/>
+        <v>757</v>
+      </c>
       <c r="D48" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B49" s="3">
+        <v>758</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="5"/>
+        <v>758</v>
+      </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B50" s="3">
+        <v>759</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="5"/>
+        <v>759</v>
+      </c>
       <c r="D50" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B51" s="3">
+        <v>760</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="5"/>
+        <v>760</v>
+      </c>
       <c r="D51" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B52" s="3">
+        <v>761</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="5"/>
+        <v>761</v>
+      </c>
       <c r="D52" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B53" s="3">
+        <v>762</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="5"/>
+        <v>762</v>
+      </c>
       <c r="D53" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B54" s="3">
+        <v>763</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="5"/>
+        <v>763</v>
+      </c>
       <c r="D54" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B55" s="3">
+        <v>764</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="5"/>
+        <v>764</v>
+      </c>
       <c r="D55" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="C56" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B56" s="3">
+        <v>765</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="5"/>
+        <v>765</v>
+      </c>
       <c r="D56" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="3:4">
-      <c r="C57" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B57" s="3">
+        <v>766</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="5"/>
+        <v>766</v>
+      </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="C58" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B58" s="3">
+        <v>767</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="5"/>
+        <v>767</v>
+      </c>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="3:4">
-      <c r="C59" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B59" s="3">
+        <v>768</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="5"/>
+        <v>768</v>
+      </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="3:4">
-      <c r="C60" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B60" s="3">
+        <v>769</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="5"/>
+        <v>769</v>
+      </c>
       <c r="D60" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B61" s="3">
+        <v>770</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="5"/>
+        <v>770</v>
+      </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="3:4">
-      <c r="C62" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B62" s="3">
+        <v>771</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="5"/>
+        <v>771</v>
+      </c>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="3:4">
-      <c r="C63" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B63" s="3">
+        <v>772</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="5"/>
+        <v>772</v>
+      </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="3:4">
-      <c r="C64" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B64" s="3">
+        <v>773</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="5"/>
+        <v>773</v>
+      </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B65" s="3">
+        <v>774</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="5"/>
+        <v>774</v>
+      </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="3:4">
-      <c r="C66" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B66" s="3">
+        <v>775</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="5"/>
+        <v>775</v>
+      </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="str">
+        <f t="shared" ref="A67:A98" si="7">IFERROR(VLOOKUP(B67,$G$7:$H$21,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B67" s="3">
+        <v>776</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" ref="C67:C98" si="8">IF(A67="",B67,"")</f>
+        <v>776</v>
+      </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="3:4">
-      <c r="C68" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B68" s="3">
+        <v>777</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="8"/>
+        <v>777</v>
+      </c>
       <c r="D68" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="3:4">
-      <c r="C70" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B69" s="3">
+        <v>778</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="6"/>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B70" s="3">
+        <v>779</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="8"/>
+        <v>779</v>
+      </c>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="3:4">
-      <c r="C71" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B71" s="3">
+        <v>780</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="8"/>
+        <v>780</v>
+      </c>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="3:4">
-      <c r="C72" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B72" s="3">
+        <v>781</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="8"/>
+        <v>781</v>
+      </c>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="3:4">
-      <c r="C73" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B73" s="3">
+        <v>782</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="8"/>
+        <v>782</v>
+      </c>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
-      <c r="C74" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B74" s="3">
+        <v>783</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="8"/>
+        <v>783</v>
+      </c>
       <c r="D74" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="3:4">
-      <c r="C75" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B75" s="3">
+        <v>784</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="8"/>
+        <v>784</v>
+      </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="3:4">
-      <c r="C76" s="1"/>
-      <c r="D76" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="3:4">
-      <c r="C77" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B76" s="3">
+        <v>785</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="6"/>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B77" s="3">
+        <v>786</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="8"/>
+        <v>786</v>
+      </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="3:4">
-      <c r="C78" s="1"/>
-      <c r="D78" s="1" t="str">
-        <f t="shared" ref="D78:D114" si="4">IF(A78=1,B78,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="3:4">
-      <c r="C79" s="1"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B78" s="3">
+        <v>787</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" ref="D78:D114" si="9">IF(A78=1,B78,"")</f>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B79" s="3">
+        <v>788</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="8"/>
+        <v>788</v>
+      </c>
       <c r="D79" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="3:4">
-      <c r="C80" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B80" s="3">
+        <v>789</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="8"/>
+        <v>789</v>
+      </c>
       <c r="D80" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="C81" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B81" s="3">
+        <v>790</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="8"/>
+        <v>790</v>
+      </c>
       <c r="D81" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="3:4">
-      <c r="C82" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B82" s="3">
+        <v>791</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="8"/>
+        <v>791</v>
+      </c>
       <c r="D82" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="3:4">
-      <c r="C83" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B83" s="3">
+        <v>792</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="8"/>
+        <v>792</v>
+      </c>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="3:4">
-      <c r="C84" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B84" s="3">
+        <v>793</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="8"/>
+        <v>793</v>
+      </c>
       <c r="D84" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="3:4">
-      <c r="C85" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B85" s="3">
+        <v>794</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="8"/>
+        <v>794</v>
+      </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="3:4">
-      <c r="C86" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B86" s="3">
+        <v>795</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="8"/>
+        <v>795</v>
+      </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="3:4">
-      <c r="C87" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B87" s="3">
+        <v>796</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="8"/>
+        <v>796</v>
+      </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="C88" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B88" s="3">
+        <v>797</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="8"/>
+        <v>797</v>
+      </c>
       <c r="D88" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="3:4">
-      <c r="C89" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B89" s="3">
+        <v>798</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="8"/>
+        <v>798</v>
+      </c>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="3:4">
-      <c r="C90" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B90" s="3">
+        <v>799</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="8"/>
+        <v>799</v>
+      </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="3:4">
-      <c r="C91" s="1"/>
-      <c r="D91" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="3:4">
-      <c r="C92" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B91" s="3">
+        <v>800</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="9"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B92" s="3">
+        <v>801</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="8"/>
+        <v>801</v>
+      </c>
       <c r="D92" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="3:4">
-      <c r="C93" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B93" s="3">
+        <v>802</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="8"/>
+        <v>802</v>
+      </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="3:4">
-      <c r="C94" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B94" s="3">
+        <v>803</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="8"/>
+        <v>803</v>
+      </c>
       <c r="D94" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="3:4">
-      <c r="C95" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B95" s="3">
+        <v>804</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="8"/>
+        <v>804</v>
+      </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="3:4">
-      <c r="C96" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B96" s="3">
+        <v>805</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="8"/>
+        <v>805</v>
+      </c>
       <c r="D96" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="3:4">
-      <c r="C97" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B97" s="3">
+        <v>806</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="8"/>
+        <v>806</v>
+      </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="3:4">
-      <c r="C98" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B98" s="3">
+        <v>807</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="8"/>
+        <v>807</v>
+      </c>
       <c r="D98" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="3:4">
-      <c r="C99" s="1"/>
-      <c r="D99" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="3:4">
-      <c r="C100" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <f t="shared" ref="A99:A114" si="10">IFERROR(VLOOKUP(B99,$G$7:$H$21,2,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="B99" s="3">
+        <v>808</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f t="shared" ref="C99:C114" si="11">IF(A99="",B99,"")</f>
+        <v/>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="9"/>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="B100" s="3">
+        <v>809</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="11"/>
+        <v>809</v>
+      </c>
       <c r="D100" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="3:4">
-      <c r="C101" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="B101" s="3">
+        <v>810</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="11"/>
+        <v>810</v>
+      </c>
       <c r="D101" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="3:4">
-      <c r="C102" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="B102" s="3">
+        <v>811</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="11"/>
+        <v>811</v>
+      </c>
       <c r="D102" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="3:4">
-      <c r="C103" s="1"/>
-      <c r="D103" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="3:4">
-      <c r="C104" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B103" s="3">
+        <v>812</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="9"/>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="B104" s="3">
+        <v>813</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="11"/>
+        <v>813</v>
+      </c>
       <c r="D104" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="3:4">
-      <c r="C105" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="B105" s="3">
+        <v>814</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="11"/>
+        <v>814</v>
+      </c>
       <c r="D105" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="3:4">
-      <c r="C106" s="1"/>
-      <c r="D106" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="3:4">
-      <c r="C107" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B106" s="3">
+        <v>815</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="9"/>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="B107" s="3">
+        <v>816</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="11"/>
+        <v>816</v>
+      </c>
       <c r="D107" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="3:4">
-      <c r="C108" s="1"/>
-      <c r="D108" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="3:4">
-      <c r="C109" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B108" s="3">
+        <v>817</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="9"/>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="B109" s="3">
+        <v>818</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="11"/>
+        <v>818</v>
+      </c>
       <c r="D109" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="3:4">
-      <c r="C110" s="1"/>
-      <c r="D110" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="3:4">
-      <c r="C111" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B110" s="3">
+        <v>819</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="9"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="B111" s="3">
+        <v>820</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="11"/>
+        <v>820</v>
+      </c>
       <c r="D111" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="3:4">
-      <c r="C112" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="B112" s="3">
+        <v>821</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="11"/>
+        <v>821</v>
+      </c>
       <c r="D112" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="3:4">
-      <c r="C113" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="B113" s="3">
+        <v>822</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="11"/>
+        <v>822</v>
+      </c>
       <c r="D113" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="3:4">
-      <c r="C114" s="1"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="B114" s="3">
+        <v>823</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="11"/>
+        <v>823</v>
+      </c>
       <c r="D114" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
